--- a/Resultados/resultados regresiones.xlsx
+++ b/Resultados/resultados regresiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elilo\Desktop\Apps\R Studio\Analisis articulo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elilo\Desktop\Apps\R Studio\Analisis articulo\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFB94F6-5804-4882-B125-6AF89133F192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMPLES" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,11 @@
     <sheet name="ATT &amp; WM_Z" sheetId="5" r:id="rId4"/>
     <sheet name="EDAD" sheetId="3" r:id="rId5"/>
     <sheet name="EDAD_Z" sheetId="6" r:id="rId6"/>
+    <sheet name="FDR" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">FDR!$D$1:$E$45</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="84">
   <si>
     <t>EDAD</t>
   </si>
@@ -287,6 +291,12 @@
   </si>
   <si>
     <t>Bajo</t>
+  </si>
+  <si>
+    <t>ATT&amp;WM</t>
+  </si>
+  <si>
+    <t>ATTWM&amp;EDAD</t>
   </si>
 </sst>
 </file>
@@ -442,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -561,6 +571,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,7 +1285,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,10 +1816,10 @@
         <v>0.02</v>
       </c>
       <c r="C13" s="10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E13" s="24">
         <v>-2E-3</v>
@@ -1827,7 +1838,7 @@
         <v>0.02</v>
       </c>
       <c r="K13" s="10">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="L13" s="10">
         <v>0.01</v>
@@ -2771,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7757F5-E467-43FB-943F-7BD7D5C7DE70}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:J18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4713,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A507BC9-C877-4502-A460-22857A1A9D00}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6154,4 +6165,536 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FA19ED-2198-4DB8-92AB-34459FC239E2}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="23"/>
+    <col min="2" max="2" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="23"/>
+    <col min="5" max="5" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1.7E-5</v>
+      </c>
+      <c r="D2" s="30">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E2" s="24">
+        <v>2.3700000000000002E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B3" s="24">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="D3" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E3" s="24">
+        <v>2.9900000000000002E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="B4" s="24">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="E4" s="24">
+        <v>3.4999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>0.67</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D5" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1.2E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1.63E-5</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1.63E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="B7" s="24">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1.7E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="24">
+        <v>2.09E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9" s="24">
+        <v>2.27E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="B10" s="24">
+        <v>2.09E-5</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="24">
+        <v>3.3000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B11" s="24">
+        <v>2.27E-5</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="E11" s="24">
+        <v>4.5000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="B12" s="24">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="E12" s="24">
+        <v>4.6300000000000001E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E13" s="24">
+        <v>6.0300000000000002E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="E15" s="24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="B16" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="E16" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="E17" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="E18" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B20" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.67</v>
+      </c>
+      <c r="E20" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="E21" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="E23" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="24">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="24">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="E35" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="24">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="24">
+        <v>0.13</v>
+      </c>
+      <c r="E39" s="24">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E40" s="24">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E41" s="24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="E43" s="24">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E45">
+    <sortCondition ref="E1:E45"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resultados/resultados regresiones.xlsx
+++ b/Resultados/resultados regresiones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elilo\Desktop\Apps\R Studio\Analisis articulo\Resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f3ba38939858e1d/Desktop/Apps/R Studio/Analisis articulo/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1095" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28ABF937-63A1-4DBE-8124-50CCB2681AD6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="617" firstSheet="4" activeTab="9" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMPLES" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,15 @@
     <sheet name="EDAD" sheetId="3" r:id="rId5"/>
     <sheet name="EDAD_Z" sheetId="6" r:id="rId6"/>
     <sheet name="FDR" sheetId="7" r:id="rId7"/>
+    <sheet name="Coincidencia p" sheetId="9" r:id="rId8"/>
+    <sheet name="Tablas ATTWM" sheetId="10" r:id="rId9"/>
+    <sheet name="Tablas EDAD" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">FDR!$D$1:$E$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">FDR!$D$1:$I$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="102">
   <si>
     <t>EDAD</t>
   </si>
@@ -298,12 +302,66 @@
   <si>
     <t>ATTWM&amp;EDAD</t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>valor critico</t>
+  </si>
+  <si>
+    <t>FDR</t>
+  </si>
+  <si>
+    <t>sig?</t>
+  </si>
+  <si>
+    <t>JUNTOS</t>
+  </si>
+  <si>
+    <t>EFICIENCIA EN MEMORIA DE TRABAJO</t>
+  </si>
+  <si>
+    <t>AMPLIFICACION - ATENDER ROSTROS</t>
+  </si>
+  <si>
+    <t>SUPRESION - IGNORAR ROSTROS</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>0-03</t>
+  </si>
+  <si>
+    <t>ATT&amp;WM_FDR</t>
+  </si>
+  <si>
+    <t>ATTWM&amp;EDAD_FDR</t>
+  </si>
+  <si>
+    <t>ATT&amp;WM_NOR</t>
+  </si>
+  <si>
+    <t>ATTWM&amp;EDAD_NOR</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>DIFERENCIAS GRUPOS</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,8 +407,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C3E50"/>
+      <name val="Lato"/>
+      <family val="34"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +424,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -538,9 +614,33 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,6 +648,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -571,7 +674,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,6 +698,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -886,41 +1001,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995A4F32-9176-4EB1-A6F9-B1313376491F}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="49"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="35"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K1" s="49"/>
+      <c r="M1" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -947,8 +1069,18 @@
       <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2" s="1"/>
+      <c r="N2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,8 +1111,20 @@
       <c r="K3" s="7">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="O3" s="24">
+        <v>-0.08</v>
+      </c>
+      <c r="P3" s="24">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1011,8 +1155,20 @@
       <c r="K4" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="4">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="O4" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P4" s="24">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1200,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1232,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1264,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1296,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1328,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1360,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1392,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1269,7 +1425,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="H1:I1"/>
@@ -1280,15 +1437,1638 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D41627-2355-4EEA-A2CD-D2B21314CEDD}">
+  <dimension ref="A1:K65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.52</v>
+      </c>
+      <c r="D4" s="24">
+        <v>-0.09</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.26</v>
+      </c>
+      <c r="C5" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2645</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D6" s="24">
+        <v>-0.06</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="24">
+        <v>-0.06</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.36</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="24">
+        <v>-0.08</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="D8" s="24">
+        <v>-0.09</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10">
+        <v>-0.18</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D10" s="24">
+        <v>-0.04</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.54</v>
+      </c>
+      <c r="F10" s="10">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="H10" s="4">
+        <v>19348</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="24">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="24">
+        <v>-0.1</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D12" s="24">
+        <v>-0.04</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.51</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="24">
+        <v>-0.13</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="24">
+        <v>-0.08</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.37</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="49"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="10">
+        <v>12536</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D22" s="10">
+        <v>-0.12</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F22" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="H22" s="10">
+        <v>10544</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="J22" s="10">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="K22" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.63</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="G23" s="24">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="H24" s="10">
+        <v>37672</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D25" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.48</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G25" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H25" s="10">
+        <v>47440</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="D26" s="24">
+        <v>-0.04</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="G26" s="24">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="G27" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="D28" s="24">
+        <v>-0.04</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="G28" s="24">
+        <v>-1E-3</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="C29" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.64</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="H29" s="10">
+        <v>24512</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="C30" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="D31" s="24">
+        <v>-0.04</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="G31" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="52"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="24"/>
+      <c r="B36" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="58"/>
+      <c r="F36" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="58"/>
+      <c r="H36" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="49"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="24"/>
+      <c r="B37" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="D38" s="24">
+        <v>-0.08</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="F38" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="24">
+        <v>-0.09</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="D39" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E39" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F39" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="D40" s="24">
+        <v>-0.01</v>
+      </c>
+      <c r="E40" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="F40" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="10">
+        <v>-0.18</v>
+      </c>
+      <c r="C41" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E41" s="24">
+        <v>0.35</v>
+      </c>
+      <c r="F41" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H41" s="4">
+        <v>7212</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="D42" s="24">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="F42" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="E43" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F43" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="10">
+        <v>-0.17</v>
+      </c>
+      <c r="C44" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0.36</v>
+      </c>
+      <c r="F44" s="10">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="H44" s="10">
+        <v>19040</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="24">
+        <v>-0.12</v>
+      </c>
+      <c r="C45" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E45" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="F45" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="24">
+        <v>-0.1</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D46" s="24">
+        <v>-0.04</v>
+      </c>
+      <c r="E46" s="24">
+        <v>0.51</v>
+      </c>
+      <c r="F46" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="24">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="D47" s="24">
+        <v>-0.11</v>
+      </c>
+      <c r="E47" s="24">
+        <v>0.13</v>
+      </c>
+      <c r="F47" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="24">
+        <v>-0.11</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="F48" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="58"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="58"/>
+      <c r="D53" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="58"/>
+      <c r="F53" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="58"/>
+      <c r="H53" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" s="49"/>
+      <c r="J53" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53" s="49"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0.74</v>
+      </c>
+      <c r="D55" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E55" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="G55" s="24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0.68</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="E56" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="F56" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="10">
+        <v>28.38</v>
+      </c>
+      <c r="K56" s="10">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="24">
+        <v>-0.04</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0.42</v>
+      </c>
+      <c r="D57" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="G57" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E58" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="G58" s="24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="24">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="E59" s="24">
+        <v>0.44</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G59" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="10">
+        <v>-0.09</v>
+      </c>
+      <c r="C60" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D60" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="G60" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="H60" s="10">
+        <v>23296</v>
+      </c>
+      <c r="I60" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="24">
+        <v>-1E-3</v>
+      </c>
+      <c r="C61" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="D61" s="10">
+        <v>-0.1</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="G61" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="10">
+        <v>16.73</v>
+      </c>
+      <c r="K61" s="10">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0.36</v>
+      </c>
+      <c r="D62" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E62" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="G62" s="24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="C63" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="E63" s="10">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F63" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="10">
+        <v>23.54</v>
+      </c>
+      <c r="K63" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="24">
+        <v>0.61</v>
+      </c>
+      <c r="D64" s="24">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E64" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="G64" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="24">
+        <v>-0.01</v>
+      </c>
+      <c r="C65" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D65" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="E65" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="G65" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B36:C36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F894C3D5-DDD7-47D0-8C07-06464CD435CE}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -1296,27 +3076,27 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1872,58 +3652,58 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:H30"/>
+      <selection activeCell="A4" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="36" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="35"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2316,48 +4096,48 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="36" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42" t="s">
+      <c r="E18" s="53"/>
+      <c r="F18" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="42"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35" t="s">
+      <c r="J18" s="49"/>
+      <c r="K18" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="35"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -2759,6 +4539,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -2767,12 +4553,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2782,49 +4562,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7757F5-E467-43FB-943F-7BD7D5C7DE70}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11.5546875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -3072,38 +4852,38 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45" t="s">
+      <c r="E19" s="56"/>
+      <c r="F19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="44" t="s">
+      <c r="G19" s="56"/>
+      <c r="H19" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -3372,10 +5152,10 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N1" activeCellId="1" sqref="A1:H1 N1:U1"/>
+      <selection activeCell="N1" sqref="N1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
@@ -3383,73 +5163,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="36" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="42"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="35"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="9"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="39" t="s">
+      <c r="P2" s="52"/>
+      <c r="Q2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="39" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="41"/>
+      <c r="T2" s="52"/>
       <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
@@ -4083,46 +5863,46 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="41"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="52"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="42"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
@@ -4132,18 +5912,18 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="39" t="s">
+      <c r="P17" s="52"/>
+      <c r="Q17" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="41"/>
-      <c r="S17" s="39" t="s">
+      <c r="R17" s="52"/>
+      <c r="S17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="41"/>
+      <c r="T17" s="52"/>
       <c r="U17" s="4" t="s">
         <v>25</v>
       </c>
@@ -4696,12 +6476,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="N16:U16"/>
@@ -4715,6 +6489,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4724,11 +6504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A507BC9-C877-4502-A460-22857A1A9D00}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21:U31"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="11.5546875" style="23"/>
@@ -4737,79 +6517,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43" t="s">
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="25"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43" t="s">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43" t="s">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="54"/>
+      <c r="W2" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -4963,12 +6743,8 @@
       <c r="P5" s="10">
         <v>1E-3</v>
       </c>
-      <c r="Q5" s="10">
-        <v>-0.26</v>
-      </c>
-      <c r="R5" s="10">
-        <v>8.9999999999999993E-3</v>
-      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10">
@@ -5524,82 +7300,82 @@
       <c r="Y17" s="25"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="43" t="s">
+      <c r="N18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="54"/>
+      <c r="D19" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43" t="s">
+      <c r="G19" s="54"/>
+      <c r="H19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44" t="s">
+      <c r="I19" s="54"/>
+      <c r="J19" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
       <c r="M19" s="25"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="43" t="s">
+      <c r="O19" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43" t="s">
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43" t="s">
+      <c r="R19" s="54"/>
+      <c r="S19" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43" t="s">
+      <c r="T19" s="54"/>
+      <c r="U19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43" t="s">
+      <c r="V19" s="54"/>
+      <c r="W19" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -6137,15 +7913,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="U2:V2"/>
@@ -6161,6 +7928,15 @@
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6169,532 +7945,5110 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FA19ED-2198-4DB8-92AB-34459FC239E2}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="23"/>
+    <col min="2" max="2" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="23"/>
+    <col min="5" max="6" width="13.44140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="30">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B2" s="24">
+        <v>1.7E-5</v>
+      </c>
+      <c r="D2" s="30">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E2" s="35">
+        <v>2.27272727272727E-3</v>
+      </c>
+      <c r="F2" s="35">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="24">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="J2" s="35">
+        <v>1.13636363636363E-3</v>
+      </c>
+      <c r="K2" s="36">
+        <v>5.1333333333333298E-5</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="24">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="O2">
+        <v>7.5757575757575703E-4</v>
+      </c>
+      <c r="P2" s="28">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B3" s="24">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="D3" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E3" s="35">
+        <v>4.54545454545454E-3</v>
+      </c>
+      <c r="F3" s="35">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="24">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="J3" s="35">
+        <v>2.27272727272727E-3</v>
+      </c>
+      <c r="K3" s="36">
+        <v>5.1333333333333298E-5</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="24">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="O3">
+        <v>1.5151515151515099E-3</v>
+      </c>
+      <c r="P3" s="28">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="B4" s="24">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="E4" s="35">
+        <v>6.81818181818181E-3</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1.46666666666666E-2</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="24">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="J4" s="35">
+        <v>3.4090909090908998E-3</v>
+      </c>
+      <c r="K4" s="36">
+        <v>5.1333333333333298E-5</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="24">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="O4">
+        <v>2.27272727272727E-3</v>
+      </c>
+      <c r="P4" s="28">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="24">
+        <v>0.67</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D5" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="35">
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="F5" s="35">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="24">
+        <v>1.2E-5</v>
+      </c>
+      <c r="J5" s="35">
+        <v>4.54545454545454E-3</v>
+      </c>
+      <c r="K5" s="35">
+        <v>1.2466666666666599E-4</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="24">
+        <v>1.2E-5</v>
+      </c>
+      <c r="O5">
+        <v>3.0303030303030299E-3</v>
+      </c>
+      <c r="P5">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1.63E-5</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="35">
+        <v>1.13636363636363E-2</v>
+      </c>
+      <c r="F6" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="24">
+        <v>1.63E-5</v>
+      </c>
+      <c r="J6" s="35">
+        <v>5.6818181818181802E-3</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1.2466666666666599E-4</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" s="24">
+        <v>1.63E-5</v>
+      </c>
+      <c r="O6">
+        <v>3.7878787878787802E-3</v>
+      </c>
+      <c r="P6">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="B7" s="24">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="E7" s="35">
+        <v>1.3636363636363599E-2</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.146666666666666</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="24">
+        <v>1.7E-5</v>
+      </c>
+      <c r="J7" s="35">
+        <v>6.81818181818181E-3</v>
+      </c>
+      <c r="K7" s="35">
+        <v>1.2466666666666599E-4</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="24">
+        <v>1.7E-5</v>
+      </c>
+      <c r="O7">
+        <v>4.54545454545454E-3</v>
+      </c>
+      <c r="P7">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1.5909090909090901E-2</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.188571428571428</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="24">
+        <v>2.09E-5</v>
+      </c>
+      <c r="J8" s="35">
+        <v>7.9545454545454503E-3</v>
+      </c>
+      <c r="K8" s="35">
+        <v>1.2485E-4</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="37">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="O8">
+        <v>5.3030303030302999E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E9" s="35">
+        <v>1.8181818181818101E-2</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="24">
+        <v>2.27E-5</v>
+      </c>
+      <c r="J9" s="35">
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1.2485E-4</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="24">
+        <v>2.09E-5</v>
+      </c>
+      <c r="O9">
+        <v>6.0606060606060597E-3</v>
+      </c>
+      <c r="P9">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="B10" s="24">
+        <v>2.09E-5</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="E10" s="35">
+        <v>2.0454545454545399E-2</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0.44</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="24">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="J10" s="35">
+        <v>1.0227272727272699E-2</v>
+      </c>
+      <c r="K10" s="35">
+        <v>1.6133333333333299E-4</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="24">
+        <v>2.27E-5</v>
+      </c>
+      <c r="O10">
+        <v>6.81818181818181E-3</v>
+      </c>
+      <c r="P10">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A11" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B11" s="24">
+        <v>2.27E-5</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="E11" s="35">
+        <v>2.27272727272727E-2</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0.45374999999999999</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="24">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="J11" s="35">
+        <v>1.13636363636363E-2</v>
+      </c>
+      <c r="K11" s="35">
+        <v>1.852E-4</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="24">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="O11">
+        <v>7.5757575757575699E-3</v>
+      </c>
+      <c r="P11">
+        <v>2.1780000000000001E-4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A12" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="B12" s="24">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.27</v>
+      </c>
+      <c r="E12" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0.45374999999999999</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="24">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="J12" s="35">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K12" s="35">
+        <v>1.852E-4</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="24">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="O12">
+        <v>8.3333333333333297E-3</v>
+      </c>
+      <c r="P12">
+        <v>2.5464999999999998E-4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E13" s="35">
+        <v>2.7272727272727199E-2</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0.45374999999999999</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="24">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="J13" s="35">
+        <v>1.3636363636363599E-2</v>
+      </c>
+      <c r="K13" s="35">
+        <v>2.2110000000000001E-4</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="24">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="O13">
+        <v>9.0909090909090905E-3</v>
+      </c>
+      <c r="P13">
+        <v>2.5464999999999998E-4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="B14" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E14" s="35">
+        <v>2.95454545454545E-2</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.45374999999999999</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="35"/>
+      <c r="I14" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="J14" s="35">
+        <v>1.47727272727272E-2</v>
+      </c>
+      <c r="K14" s="35">
+        <v>3.3846153846153802E-4</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="24">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="O14">
+        <v>9.8484848484848495E-3</v>
+      </c>
+      <c r="P14">
+        <v>3.06138461538461E-4</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="E15" s="35">
+        <v>3.1818181818181801E-2</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0.45374999999999999</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J15" s="35">
+        <v>1.5909090909090901E-2</v>
+      </c>
+      <c r="K15" s="35">
+        <v>6.2857142857142799E-4</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="O15">
+        <v>1.06060606060606E-2</v>
+      </c>
+      <c r="P15">
+        <v>4.7142857142857099E-4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="B16" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3.4090909090908998E-2</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0.45374999999999999</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1.7045454545454499E-2</v>
+      </c>
+      <c r="K16" s="35">
+        <v>2.3466666666666601E-3</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O16">
+        <v>1.13636363636363E-2</v>
+      </c>
+      <c r="P16">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="E17" s="35">
+        <v>3.6363636363636299E-2</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0.45374999999999999</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="J17" s="35">
+        <v>1.8181818181818101E-2</v>
+      </c>
+      <c r="K17" s="35">
+        <v>2.4444444444444401E-3</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="38">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O17">
+        <v>1.21212121212121E-2</v>
+      </c>
+      <c r="P17">
+        <v>3.1058823529411701E-3</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A18" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="E18" s="35">
+        <v>3.8636363636363601E-2</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0.47666666666666602</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="J18" s="35">
+        <v>1.93181818181818E-2</v>
+      </c>
+      <c r="K18" s="35">
+        <v>2.4444444444444401E-3</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O18">
+        <v>1.28787878787878E-2</v>
+      </c>
+      <c r="P18">
+        <v>3.1058823529411701E-3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A19" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="E19" s="35">
+        <v>4.0909090909090902E-2</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0.47666666666666602</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="35">
+        <v>2.0454545454545399E-2</v>
+      </c>
+      <c r="K19" s="35">
+        <v>2.4444444444444401E-3</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="O19">
+        <v>1.3636363636363599E-2</v>
+      </c>
+      <c r="P19">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B20" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.67</v>
+      </c>
+      <c r="E20" s="35">
+        <v>4.3181818181818099E-2</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0.77578947368421003</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="J20" s="35">
+        <v>2.1590909090909001E-2</v>
+      </c>
+      <c r="K20" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="O20">
+        <v>1.4393939393939299E-2</v>
+      </c>
+      <c r="P20">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A21" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="E21" s="35">
+        <v>4.54545454545454E-2</v>
+      </c>
+      <c r="F21" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="J21" s="35">
+        <v>2.27272727272727E-2</v>
+      </c>
+      <c r="K21" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="O21">
+        <v>1.51515151515151E-2</v>
+      </c>
+      <c r="P21">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A22" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="E22" s="35">
+        <v>4.7727272727272702E-2</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="J22" s="35">
+        <v>2.3863636363636299E-2</v>
+      </c>
+      <c r="K22" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="38">
+        <v>2E-3</v>
+      </c>
+      <c r="O22">
+        <v>1.5909090909090901E-2</v>
+      </c>
+      <c r="P22">
+        <v>5.28E-3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="A23" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0.92</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="J23" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K23" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="O23">
+        <v>1.6666666666666601E-2</v>
+      </c>
+      <c r="P23">
+        <v>5.28E-3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B24" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J24" s="35">
+        <v>2.61363636363636E-2</v>
+      </c>
+      <c r="K24" s="35">
+        <v>5.7391304347826E-3</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="O24">
+        <v>1.7424242424242401E-2</v>
+      </c>
+      <c r="P24">
+        <v>5.28E-3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B25" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J25" s="35">
+        <v>2.7272727272727199E-2</v>
+      </c>
+      <c r="K25" s="35">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="O25">
+        <v>1.8181818181818101E-2</v>
+      </c>
+      <c r="P25">
+        <v>5.28E-3</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B26" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="J26" s="35">
+        <v>2.8409090909090901E-2</v>
+      </c>
+      <c r="K26" s="35">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="O26">
+        <v>1.8939393939393898E-2</v>
+      </c>
+      <c r="P26">
+        <v>5.28E-3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B27" s="24">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="J27" s="35">
+        <v>2.95454545454545E-2</v>
+      </c>
+      <c r="K27" s="35">
+        <v>3.3846153846153797E-2</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O27">
+        <v>1.9696969696969699E-2</v>
+      </c>
+      <c r="P27">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B28" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="J28" s="35">
+        <v>3.0681818181818098E-2</v>
+      </c>
+      <c r="K28" s="35">
+        <v>4.8888888888888801E-2</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="N28" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O28">
+        <v>2.0454545454545399E-2</v>
+      </c>
+      <c r="P28">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B29" s="24">
+        <v>1E-4</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="J29" s="35">
+        <v>3.1818181818181801E-2</v>
+      </c>
+      <c r="K29" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O29">
+        <v>2.12121212121212E-2</v>
+      </c>
+      <c r="P29">
+        <v>9.4285714285714198E-3</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B30" s="24">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="J30" s="35">
+        <v>3.2954545454545403E-2</v>
+      </c>
+      <c r="K30" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L30" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N30" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="O30">
+        <v>2.19696969696969E-2</v>
+      </c>
+      <c r="P30">
+        <v>2.2758620689655101E-2</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B31" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="J31" s="35">
+        <v>3.4090909090908998E-2</v>
+      </c>
+      <c r="K31" s="35">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L31" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N31" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="O31">
+        <v>2.27272727272727E-2</v>
+      </c>
+      <c r="P31">
+        <v>4.2580645161290301E-2</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B32" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J32" s="35">
+        <v>3.5227272727272697E-2</v>
+      </c>
+      <c r="K32" s="35">
+        <v>9.9354838709677401E-2</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N32" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="O32">
+        <v>2.34848484848484E-2</v>
+      </c>
+      <c r="P32">
+        <v>4.2580645161290301E-2</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B33" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="J33" s="35">
+        <v>3.6363636363636299E-2</v>
+      </c>
+      <c r="K33" s="35">
+        <v>0.15125</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="O33">
+        <v>2.4242424242424201E-2</v>
+      </c>
+      <c r="P33">
+        <v>6.1874999999999999E-2</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B34" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="J34" s="35">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="K34" s="35">
+        <v>0.155294117647058</v>
+      </c>
+      <c r="L34" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" s="38">
+        <v>0.04</v>
+      </c>
+      <c r="O34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P34">
+        <v>0.08</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B35" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="J35" s="35">
+        <v>3.8636363636363601E-2</v>
+      </c>
+      <c r="K35" s="35">
+        <v>0.155294117647058</v>
+      </c>
+      <c r="L35" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N35" s="38">
+        <v>0.06</v>
+      </c>
+      <c r="O35">
+        <v>2.5757575757575701E-2</v>
+      </c>
+      <c r="P35">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B36" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="24">
+        <v>0.13</v>
+      </c>
+      <c r="J36" s="35">
+        <v>3.9772727272727203E-2</v>
+      </c>
+      <c r="K36" s="35">
+        <v>0.16342857142857101</v>
+      </c>
+      <c r="L36" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="O36">
+        <v>2.6515151515151499E-2</v>
+      </c>
+      <c r="P36">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B37" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J37" s="35">
+        <v>4.0909090909090902E-2</v>
+      </c>
+      <c r="K37" s="35">
+        <v>0.17111111111111099</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N37" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="O37">
+        <v>2.7272727272727199E-2</v>
+      </c>
+      <c r="P37">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B38" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="J38" s="35">
+        <v>4.2045454545454497E-2</v>
+      </c>
+      <c r="K38" s="35">
+        <v>0.19027027027026999</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N38" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="O38">
+        <v>2.8030303030302999E-2</v>
+      </c>
+      <c r="P38">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B39" s="24">
+        <v>0.13</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="J39" s="35">
+        <v>4.3181818181818099E-2</v>
+      </c>
+      <c r="K39" s="35">
+        <v>0.22</v>
+      </c>
+      <c r="L39" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N39" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O39">
+        <v>2.8787878787878699E-2</v>
+      </c>
+      <c r="P39">
+        <v>0.12157894736842099</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B40" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="J40" s="35">
+        <v>4.4318181818181798E-2</v>
+      </c>
+      <c r="K40" s="35">
+        <v>0.23692307692307599</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N40" s="24">
+        <v>0.11</v>
+      </c>
+      <c r="O40">
+        <v>2.95454545454545E-2</v>
+      </c>
+      <c r="P40">
+        <v>0.186153846153846</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B41" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="J41" s="35">
+        <v>4.54545454545454E-2</v>
+      </c>
+      <c r="K41" s="35">
+        <v>0.26829268292682901</v>
+      </c>
+      <c r="L41" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="O41">
+        <v>3.03030303030303E-2</v>
+      </c>
+      <c r="P41">
+        <v>0.19317073170731699</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B42" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="J42" s="35">
+        <v>4.6590909090909002E-2</v>
+      </c>
+      <c r="K42" s="35">
+        <v>0.26829268292682901</v>
+      </c>
+      <c r="L42" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N42" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="O42">
+        <v>3.1060606060606E-2</v>
+      </c>
+      <c r="P42">
+        <v>0.19317073170731699</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B43" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="J43" s="35">
+        <v>4.7727272727272702E-2</v>
+      </c>
+      <c r="K43" s="35">
+        <v>0.45047619047618997</v>
+      </c>
+      <c r="L43" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N43" s="24">
+        <v>0.13</v>
+      </c>
+      <c r="O43">
+        <v>3.1818181818181801E-2</v>
+      </c>
+      <c r="P43">
+        <v>0.20428571428571399</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B44" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="J44" s="35">
+        <v>4.8863636363636297E-2</v>
+      </c>
+      <c r="K44" s="35">
+        <v>0.470697674418604</v>
+      </c>
+      <c r="L44" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N44" s="38">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O44">
+        <v>3.2575757575757501E-2</v>
+      </c>
+      <c r="P44">
+        <v>0.21</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B45" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="J45" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="K45" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="N45" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O45">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="P45">
+        <v>0.21</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N46" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="O46">
+        <v>3.4090909090908998E-2</v>
+      </c>
+      <c r="P46">
+        <v>0.234666666666666</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N47" s="38">
+        <v>0.18</v>
+      </c>
+      <c r="O47">
+        <v>3.4848484848484802E-2</v>
+      </c>
+      <c r="P47">
+        <v>0.25826086956521699</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N48" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="O48">
+        <v>3.5606060606060599E-2</v>
+      </c>
+      <c r="P48">
+        <v>0.26680851063829703</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N49" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="O49">
+        <v>3.6363636363636299E-2</v>
+      </c>
+      <c r="P49">
+        <v>0.28875000000000001</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N50" s="38">
+        <v>0.23</v>
+      </c>
+      <c r="O50">
+        <v>3.7121212121212097E-2</v>
+      </c>
+      <c r="P50">
+        <v>0.30979591836734599</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N51" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="O51">
+        <v>3.7878787878787797E-2</v>
+      </c>
+      <c r="P51">
+        <v>0.32352941176470501</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N52" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="O52">
+        <v>3.8636363636363601E-2</v>
+      </c>
+      <c r="P52">
+        <v>0.32352941176470501</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N53" s="38">
+        <v>0.27</v>
+      </c>
+      <c r="O53">
+        <v>3.9393939393939398E-2</v>
+      </c>
+      <c r="P53">
+        <v>0.34222222222222198</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N54" s="38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O54">
+        <v>4.0151515151515098E-2</v>
+      </c>
+      <c r="P54">
+        <v>0.34222222222222198</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N55" s="38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O55">
+        <v>4.0909090909090902E-2</v>
+      </c>
+      <c r="P55">
+        <v>0.34222222222222198</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N56" s="38">
+        <v>0.31</v>
+      </c>
+      <c r="O56">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="P56">
+        <v>0.36535714285714199</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N57" s="38">
+        <v>0.31</v>
+      </c>
+      <c r="O57">
+        <v>4.2424242424242399E-2</v>
+      </c>
+      <c r="P57">
+        <v>0.36535714285714199</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N58" s="38">
+        <v>0.33</v>
+      </c>
+      <c r="O58">
+        <v>4.3181818181818099E-2</v>
+      </c>
+      <c r="P58">
+        <v>0.382105263157894</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N59" s="38">
+        <v>0.38</v>
+      </c>
+      <c r="O59">
+        <v>4.3939393939393903E-2</v>
+      </c>
+      <c r="P59">
+        <v>0.43241379310344802</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N60" s="38">
+        <v>0.39</v>
+      </c>
+      <c r="O60">
+        <v>4.46969696969697E-2</v>
+      </c>
+      <c r="P60">
+        <v>0.43627118644067697</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N61" s="24">
+        <v>0.43</v>
+      </c>
+      <c r="O61">
+        <v>4.54545454545454E-2</v>
+      </c>
+      <c r="P61">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N62" s="24">
+        <v>0.46</v>
+      </c>
+      <c r="O62">
+        <v>4.6212121212121197E-2</v>
+      </c>
+      <c r="P62">
+        <v>0.49770491803278599</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N63" s="38">
+        <v>0.67</v>
+      </c>
+      <c r="O63">
+        <v>4.6969696969696897E-2</v>
+      </c>
+      <c r="P63">
+        <v>0.71322580645161204</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N64" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="O64">
+        <v>4.7727272727272702E-2</v>
+      </c>
+      <c r="P64">
+        <v>0.838095238095238</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N65" s="38">
+        <v>0.85</v>
+      </c>
+      <c r="O65">
+        <v>4.8484848484848402E-2</v>
+      </c>
+      <c r="P65">
+        <v>0.87656250000000002</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N66" s="38">
+        <v>0.91</v>
+      </c>
+      <c r="O66">
+        <v>4.9242424242424199E-2</v>
+      </c>
+      <c r="P66">
+        <v>0.92</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="14:17" x14ac:dyDescent="0.3">
+      <c r="N67" s="38">
+        <v>0.92</v>
+      </c>
+      <c r="O67">
+        <v>0.05</v>
+      </c>
+      <c r="P67">
+        <v>0.92</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:N67">
+    <sortCondition ref="N1:N67"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1220AE1D-6B27-4957-9083-206ACFC1CBED}">
+  <dimension ref="A1:Z67"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="23"/>
-    <col min="2" max="2" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="23"/>
-    <col min="5" max="5" width="13.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+        <v>87</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="U1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="40">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="41">
         <v>1.7E-5</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="41">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="E2" s="43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="45">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="H2" s="43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="J2" s="41">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="K2" s="39">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N2" s="40">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="E2" s="24">
+      <c r="O2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="39">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="R2" s="45">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="41">
+        <v>1.7E-5</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="41">
         <v>2.3700000000000002E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24">
+      <c r="Y2" s="43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="41">
         <v>3.4999999999999999E-6</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="41">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="E3" s="43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="45">
+        <v>3.1058823529411701E-3</v>
+      </c>
+      <c r="H3" s="43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="J3" s="41">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="K3" s="39">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="E3" s="24">
+      <c r="N3" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="R3" s="45">
+        <v>3.1058823529411701E-3</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="41">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="41">
         <v>2.9900000000000002E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+      <c r="Y3" s="43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
         <v>0.33</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="41">
         <v>4.5000000000000003E-5</v>
       </c>
+      <c r="D4" s="41">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="E4" s="43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="45">
+        <v>5.28E-3</v>
+      </c>
+      <c r="H4" s="43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="J4" s="41">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="K4" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="N4" s="39">
+        <v>0.33</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="R4" s="45">
+        <v>5.28E-3</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="41">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="41">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="Y4" s="43">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>0.67</v>
+      </c>
+      <c r="B5" s="41">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D5" s="41">
+        <v>1.2E-5</v>
+      </c>
+      <c r="E5" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="G5" s="45">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="H5" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="J5" s="41">
+        <v>1.2E-5</v>
+      </c>
+      <c r="K5" s="39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N5" s="39">
+        <v>0.67</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R5" s="45">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="41">
+        <v>1.2E-5</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="41">
+        <v>1.2E-5</v>
+      </c>
+      <c r="Y5" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="B6" s="41">
+        <v>1.63E-5</v>
+      </c>
+      <c r="D6" s="41">
+        <v>1.63E-5</v>
+      </c>
+      <c r="E6" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="G6" s="45">
+        <v>4.2580645161290301E-2</v>
+      </c>
+      <c r="H6" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="J6" s="41">
+        <v>1.63E-5</v>
+      </c>
+      <c r="K6" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="N6" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="R6" s="45">
+        <v>4.2580645161290301E-2</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="41">
+        <v>1.63E-5</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="41">
+        <v>1.63E-5</v>
+      </c>
+      <c r="Y6" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>0.18</v>
+      </c>
+      <c r="B7" s="41">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1.7E-5</v>
+      </c>
+      <c r="E7" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="J7" s="41">
+        <v>1.7E-5</v>
+      </c>
+      <c r="K7" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="N7" s="39">
+        <v>0.18</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="R7" s="45">
+        <v>0.08</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="41">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" s="41">
+        <v>1.7E-5</v>
+      </c>
+      <c r="Y7" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="B8" s="41">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="D8" s="40">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E8" s="45">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="H8" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="J8" s="42">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K8" s="39">
+        <v>0.06</v>
+      </c>
+      <c r="N8" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>0.06</v>
+      </c>
+      <c r="R8" s="45">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="41">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="41">
+        <v>2.09E-5</v>
+      </c>
+      <c r="Y8" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="B9" s="41">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2.09E-5</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0.21</v>
+      </c>
+      <c r="H9" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="J9" s="41">
+        <v>2.09E-5</v>
+      </c>
+      <c r="K9" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N9" s="39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R9" s="45">
+        <v>0.21</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="41">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="41">
+        <v>2.27E-5</v>
+      </c>
+      <c r="Y9" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>0.39</v>
+      </c>
+      <c r="B10" s="41">
+        <v>2.09E-5</v>
+      </c>
+      <c r="D10" s="41">
+        <v>2.27E-5</v>
+      </c>
+      <c r="E10" s="44">
+        <v>1.6646666666666601E-4</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0.25826086956521699</v>
+      </c>
+      <c r="H10" s="44">
+        <v>2.1780000000000001E-4</v>
+      </c>
+      <c r="J10" s="41">
+        <v>2.27E-5</v>
+      </c>
+      <c r="K10" s="39">
+        <v>0.18</v>
+      </c>
+      <c r="N10" s="39">
+        <v>0.39</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>0.18</v>
+      </c>
+      <c r="R10" s="45">
+        <v>0.25826086956521699</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" s="41">
+        <v>2.09E-5</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="41">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="Y10" s="44">
+        <v>2.1780000000000001E-4</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B11" s="41">
+        <v>2.27E-5</v>
+      </c>
+      <c r="D11" s="41">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="E11" s="44">
+        <v>2.1780000000000001E-4</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0.30979591836734599</v>
+      </c>
+      <c r="H11" s="44">
+        <v>2.5464999999999998E-4</v>
+      </c>
+      <c r="J11" s="41">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="K11" s="39">
+        <v>0.23</v>
+      </c>
+      <c r="N11" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>0.23</v>
+      </c>
+      <c r="R11" s="45">
+        <v>0.30979591836734599</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="41">
+        <v>2.27E-5</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="41">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="Y11" s="44">
+        <v>2.5464999999999998E-4</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="B12" s="41">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="D12" s="41">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="E12" s="44">
+        <v>2.5464999999999998E-4</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0.34222222222222198</v>
+      </c>
+      <c r="H12" s="44">
+        <v>2.5464999999999998E-4</v>
+      </c>
+      <c r="J12" s="41">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="K12" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="N12" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="R12" s="45">
+        <v>0.34222222222222198</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="41">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X12" s="41">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="Y12" s="44">
+        <v>2.5464999999999998E-4</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="B13" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="41">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="E13" s="44">
+        <v>2.5464999999999998E-4</v>
+      </c>
+      <c r="G13" s="45">
+        <v>0.34222222222222198</v>
+      </c>
+      <c r="H13" s="44">
+        <v>3.06138461538461E-4</v>
+      </c>
+      <c r="J13" s="41">
+        <v>4.6300000000000001E-5</v>
+      </c>
+      <c r="K13" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N13" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R13" s="45">
+        <v>0.34222222222222198</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="41">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="Y13" s="44">
+        <v>3.06138461538461E-4</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
+        <v>0.38</v>
+      </c>
+      <c r="B14" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="D14" s="41">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="E14" s="44">
+        <v>3.06138461538461E-4</v>
+      </c>
+      <c r="G14" s="45">
+        <v>0.34222222222222198</v>
+      </c>
+      <c r="H14" s="44">
+        <v>4.7142857142857099E-4</v>
+      </c>
+      <c r="J14" s="41">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="K14" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N14" s="39">
+        <v>0.38</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R14" s="45">
+        <v>0.34222222222222198</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U14" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="Y14" s="44">
+        <v>4.7142857142857099E-4</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="B15" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="D15" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="E15" s="44">
+        <v>4.7142857142857099E-4</v>
+      </c>
+      <c r="G15" s="45">
+        <v>0.36535714285714199</v>
+      </c>
+      <c r="H15" s="44">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="J15" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="K15" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="N15" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="R15" s="45">
+        <v>0.36535714285714199</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X15" s="41">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Y15" s="44">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="B16" s="41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D16" s="41">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E16" s="44">
+        <v>8.8000000000000003E-4</v>
+      </c>
+      <c r="G16" s="45">
+        <v>0.36535714285714199</v>
+      </c>
+      <c r="H16" s="44">
+        <v>3.1058823529411701E-3</v>
+      </c>
+      <c r="J16" s="41">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K16" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="N16" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="R16" s="45">
+        <v>0.36535714285714199</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16" s="41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16" s="41">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="Y16" s="44">
+        <v>3.1058823529411701E-3</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
+        <v>0.06</v>
+      </c>
+      <c r="B17" s="41">
+        <v>0.21</v>
+      </c>
+      <c r="D17" s="39">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E17" s="45">
+        <v>3.1058823529411701E-3</v>
+      </c>
+      <c r="G17" s="45">
+        <v>0.382105263157894</v>
+      </c>
+      <c r="H17" s="44">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J17" s="41">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K17" s="39">
+        <v>0.33</v>
+      </c>
+      <c r="N17" s="39">
+        <v>0.06</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>0.33</v>
+      </c>
+      <c r="R17" s="45">
+        <v>0.382105263157894</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="41">
+        <v>0.21</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="41">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="Y17" s="44">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="B18" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="41">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E18" s="44">
+        <v>3.1058823529411701E-3</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0.43241379310344802</v>
+      </c>
+      <c r="H18" s="44">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J18" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="K18" s="39">
+        <v>0.38</v>
+      </c>
+      <c r="N18" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="39">
+        <v>0.38</v>
+      </c>
+      <c r="R18" s="45">
+        <v>0.43241379310344802</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X18" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="Y18" s="44">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="B19" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="D19" s="41">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E19" s="44">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G19" s="45">
+        <v>0.43627118644067697</v>
+      </c>
+      <c r="H19" s="44">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J19" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="39">
+        <v>0.39</v>
+      </c>
+      <c r="N19" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>0.39</v>
+      </c>
+      <c r="R19" s="45">
+        <v>0.43627118644067697</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U19" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X19" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="Y19" s="44">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="B20" s="41">
+        <v>0.46</v>
+      </c>
+      <c r="D20" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="44">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G20" s="45">
+        <v>0.71322580645161204</v>
+      </c>
+      <c r="H20" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="J20" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="K20" s="39">
+        <v>0.67</v>
+      </c>
+      <c r="N20" s="39">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>0.67</v>
+      </c>
+      <c r="R20" s="45">
+        <v>0.71322580645161204</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U20" s="41">
+        <v>0.46</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="Y20" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="B21" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="D21" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" s="44">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G21" s="45">
+        <v>0.87656250000000002</v>
+      </c>
+      <c r="H21" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="J21" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="K21" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="N21" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="R21" s="45">
+        <v>0.87656250000000002</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="Y21" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="B22" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="E22" s="45">
+        <v>5.28E-3</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0.92</v>
+      </c>
+      <c r="H22" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="J22" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="K22" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="N22" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="R22" s="45">
+        <v>0.92</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U22" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="Y22" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="39">
+        <v>0.23</v>
+      </c>
+      <c r="B23" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="E23" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="G23" s="45">
+        <v>0.92</v>
+      </c>
+      <c r="H23" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="J23" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="K23" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="N23" s="39">
+        <v>0.23</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="R23" s="45">
+        <v>0.92</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X23" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="Y23" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B24" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="D24" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="E24" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="H24" s="44">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="J24" s="41">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U24" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" s="41">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y24" s="44">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B25" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="D25" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="E25" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="H25" s="44">
+        <v>9.4285714285714198E-3</v>
+      </c>
+      <c r="J25" s="41">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U25" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="41">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y25" s="44">
+        <v>9.4285714285714198E-3</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B26" s="41">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="E26" s="44">
+        <v>5.28E-3</v>
+      </c>
+      <c r="H26" s="44">
+        <v>2.2758620689655101E-2</v>
+      </c>
+      <c r="J26" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="U26" s="41">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X26" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="Y26" s="44">
+        <v>2.2758620689655101E-2</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B27" s="41">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="D27" s="39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E27" s="45">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="H27" s="44">
+        <v>4.2580645161290301E-2</v>
+      </c>
+      <c r="J27" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="U27" s="41">
+        <v>6.0300000000000002E-5</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X27" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="Y27" s="44">
+        <v>4.2580645161290301E-2</v>
+      </c>
+      <c r="Z27" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B28" s="41">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="41">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E28" s="44">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="H28" s="44">
+        <v>6.1874999999999999E-2</v>
+      </c>
+      <c r="J28" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="U28" s="41">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="Y28" s="44">
+        <v>6.1874999999999999E-2</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B29" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="D29" s="41">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E29" s="44">
+        <v>9.4285714285714198E-3</v>
+      </c>
+      <c r="H29" s="44">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="J29" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="U29" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X29" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="Y29" s="44">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B30" s="41">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D30" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="44">
+        <v>2.2758620689655101E-2</v>
+      </c>
+      <c r="H30" s="44">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="J30" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="U30" s="41">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X30" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="Y30" s="44">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="Z30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B31" s="41">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D31" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="45">
+        <v>4.2580645161290301E-2</v>
+      </c>
+      <c r="H31" s="44">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="J31" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="U31" s="41">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="Y31" s="44">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="Z31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B32" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="D32" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="44">
+        <v>4.2580645161290301E-2</v>
+      </c>
+      <c r="H32" s="44">
+        <v>0.12157894736842099</v>
+      </c>
+      <c r="J32" s="41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U32" s="41">
+        <v>1E-3</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X32" s="41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y32" s="44">
+        <v>0.12157894736842099</v>
+      </c>
+      <c r="Z32" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B33" s="41">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D33" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="E33" s="44">
+        <v>6.1874999999999999E-2</v>
+      </c>
+      <c r="H33" s="44">
+        <v>0.186153846153846</v>
+      </c>
+      <c r="J33" s="41">
+        <v>0.11</v>
+      </c>
+      <c r="U33" s="41">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" s="41">
+        <v>0.11</v>
+      </c>
+      <c r="Y33" s="44">
+        <v>0.186153846153846</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B34" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="D34" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="E34" s="45">
+        <v>0.08</v>
+      </c>
+      <c r="H34" s="44">
+        <v>0.19317073170731699</v>
+      </c>
+      <c r="J34" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="U34" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X34" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="Y34" s="44">
+        <v>0.19317073170731699</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B35" s="41">
+        <v>0.11</v>
+      </c>
+      <c r="D35" s="39">
+        <v>0.06</v>
+      </c>
+      <c r="E35" s="45">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="H35" s="44">
+        <v>0.19317073170731699</v>
+      </c>
+      <c r="J35" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="U35" s="41">
+        <v>0.11</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="Y35" s="44">
+        <v>0.19317073170731699</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B36" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="D36" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="E36" s="44">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="H36" s="44">
+        <v>0.20428571428571399</v>
+      </c>
+      <c r="J36" s="41">
+        <v>0.13</v>
+      </c>
+      <c r="U36" s="41">
+        <v>2E-3</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X36" s="41">
+        <v>0.13</v>
+      </c>
+      <c r="Y36" s="44">
+        <v>0.20428571428571399</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B37" s="41">
+        <v>0.19</v>
+      </c>
+      <c r="D37" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="E37" s="44">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="H37" s="44">
+        <v>0.21</v>
+      </c>
+      <c r="J37" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U37" s="41">
+        <v>0.19</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X37" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Y37" s="44">
+        <v>0.21</v>
+      </c>
+      <c r="Z37" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B38" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="D38" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="E38" s="44">
+        <v>0.107027027027027</v>
+      </c>
+      <c r="H38" s="44">
+        <v>0.234666666666666</v>
+      </c>
+      <c r="J38" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="U38" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X38" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="Y38" s="44">
+        <v>0.234666666666666</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B39" s="41">
+        <v>0.13</v>
+      </c>
+      <c r="D39" s="41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E39" s="44">
+        <v>0.12157894736842099</v>
+      </c>
+      <c r="H39" s="44">
+        <v>0.26680851063829703</v>
+      </c>
+      <c r="J39" s="41">
+        <v>0.19</v>
+      </c>
+      <c r="U39" s="41">
+        <v>0.13</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X39" s="41">
+        <v>0.19</v>
+      </c>
+      <c r="Y39" s="44">
+        <v>0.26680851063829703</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B40" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="D40" s="41">
+        <v>0.11</v>
+      </c>
+      <c r="E40" s="44">
+        <v>0.186153846153846</v>
+      </c>
+      <c r="H40" s="44">
+        <v>0.28875000000000001</v>
+      </c>
+      <c r="J40" s="41">
+        <v>0.21</v>
+      </c>
+      <c r="U40" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X40" s="41">
+        <v>0.21</v>
+      </c>
+      <c r="Y40" s="44">
+        <v>0.28875000000000001</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B41" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="D41" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="E41" s="44">
+        <v>0.19317073170731699</v>
+      </c>
+      <c r="H41" s="44">
+        <v>0.32352941176470501</v>
+      </c>
+      <c r="J41" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="U41" s="41">
+        <v>0.06</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="Y41" s="44">
+        <v>0.32352941176470501</v>
+      </c>
+      <c r="Z41" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B42" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="D42" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="E42" s="44">
+        <v>0.19317073170731699</v>
+      </c>
+      <c r="H42" s="44">
+        <v>0.32352941176470501</v>
+      </c>
+      <c r="J42" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="U42" s="41">
+        <v>0.12</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X42" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="Y42" s="44">
+        <v>0.32352941176470501</v>
+      </c>
+      <c r="Z42" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B43" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="D43" s="41">
+        <v>0.13</v>
+      </c>
+      <c r="E43" s="44">
+        <v>0.20428571428571399</v>
+      </c>
+      <c r="H43" s="44">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="J43" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="U43" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X43" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="Y43" s="44">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B44" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D44" s="39">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E44" s="45">
+        <v>0.21</v>
+      </c>
+      <c r="H44" s="44">
+        <v>0.49770491803278599</v>
+      </c>
+      <c r="J44" s="41">
+        <v>0.46</v>
+      </c>
+      <c r="U44" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="41">
+        <v>0.46</v>
+      </c>
+      <c r="Y44" s="44">
+        <v>0.49770491803278599</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B45" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="D45" s="41">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E45" s="44">
+        <v>0.21</v>
+      </c>
+      <c r="H45" s="44">
+        <v>0.838095238095238</v>
+      </c>
+      <c r="J45" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="U45" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X45" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="Y45" s="44">
+        <v>0.838095238095238</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D46" s="41">
+        <v>0.16</v>
+      </c>
+      <c r="E46" s="44">
+        <v>0.234666666666666</v>
+      </c>
+      <c r="M46" s="23"/>
+      <c r="N46"/>
+      <c r="T46" s="23"/>
+      <c r="U46"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D47" s="39">
+        <v>0.18</v>
+      </c>
+      <c r="E47" s="45">
+        <v>0.25826086956521699</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="D48" s="41">
+        <v>0.19</v>
+      </c>
+      <c r="E48" s="44">
+        <v>0.26680851063829703</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49" s="41">
+        <v>0.21</v>
+      </c>
+      <c r="E49" s="44">
+        <v>0.28875000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50" s="39">
+        <v>0.23</v>
+      </c>
+      <c r="E50" s="45">
+        <v>0.30979591836734599</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="E51" s="44">
+        <v>0.32352941176470501</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D52" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="44">
+        <v>0.32352941176470501</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D53" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="E53" s="45">
+        <v>0.34222222222222198</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E54" s="45">
+        <v>0.34222222222222198</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D55" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E55" s="45">
+        <v>0.34222222222222198</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D56" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="E56" s="45">
+        <v>0.36535714285714199</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D57" s="39">
+        <v>0.31</v>
+      </c>
+      <c r="E57" s="45">
+        <v>0.36535714285714199</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D58" s="39">
+        <v>0.33</v>
+      </c>
+      <c r="E58" s="45">
+        <v>0.382105263157894</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D59" s="39">
+        <v>0.38</v>
+      </c>
+      <c r="E59" s="45">
+        <v>0.43241379310344802</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D60" s="39">
+        <v>0.39</v>
+      </c>
+      <c r="E60" s="45">
+        <v>0.43627118644067697</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D61" s="41">
+        <v>0.43</v>
+      </c>
+      <c r="E61" s="44">
+        <v>0.47299999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="41">
+        <v>0.46</v>
+      </c>
+      <c r="E62" s="44">
+        <v>0.49770491803278599</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="39">
+        <v>0.67</v>
+      </c>
+      <c r="E63" s="45">
+        <v>0.71322580645161204</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D64" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="E64" s="44">
+        <v>0.838095238095238</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="39">
+        <v>0.85</v>
+      </c>
+      <c r="E65" s="45">
+        <v>0.87656250000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="39">
+        <v>0.91</v>
+      </c>
+      <c r="E66" s="45">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D67" s="39">
+        <v>0.92</v>
+      </c>
+      <c r="E67" s="45">
+        <v>0.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E87A03-7511-4C2E-B4E0-ED136DA0DD22}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="D4" s="24">
+        <v>-0.09</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H4" s="10">
+        <v>4849</v>
+      </c>
+      <c r="I4" s="10">
         <v>2E-3</v>
       </c>
-      <c r="E4" s="24">
-        <v>3.4999999999999999E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
-        <v>0.67</v>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B5" s="24">
-        <v>1.2E-5</v>
+        <v>-0.09</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.17</v>
       </c>
       <c r="D5" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="G5" s="30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="D6" s="24">
+        <v>-0.01</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.87</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="24">
+        <v>-0.02</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.82</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.81</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G7" s="30">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="24">
+        <v>-0.08</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="D8" s="24">
+        <v>-0.09</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="G8" s="30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="24">
+        <v>-0.13</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="24">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="G9" s="30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="24">
+        <v>-0.09</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.16</v>
+      </c>
+      <c r="D10" s="24">
+        <v>-0.04</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="G10" s="30">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>-0.24</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.73</v>
+      </c>
+      <c r="F11" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="4">
+        <v>19348</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="24">
+        <v>-0.08</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="D12" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.64</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="G12" s="30">
+        <v>-6.0000000000000002E-5</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="D13" s="24">
+        <v>-0.11</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="24">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.19</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.06</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19" s="49"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="C21" s="10">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.08</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="F21" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="H21" s="10">
+        <v>4839</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0.12</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="G22" s="30">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E5" s="24">
-        <v>1.2E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
-        <v>0.27</v>
-      </c>
-      <c r="B6" s="24">
-        <v>1.63E-5</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="G23" s="33">
+        <v>0.03</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2659</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="24">
         <v>0.02</v>
       </c>
-      <c r="E6" s="24">
-        <v>1.63E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>0.18</v>
-      </c>
-      <c r="B7" s="24">
-        <v>4.6300000000000001E-5</v>
-      </c>
-      <c r="D7" s="24">
+      <c r="C24" s="24">
+        <v>0.78</v>
+      </c>
+      <c r="D24" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="E24" s="24">
+        <v>0.49</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="G24" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="10">
+        <v>-0.18</v>
+      </c>
+      <c r="C25" s="10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D25" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="H25" s="4">
+        <v>7212</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="24">
+        <v>-0.06</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="24">
+        <v>0.82</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G26" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="24">
+        <v>-0.03</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.62</v>
+      </c>
+      <c r="D27" s="24">
+        <v>-0.04</v>
+      </c>
+      <c r="E27" s="24">
+        <v>0.61</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="G27" s="30">
+        <v>-0.01</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="10">
+        <v>-0.23</v>
+      </c>
+      <c r="C28" s="10">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D28" s="24">
+        <v>-0.06</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="F28" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G28" s="33">
         <v>0.04</v>
       </c>
-      <c r="E7" s="24">
-        <v>1.7E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="B8" s="24">
-        <v>2.9900000000000002E-6</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="H28" s="10">
+        <v>19040</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="24">
+        <v>-0.13</v>
+      </c>
+      <c r="C29" s="24">
         <v>0.06</v>
       </c>
-      <c r="E8" s="24">
-        <v>2.09E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
+      <c r="D29" s="24">
+        <v>-0.01</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.88</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="G29" s="30">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="B9" s="24">
-        <v>2.3700000000000002E-6</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E9" s="24">
-        <v>2.27E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>0.39</v>
-      </c>
-      <c r="B10" s="24">
-        <v>2.09E-5</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0.18</v>
-      </c>
-      <c r="E10" s="24">
-        <v>3.3000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B11" s="24">
-        <v>2.27E-5</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="E11" s="24">
-        <v>4.5000000000000003E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>0.04</v>
-      </c>
-      <c r="B12" s="24">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0.27</v>
-      </c>
-      <c r="E12" s="24">
-        <v>4.6300000000000001E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>2E-3</v>
-      </c>
-      <c r="B13" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E13" s="24">
-        <v>6.0300000000000002E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>0.38</v>
-      </c>
-      <c r="B14" s="24">
-        <v>2E-3</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E14" s="24">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>0.02</v>
-      </c>
-      <c r="B15" s="24">
-        <v>0.43</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="24">
+        <v>-0.11</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.47</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="G30" s="30">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="24">
+        <v>-0.12</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="D31" s="24">
+        <v>-0.08</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0.26</v>
+      </c>
+      <c r="F31" s="4">
         <v>0.31</v>
       </c>
-      <c r="E15" s="24">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>0.91</v>
-      </c>
-      <c r="B16" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D16" s="24">
-        <v>0.31</v>
-      </c>
-      <c r="E16" s="24">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>0.06</v>
-      </c>
-      <c r="B17" s="24">
-        <v>0.21</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.33</v>
-      </c>
-      <c r="E17" s="24">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>0.85</v>
-      </c>
-      <c r="B18" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0.38</v>
-      </c>
-      <c r="E18" s="24">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>0.92</v>
-      </c>
-      <c r="B19" s="24">
-        <v>0.16</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.39</v>
-      </c>
-      <c r="E19" s="24">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="B20" s="24">
-        <v>0.46</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.67</v>
-      </c>
-      <c r="E20" s="24">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
-        <v>0.31</v>
-      </c>
-      <c r="B21" s="24">
-        <v>0.06</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.85</v>
-      </c>
-      <c r="E21" s="24">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
-        <v>0.31</v>
-      </c>
-      <c r="B22" s="24">
-        <v>0.03</v>
-      </c>
-      <c r="D22" s="24">
-        <v>0.91</v>
-      </c>
-      <c r="E22" s="24">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="B23" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0.92</v>
-      </c>
-      <c r="E23" s="24">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
-        <v>2E-3</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="24">
-        <v>1E-3</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="24">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="24">
-        <v>6.0300000000000002E-5</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="24">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="24">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E28" s="24">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="24">
-        <v>1E-4</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="24">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="24">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="24">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="24">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="24">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="24">
-        <v>1E-3</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="24">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="24">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="24">
-        <v>2E-3</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="24">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="24">
-        <v>0.11</v>
-      </c>
-      <c r="E35" s="24">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="24">
-        <v>2E-3</v>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="24">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="24">
-        <v>0.19</v>
-      </c>
-      <c r="E37" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="E38" s="24">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="24">
-        <v>0.13</v>
-      </c>
-      <c r="E39" s="24">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="24">
-        <v>0.06</v>
-      </c>
-      <c r="E40" s="24">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="24">
-        <v>0.06</v>
-      </c>
-      <c r="E41" s="24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="E42" s="24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="E43" s="24">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="24">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E44" s="24">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="E45" s="24">
-        <v>0.8</v>
-      </c>
+      <c r="G31" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E45">
-    <sortCondition ref="E1:E45"/>
-  </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resultados/resultados regresiones.xlsx
+++ b/Resultados/resultados regresiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f3ba38939858e1d/Desktop/Apps/R Studio/Analisis articulo/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1095" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28ABF937-63A1-4DBE-8124-50CCB2681AD6}"/>
+  <xr:revisionPtr revIDLastSave="1425" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26514BEA-5BCB-4A28-8106-DCB68DE5D92E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="617" firstSheet="4" activeTab="9" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="617" firstSheet="8" activeTab="9" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMPLES" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="133">
   <si>
     <t>EDAD</t>
   </si>
@@ -351,17 +351,122 @@
     <t>F</t>
   </si>
   <si>
-    <t>DIFERENCIAS GRUPOS</t>
+    <t>W</t>
   </si>
   <si>
-    <t>W</t>
+    <t>U</t>
+  </si>
+  <si>
+    <t>State Anxiety</t>
+  </si>
+  <si>
+    <t>Schooling</t>
+  </si>
+  <si>
+    <t>Cognitive Reserve</t>
+  </si>
+  <si>
+    <t>Trait Anxiety</t>
+  </si>
+  <si>
+    <t>Trait Depression</t>
+  </si>
+  <si>
+    <t>State Depression</t>
+  </si>
+  <si>
+    <t>Sleep hours (usual)</t>
+  </si>
+  <si>
+    <t>Sleep hours (session)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupation </t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Current Cognitive Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystallized Intelligence </t>
+  </si>
+  <si>
+    <t>ENHANCEMENT - WM(ATTEND FACES)</t>
+  </si>
+  <si>
+    <t>SUPPRESSION - WM(IGNORE FACES)</t>
+  </si>
+  <si>
+    <t>MODERATORS</t>
+  </si>
+  <si>
+    <t>ENH+MOD</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>DIFFERENCES BETWEEN GROUPS</t>
+  </si>
+  <si>
+    <t>SUP+MOD</t>
+  </si>
+  <si>
+    <t>AGE+MOD</t>
+  </si>
+  <si>
+    <t>ENHANCEMENT - AGE</t>
+  </si>
+  <si>
+    <t>SUPPRESSION - AGE</t>
+  </si>
+  <si>
+    <t>8.9x10-6</t>
+  </si>
+  <si>
+    <t>1.1x10-5</t>
+  </si>
+  <si>
+    <t>2x10-7</t>
+  </si>
+  <si>
+    <t>Years of schooling</t>
+  </si>
+  <si>
+    <t>ENHANCEMENT - WM ATTEND FACES/IGNORE SCENES</t>
+  </si>
+  <si>
+    <t>SUPPRESSION - WM ATTEND SCENES/IGNORE FACES</t>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>WM ATTEND FACES/IGNORE SCENES - AGE</t>
+  </si>
+  <si>
+    <t>WM ATTEND SCENES/IGNORE FACES - AGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +518,36 @@
       <name val="Lato"/>
       <family val="34"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -440,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -524,11 +659,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -641,6 +789,41 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,13 +857,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,29 +1231,29 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="62"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="M1" s="46" t="s">
+      <c r="K1" s="62"/>
+      <c r="M1" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="48"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1439,54 +1652,54 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D41627-2355-4EEA-A2CD-D2B21314CEDD}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="49"/>
+      <c r="B2" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1719,7 @@
         <v>49</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>11</v>
@@ -1519,8 +1732,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B4" s="24">
         <v>-0.05</v>
@@ -1546,11 +1759,11 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
+      <c r="A5" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B5" s="10">
-        <v>-0.26</v>
+        <v>0.26</v>
       </c>
       <c r="C5" s="10">
         <v>8.9999999999999993E-3</v>
@@ -1567,18 +1780,18 @@
       <c r="G5" s="10">
         <v>0.11</v>
       </c>
-      <c r="H5" s="4">
-        <v>2645</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.12</v>
+      <c r="H5" s="10">
+        <v>749</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.03</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>50</v>
+      <c r="A6" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B6" s="24">
         <v>0.04</v>
@@ -1604,8 +1817,8 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>52</v>
+      <c r="A7" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B7" s="24">
         <v>-0.06</v>
@@ -1631,8 +1844,8 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>51</v>
+      <c r="A8" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B8" s="24">
         <v>-0.08</v>
@@ -1658,8 +1871,8 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
+      <c r="A9" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B9" s="24">
         <v>-0.05</v>
@@ -1685,8 +1898,8 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
+      <c r="A10" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B10" s="10">
         <v>-0.18</v>
@@ -1706,18 +1919,18 @@
       <c r="G10" s="10">
         <v>0.12</v>
       </c>
-      <c r="H10" s="4">
-        <v>19348</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.08</v>
+      <c r="H10" s="10">
+        <v>4298</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.01</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
+      <c r="A11" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B11" s="24">
         <v>-7.0000000000000007E-2</v>
@@ -1740,15 +1953,15 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4">
-        <v>0.6</v>
+        <v>2.75</v>
       </c>
       <c r="K11" s="4">
-        <v>0.44</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
+      <c r="A12" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B12" s="24">
         <v>-0.1</v>
@@ -1774,8 +1987,8 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
+      <c r="A13" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B13" s="24">
         <v>-0.13</v>
@@ -1801,8 +2014,8 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>63</v>
+      <c r="A14" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="B14" s="24">
         <v>-0.08</v>
@@ -1855,41 +2068,41 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="58"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="49"/>
+      <c r="B19" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="B20" s="26" t="s">
         <v>10</v>
       </c>
@@ -1922,8 +2135,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>1</v>
+      <c r="A21" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B21" s="10">
         <v>0.16</v>
@@ -1953,8 +2166,8 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>2</v>
+      <c r="A22" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B22" s="10">
         <v>0.27</v>
@@ -1988,8 +2201,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>50</v>
+      <c r="A23" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B23" s="24">
         <v>0.02</v>
@@ -2015,13 +2228,13 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="24">
         <v>0.12</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="24">
         <v>0.01</v>
       </c>
       <c r="D24" s="24">
@@ -2036,23 +2249,19 @@
       <c r="G24" s="24">
         <v>0.01</v>
       </c>
-      <c r="H24" s="10">
-        <v>37672</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1E-3</v>
-      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="A25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="24">
         <v>0.09</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="24">
         <v>0.04</v>
       </c>
       <c r="D25" s="24">
@@ -2067,18 +2276,14 @@
       <c r="G25" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H25" s="10">
-        <v>47440</v>
-      </c>
-      <c r="I25" s="10">
-        <v>2.0000000000000001E-9</v>
-      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>53</v>
+      <c r="A26" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B26" s="24">
         <v>0.01</v>
@@ -2104,8 +2309,8 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>5</v>
+      <c r="A27" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B27" s="24">
         <v>0.08</v>
@@ -2131,8 +2336,8 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>6</v>
+      <c r="A28" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B28" s="24">
         <v>0.06</v>
@@ -2158,13 +2363,13 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="10">
+      <c r="A29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="24">
         <v>0.13</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="24">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D29" s="24">
@@ -2173,24 +2378,20 @@
       <c r="E29" s="24">
         <v>0.64</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="24">
         <v>0.11</v>
       </c>
       <c r="G29" s="24">
         <v>0.01</v>
       </c>
-      <c r="H29" s="10">
-        <v>24512</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0.02</v>
-      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>8</v>
+      <c r="A30" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B30" s="24">
         <v>0.11</v>
@@ -2204,10 +2405,10 @@
       <c r="E30" s="24">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="24">
         <v>0.06</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="24">
         <v>0.01</v>
       </c>
       <c r="H30" s="4"/>
@@ -2216,8 +2417,8 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>63</v>
+      <c r="A31" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="B31" s="24">
         <v>0.09</v>
@@ -2243,41 +2444,41 @@
       <c r="K31" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
-      <c r="B36" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="58"/>
-      <c r="H36" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="K36" s="49"/>
+      <c r="B36" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="78"/>
+      <c r="F36" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="78"/>
+      <c r="H36" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="61"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
+      <c r="A37" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="B37" s="26" t="s">
         <v>10</v>
       </c>
@@ -2310,8 +2511,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>1</v>
+      <c r="A38" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B38" s="24">
         <v>1E-3</v>
@@ -2337,8 +2538,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>2</v>
+      <c r="A39" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B39" s="24">
         <v>-0.09</v>
@@ -2364,8 +2565,8 @@
       <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>50</v>
+      <c r="A40" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B40" s="24">
         <v>7.0000000000000007E-2</v>
@@ -2391,8 +2592,8 @@
       <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>52</v>
+      <c r="A41" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B41" s="10">
         <v>-0.18</v>
@@ -2412,18 +2613,18 @@
       <c r="G41" s="10">
         <v>0.09</v>
       </c>
-      <c r="H41" s="4">
-        <v>7212</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0.14000000000000001</v>
+      <c r="H41" s="10">
+        <v>1590</v>
+      </c>
+      <c r="I41" s="10">
+        <v>0.04</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>51</v>
+      <c r="A42" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B42" s="24">
         <v>-0.03</v>
@@ -2449,8 +2650,8 @@
       <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>53</v>
+      <c r="A43" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B43" s="24">
         <v>0.01</v>
@@ -2472,16 +2673,16 @@
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4">
-        <v>1.69</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0.19</v>
+      <c r="J43" s="10">
+        <v>8.18</v>
+      </c>
+      <c r="K43" s="10">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>5</v>
+      <c r="A44" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B44" s="10">
         <v>-0.17</v>
@@ -2502,17 +2703,17 @@
         <v>0.08</v>
       </c>
       <c r="H44" s="10">
-        <v>19040</v>
+        <v>4144</v>
       </c>
       <c r="I44" s="10">
-        <v>0.04</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>6</v>
+      <c r="A45" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B45" s="24">
         <v>-0.12</v>
@@ -2538,8 +2739,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>7</v>
+      <c r="A46" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B46" s="24">
         <v>-0.1</v>
@@ -2565,8 +2766,8 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>8</v>
+      <c r="A47" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B47" s="24">
         <v>-8.0000000000000002E-3</v>
@@ -2592,8 +2793,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>63</v>
+      <c r="A48" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="B48" s="24">
         <v>-0.11</v>
@@ -2615,11 +2816,11 @@
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0.32</v>
+      <c r="J48" s="10">
+        <v>4.01</v>
+      </c>
+      <c r="K48" s="10">
+        <v>0.04</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2650,41 +2851,41 @@
       <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="58"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
-      <c r="B53" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="K53" s="49"/>
+      <c r="B53" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="78"/>
+      <c r="F53" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="78"/>
+      <c r="H53" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="61"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
+      <c r="A54" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="B54" s="26" t="s">
         <v>10</v>
       </c>
@@ -2717,8 +2918,8 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>1</v>
+      <c r="A55" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B55" s="24">
         <v>0.02</v>
@@ -2744,8 +2945,8 @@
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>2</v>
+      <c r="A56" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B56" s="24">
         <v>-0.03</v>
@@ -2770,13 +2971,13 @@
       <c r="J56" s="10">
         <v>28.38</v>
       </c>
-      <c r="K56" s="10">
-        <v>1.9999999999999999E-7</v>
+      <c r="K56" s="10" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>50</v>
+      <c r="A57" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B57" s="24">
         <v>-0.04</v>
@@ -2802,8 +3003,8 @@
       <c r="K57" s="4"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>52</v>
+      <c r="A58" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B58" s="24">
         <v>0.06</v>
@@ -2829,8 +3030,8 @@
       <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>51</v>
+      <c r="A59" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B59" s="24">
         <v>-7.0000000000000007E-2</v>
@@ -2856,13 +3057,13 @@
       <c r="K59" s="4"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B60" s="10">
+      <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="24">
         <v>-0.09</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="24">
         <v>0.04</v>
       </c>
       <c r="D60" s="24">
@@ -2877,18 +3078,14 @@
       <c r="G60" s="24">
         <v>0.01</v>
       </c>
-      <c r="H60" s="10">
-        <v>23296</v>
-      </c>
-      <c r="I60" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>5</v>
+      <c r="A61" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B61" s="24">
         <v>-1E-3</v>
@@ -2896,10 +3093,10 @@
       <c r="C61" s="24">
         <v>0.98</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="24">
         <v>-0.1</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="24">
         <v>0.04</v>
       </c>
       <c r="F61" s="4">
@@ -2910,16 +3107,12 @@
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="10">
-        <v>16.73</v>
-      </c>
-      <c r="K61" s="10">
-        <v>5.0000000000000002E-5</v>
-      </c>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>6</v>
+      <c r="A62" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B62" s="24">
         <v>0.04</v>
@@ -2945,8 +3138,8 @@
       <c r="K62" s="4"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>7</v>
+      <c r="A63" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B63" s="24">
         <v>0.05</v>
@@ -2976,8 +3169,8 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>8</v>
+      <c r="A64" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>94</v>
@@ -3002,9 +3195,9 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>63</v>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="46" t="s">
+        <v>113</v>
       </c>
       <c r="B65" s="24">
         <v>-0.01</v>
@@ -3029,32 +3222,1167 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I70" s="80"/>
+      <c r="J70" s="80"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="81"/>
+    </row>
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="82"/>
+      <c r="B71" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="71"/>
+      <c r="D71" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="71"/>
+      <c r="F71" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" s="71"/>
+      <c r="H71" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="I71" s="71"/>
+      <c r="J71" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="K71" s="71"/>
+      <c r="L71" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="M71" s="71"/>
+    </row>
+    <row r="72" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A72" s="82"/>
+      <c r="B72" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M72" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="49">
+        <v>-0.05</v>
+      </c>
+      <c r="C73" s="49">
+        <v>0.52</v>
+      </c>
+      <c r="D73" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="E73" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="F73" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="G73" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H73" s="49">
+        <v>1E-3</v>
+      </c>
+      <c r="I73" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="J73" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="K73" s="49">
+        <v>0.27</v>
+      </c>
+      <c r="L73" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="M73" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="53">
+        <v>0.26</v>
+      </c>
+      <c r="C74" s="53">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D74" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E74" s="49">
+        <v>0.27</v>
+      </c>
+      <c r="F74" s="48">
+        <v>0.11</v>
+      </c>
+      <c r="G74" s="48">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H74" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="I74" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="J74" s="49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K74" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L74" s="48">
+        <v>0.06</v>
+      </c>
+      <c r="M74" s="48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="C75" s="49">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D75" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="E75" s="49">
+        <v>0.39</v>
+      </c>
+      <c r="F75" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G75" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H75" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I75" s="49">
+        <v>0.31</v>
+      </c>
+      <c r="J75" s="49">
+        <v>-0.01</v>
+      </c>
+      <c r="K75" s="49">
+        <v>0.83</v>
+      </c>
+      <c r="L75" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="M75" s="48">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="C76" s="49">
+        <v>0.36</v>
+      </c>
+      <c r="D76" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E76" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="F76" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G76" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H76" s="53">
+        <v>-0.18</v>
+      </c>
+      <c r="I76" s="53">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J76" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K76" s="49">
+        <v>0.35</v>
+      </c>
+      <c r="L76" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="M76" s="48">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="C77" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="D77" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="E77" s="49">
+        <v>0.18</v>
+      </c>
+      <c r="F77" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="G77" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H77" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="I77" s="49">
+        <v>0.74</v>
+      </c>
+      <c r="J77" s="49">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K77" s="49">
+        <v>0.91</v>
+      </c>
+      <c r="L77" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="M77" s="48">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="49">
+        <v>-0.05</v>
+      </c>
+      <c r="C78" s="49">
+        <v>0.43</v>
+      </c>
+      <c r="D78" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="E78" s="49">
+        <v>0.39</v>
+      </c>
+      <c r="F78" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G78" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H78" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="I78" s="49">
+        <v>0.86</v>
+      </c>
+      <c r="J78" s="53">
+        <v>0.18</v>
+      </c>
+      <c r="K78" s="53">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L78" s="48">
+        <v>0.08</v>
+      </c>
+      <c r="M78" s="48">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="53">
+        <v>-0.18</v>
+      </c>
+      <c r="C79" s="53">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D79" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E79" s="49">
+        <v>0.54</v>
+      </c>
+      <c r="F79" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="G79" s="48">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H79" s="53">
+        <v>-0.17</v>
+      </c>
+      <c r="I79" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="J79" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K79" s="49">
+        <v>0.36</v>
+      </c>
+      <c r="L79" s="48">
+        <v>0.08</v>
+      </c>
+      <c r="M79" s="48">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="49">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C80" s="49">
+        <v>0.26</v>
+      </c>
+      <c r="D80" s="53">
+        <v>0.17</v>
+      </c>
+      <c r="E80" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="F80" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="G80" s="48">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H80" s="49">
+        <v>-0.12</v>
+      </c>
+      <c r="I80" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J80" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="K80" s="49">
+        <v>0.42</v>
+      </c>
+      <c r="L80" s="48">
+        <v>0.06</v>
+      </c>
+      <c r="M80" s="48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="49">
+        <v>-0.1</v>
+      </c>
+      <c r="C81" s="49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D81" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E81" s="49">
+        <v>0.51</v>
+      </c>
+      <c r="F81" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G81" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H81" s="49">
+        <v>-0.1</v>
+      </c>
+      <c r="I81" s="49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J81" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="K81" s="49">
+        <v>0.51</v>
+      </c>
+      <c r="L81" s="48">
+        <v>0.06</v>
+      </c>
+      <c r="M81" s="48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="49">
+        <v>-0.13</v>
+      </c>
+      <c r="C82" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="D82" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="E82" s="49">
+        <v>0.59</v>
+      </c>
+      <c r="F82" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G82" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H82" s="49">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="I82" s="49">
+        <v>0.91</v>
+      </c>
+      <c r="J82" s="49">
+        <v>-0.11</v>
+      </c>
+      <c r="K82" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="L82" s="48">
+        <v>0.06</v>
+      </c>
+      <c r="M82" s="48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="C83" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="D83" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="E83" s="49">
+        <v>0.37</v>
+      </c>
+      <c r="F83" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G83" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H83" s="49">
+        <v>-0.11</v>
+      </c>
+      <c r="I83" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="J83" s="53">
+        <v>0.13</v>
+      </c>
+      <c r="K83" s="53">
+        <v>0.04</v>
+      </c>
+      <c r="L83" s="48">
+        <v>0.08</v>
+      </c>
+      <c r="M83" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="47"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="57"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="57"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="56"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="57"/>
+      <c r="L85" s="57"/>
+      <c r="M85" s="57"/>
+    </row>
+    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="56"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="57"/>
+      <c r="L86" s="57"/>
+      <c r="M86" s="57"/>
+    </row>
+    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" s="75"/>
+      <c r="J87" s="75"/>
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+      <c r="M87" s="71"/>
+    </row>
+    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="82"/>
+      <c r="B88" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="71"/>
+      <c r="D88" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" s="71"/>
+      <c r="F88" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G88" s="71"/>
+      <c r="H88" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="I88" s="71"/>
+      <c r="J88" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="K88" s="71"/>
+      <c r="L88" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="M88" s="71"/>
+    </row>
+    <row r="89" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A89" s="82"/>
+      <c r="B89" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M89" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="53">
+        <v>0.16</v>
+      </c>
+      <c r="C90" s="53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D90" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="E90" s="49">
+        <v>0.59</v>
+      </c>
+      <c r="F90" s="48">
+        <v>0.01</v>
+      </c>
+      <c r="G90" s="48">
+        <v>0.04</v>
+      </c>
+      <c r="H90" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="I90" s="49">
+        <v>0.74</v>
+      </c>
+      <c r="J90" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K90" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="L90" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M90" s="52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="53">
+        <v>0.27</v>
+      </c>
+      <c r="C91" s="53">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D91" s="53">
+        <v>-0.12</v>
+      </c>
+      <c r="E91" s="53">
+        <v>0.02</v>
+      </c>
+      <c r="F91" s="48">
+        <v>0.03</v>
+      </c>
+      <c r="G91" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H91" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="I91" s="49">
+        <v>0.68</v>
+      </c>
+      <c r="J91" s="53">
+        <v>0.17</v>
+      </c>
+      <c r="K91" s="53">
+        <v>2E-3</v>
+      </c>
+      <c r="L91" s="48">
+        <v>0.03</v>
+      </c>
+      <c r="M91" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="C92" s="49">
+        <v>0.63</v>
+      </c>
+      <c r="D92" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E92" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="F92" s="49">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="G92" s="52">
+        <v>0.47</v>
+      </c>
+      <c r="H92" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="I92" s="49">
+        <v>0.42</v>
+      </c>
+      <c r="J92" s="49">
+        <v>0.03</v>
+      </c>
+      <c r="K92" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="L92" s="49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M92" s="52">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="C93" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="D93" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E93" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="F93" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="G93" s="52">
+        <v>0.12</v>
+      </c>
+      <c r="H93" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="I93" s="49">
+        <v>0.26</v>
+      </c>
+      <c r="J93" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K93" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="L93" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M93" s="52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="C94" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="D94" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="E94" s="49">
+        <v>0.48</v>
+      </c>
+      <c r="F94" s="49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G94" s="52">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H94" s="49">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I94" s="49">
+        <v>0.17</v>
+      </c>
+      <c r="J94" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="K94" s="49">
+        <v>0.44</v>
+      </c>
+      <c r="L94" s="49">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M94" s="52">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="C95" s="49">
+        <v>0.79</v>
+      </c>
+      <c r="D95" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E95" s="49">
+        <v>0.42</v>
+      </c>
+      <c r="F95" s="49">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G95" s="52">
+        <v>0.84</v>
+      </c>
+      <c r="H95" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="I95" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="J95" s="49">
+        <v>1E-3</v>
+      </c>
+      <c r="K95" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="L95" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="M95" s="52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="C96" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="D96" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E96" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="F96" s="49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G96" s="52">
+        <v>0.23</v>
+      </c>
+      <c r="H96" s="49">
+        <v>-1E-3</v>
+      </c>
+      <c r="I96" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="J96" s="49">
+        <v>-0.1</v>
+      </c>
+      <c r="K96" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="L96" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="M96" s="52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="C97" s="49">
+        <v>0.22</v>
+      </c>
+      <c r="D97" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E97" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="F97" s="49">
+        <v>-1E-3</v>
+      </c>
+      <c r="G97" s="52">
+        <v>0.49</v>
+      </c>
+      <c r="H97" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="I97" s="49">
+        <v>0.36</v>
+      </c>
+      <c r="J97" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K97" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="L97" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M97" s="52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="C98" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D98" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="E98" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="F98" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="G98" s="52">
+        <v>0.11</v>
+      </c>
+      <c r="H98" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="I98" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J98" s="53">
+        <v>0.13</v>
+      </c>
+      <c r="K98" s="53">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L98" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="M98" s="48">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="C99" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D99" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="E99" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F99" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="G99" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="H99" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I99" s="49">
+        <v>0.61</v>
+      </c>
+      <c r="J99" s="49">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K99" s="49">
+        <v>0.16</v>
+      </c>
+      <c r="L99" s="49">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M99" s="52">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="C100" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="D100" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E100" s="49">
+        <v>0.32</v>
+      </c>
+      <c r="F100" s="49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G100" s="52">
+        <v>0.32</v>
+      </c>
+      <c r="H100" s="49">
+        <v>-0.01</v>
+      </c>
+      <c r="I100" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="J100" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="K100" s="49">
+        <v>0.43</v>
+      </c>
+      <c r="L100" s="49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M100" s="52">
+        <v>0.32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J53:K53"/>
+  <mergeCells count="38">
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H36:K36"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="A35:G35"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="H70:M70"/>
+    <mergeCell ref="H87:M87"/>
+    <mergeCell ref="J71:K71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3065,7 +4393,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,27 +4404,27 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49" t="s">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -3662,48 +4990,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="49"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -4096,48 +5424,48 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="46" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53" t="s">
+      <c r="E18" s="66"/>
+      <c r="F18" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49" t="s">
+      <c r="J18" s="62"/>
+      <c r="K18" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="49"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -4539,12 +5867,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -4553,6 +5875,12 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4563,7 +5891,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4573,38 +5901,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -4852,38 +6180,38 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56" t="s">
+      <c r="C19" s="69"/>
+      <c r="D19" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56" t="s">
+      <c r="E19" s="69"/>
+      <c r="F19" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="55" t="s">
+      <c r="G19" s="69"/>
+      <c r="H19" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -5163,73 +6491,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="46" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="65"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49" t="s">
+      <c r="J2" s="62"/>
+      <c r="K2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="49"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="9"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="50" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="50" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="52"/>
+      <c r="T2" s="65"/>
       <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
@@ -5863,46 +7191,46 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="52"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="65"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
@@ -5912,18 +7240,18 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="50" t="s">
+      <c r="O17" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="50" t="s">
+      <c r="P17" s="65"/>
+      <c r="Q17" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="52"/>
-      <c r="S17" s="50" t="s">
+      <c r="R17" s="65"/>
+      <c r="S17" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="52"/>
+      <c r="T17" s="65"/>
       <c r="U17" s="4" t="s">
         <v>25</v>
       </c>
@@ -6476,6 +7804,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="N16:U16"/>
@@ -6489,12 +7823,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6504,7 +7832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A507BC9-C877-4502-A460-22857A1A9D00}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5:R5"/>
     </sheetView>
   </sheetViews>
@@ -6517,79 +7845,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="55" t="s">
+      <c r="I2" s="67"/>
+      <c r="J2" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="25"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54" t="s">
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54" t="s">
+      <c r="R2" s="67"/>
+      <c r="S2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54" t="s">
+      <c r="T2" s="67"/>
+      <c r="U2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55" t="s">
+      <c r="V2" s="67"/>
+      <c r="W2" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -7300,82 +8628,82 @@
       <c r="Y17" s="25"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54" t="s">
+      <c r="E19" s="67"/>
+      <c r="F19" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54" t="s">
+      <c r="G19" s="67"/>
+      <c r="H19" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="55" t="s">
+      <c r="I19" s="67"/>
+      <c r="J19" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
       <c r="M19" s="25"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="54" t="s">
+      <c r="O19" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54" t="s">
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54" t="s">
+      <c r="R19" s="67"/>
+      <c r="S19" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54" t="s">
+      <c r="T19" s="67"/>
+      <c r="U19" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54" t="s">
+      <c r="V19" s="67"/>
+      <c r="W19" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -7913,6 +9241,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="U2:V2"/>
@@ -7928,15 +9265,6 @@
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10045,17 +11373,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1220AE1D-6B27-4957-9083-206ACFC1CBED}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView topLeftCell="N10" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
@@ -12240,53 +13568,56 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E87A03-7511-4C2E-B4E0-ED136DA0DD22}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="58"/>
+      <c r="A1" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="49"/>
+      <c r="B2" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="78"/>
+      <c r="H2" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
@@ -12319,8 +13650,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
+      <c r="A4" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B4" s="10">
         <v>0.28999999999999998</v>
@@ -12341,17 +13672,17 @@
         <v>0.09</v>
       </c>
       <c r="H4" s="10">
-        <v>4849</v>
-      </c>
-      <c r="I4" s="10">
-        <v>2E-3</v>
+        <v>1460</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
+      <c r="A5" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B5" s="24">
         <v>-0.09</v>
@@ -12377,8 +13708,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
+      <c r="A6" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B6" s="24">
         <v>0.98</v>
@@ -12404,8 +13735,8 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>50</v>
+      <c r="A7" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B7" s="24">
         <v>-0.02</v>
@@ -12431,8 +13762,8 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>52</v>
+      <c r="A8" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B8" s="24">
         <v>-0.08</v>
@@ -12458,8 +13789,8 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>51</v>
+      <c r="A9" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B9" s="24">
         <v>-0.13</v>
@@ -12485,8 +13816,8 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
+      <c r="A10" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B10" s="24">
         <v>-0.09</v>
@@ -12512,8 +13843,8 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
+      <c r="A11" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B11" s="10">
         <v>-0.24</v>
@@ -12533,18 +13864,18 @@
       <c r="G11" s="33">
         <v>0.05</v>
       </c>
-      <c r="H11" s="4">
-        <v>19348</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.08</v>
+      <c r="H11" s="10">
+        <v>4298</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.01</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
+      <c r="A12" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B12" s="24">
         <v>-0.08</v>
@@ -12570,8 +13901,8 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
+      <c r="A13" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B13" s="24">
         <v>0.09</v>
@@ -12597,8 +13928,8 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
+      <c r="A14" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B14" s="24">
         <v>-1.0999999999999999E-2</v>
@@ -12651,41 +13982,41 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
-      <c r="B19" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="49"/>
+      <c r="B19" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="78"/>
+      <c r="F19" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="78"/>
+      <c r="H19" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="24" t="s">
+        <v>116</v>
+      </c>
       <c r="B20" s="26" t="s">
         <v>10</v>
       </c>
@@ -12718,8 +14049,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>0</v>
+      <c r="A21" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B21" s="10">
         <v>0.24</v>
@@ -12740,17 +14071,17 @@
         <v>0.05</v>
       </c>
       <c r="H21" s="10">
-        <v>4839</v>
-      </c>
-      <c r="I21" s="10">
-        <v>2E-3</v>
+        <v>1464</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>1</v>
+      <c r="A22" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B22" s="24">
         <v>-0.05</v>
@@ -12776,8 +14107,8 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
+      <c r="A23" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B23" s="10">
         <v>0.14000000000000001</v>
@@ -12797,22 +14128,22 @@
       <c r="G23" s="33">
         <v>0.03</v>
       </c>
-      <c r="H23" s="4">
-        <v>2659</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.64</v>
+      <c r="H23" s="10">
+        <v>756</v>
+      </c>
+      <c r="I23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J23" s="10">
+        <v>8.85</v>
+      </c>
+      <c r="K23" s="10">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>50</v>
+      <c r="A24" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B24" s="24">
         <v>0.02</v>
@@ -12838,13 +14169,13 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="24">
         <v>-0.18</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="24">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D25" s="24">
@@ -12859,18 +14190,14 @@
       <c r="G25" s="30">
         <v>0.02</v>
       </c>
-      <c r="H25" s="4">
-        <v>7212</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.14000000000000001</v>
-      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>51</v>
+      <c r="A26" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B26" s="24">
         <v>-0.06</v>
@@ -12896,8 +14223,8 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>53</v>
+      <c r="A27" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B27" s="24">
         <v>-0.03</v>
@@ -12923,8 +14250,8 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>5</v>
+      <c r="A28" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B28" s="10">
         <v>-0.23</v>
@@ -12945,17 +14272,17 @@
         <v>0.04</v>
       </c>
       <c r="H28" s="10">
-        <v>19040</v>
+        <v>4144</v>
       </c>
       <c r="I28" s="10">
-        <v>0.04</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>6</v>
+      <c r="A29" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="24">
         <v>-0.13</v>
@@ -12981,8 +14308,8 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>7</v>
+      <c r="A30" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B30" s="24">
         <v>-0.11</v>
@@ -13008,8 +14335,8 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>8</v>
+      <c r="A31" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B31" s="24">
         <v>-0.12</v>
@@ -13034,8 +14361,568 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="71"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="73"/>
+      <c r="B36" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="71"/>
+      <c r="F36" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="71"/>
+      <c r="H36" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="71"/>
+      <c r="J36" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="K36" s="71"/>
+      <c r="L36" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="M36" s="71"/>
+    </row>
+    <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A37" s="74"/>
+      <c r="B37" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M37" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="53">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="E38" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="F38" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G38" s="48">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="H38" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="I38" s="53">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J38" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="K38" s="49">
+        <v>0.24</v>
+      </c>
+      <c r="L38" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="M38" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="C39" s="49">
+        <v>0.17</v>
+      </c>
+      <c r="D39" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="E39" s="49">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F39" s="51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G39" s="52">
+        <v>0.34</v>
+      </c>
+      <c r="H39" s="49">
+        <v>-0.05</v>
+      </c>
+      <c r="I39" s="49">
+        <v>0.47</v>
+      </c>
+      <c r="J39" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="K39" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="L39" s="51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M39" s="52">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="C40" s="49">
+        <v>0.16</v>
+      </c>
+      <c r="D40" s="49">
+        <v>-0.01</v>
+      </c>
+      <c r="E40" s="49">
+        <v>0.87</v>
+      </c>
+      <c r="F40" s="51">
+        <v>1E-3</v>
+      </c>
+      <c r="G40" s="52">
+        <v>0.38</v>
+      </c>
+      <c r="H40" s="53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I40" s="53">
+        <v>0.03</v>
+      </c>
+      <c r="J40" s="53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K40" s="53">
+        <v>0.04</v>
+      </c>
+      <c r="L40" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="M40" s="48">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="49">
+        <v>-0.02</v>
+      </c>
+      <c r="C41" s="49">
+        <v>0.82</v>
+      </c>
+      <c r="D41" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="E41" s="49">
+        <v>0.81</v>
+      </c>
+      <c r="F41" s="51">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G41" s="52">
+        <v>0.71</v>
+      </c>
+      <c r="H41" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="I41" s="49">
+        <v>0.78</v>
+      </c>
+      <c r="J41" s="49">
+        <v>-0.05</v>
+      </c>
+      <c r="K41" s="49">
+        <v>0.49</v>
+      </c>
+      <c r="L41" s="51">
+        <v>-0.01</v>
+      </c>
+      <c r="M41" s="52">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="C42" s="49">
+        <v>0.24</v>
+      </c>
+      <c r="D42" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="E42" s="49">
+        <v>0.21</v>
+      </c>
+      <c r="F42" s="51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G42" s="52">
+        <v>0.34</v>
+      </c>
+      <c r="H42" s="49">
+        <v>-0.18</v>
+      </c>
+      <c r="I42" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J42" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="K42" s="49">
+        <v>0.71</v>
+      </c>
+      <c r="L42" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="M42" s="52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="49">
+        <v>-0.13</v>
+      </c>
+      <c r="C43" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="D43" s="49">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E43" s="49">
+        <v>0.86</v>
+      </c>
+      <c r="F43" s="51">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G43" s="52">
+        <v>0.26</v>
+      </c>
+      <c r="H43" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="I43" s="49">
+        <v>0.39</v>
+      </c>
+      <c r="J43" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="K43" s="49">
+        <v>0.82</v>
+      </c>
+      <c r="L43" s="51">
+        <v>-0.01</v>
+      </c>
+      <c r="M43" s="52">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="C44" s="49">
+        <v>0.16</v>
+      </c>
+      <c r="D44" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E44" s="49">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F44" s="51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G44" s="52">
+        <v>0.34</v>
+      </c>
+      <c r="H44" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="I44" s="49">
+        <v>0.62</v>
+      </c>
+      <c r="J44" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="K44" s="49">
+        <v>0.61</v>
+      </c>
+      <c r="L44" s="51">
+        <v>-0.01</v>
+      </c>
+      <c r="M44" s="52">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="53">
+        <v>-0.24</v>
+      </c>
+      <c r="C45" s="53">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D45" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="E45" s="49">
+        <v>0.73</v>
+      </c>
+      <c r="F45" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="G45" s="48">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H45" s="53">
+        <v>-0.23</v>
+      </c>
+      <c r="I45" s="53">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J45" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="K45" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="L45" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="M45" s="48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="C46" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="D46" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="E46" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="F46" s="51">
+        <v>-6.0000000000000002E-5</v>
+      </c>
+      <c r="G46" s="52">
+        <v>0.44</v>
+      </c>
+      <c r="H46" s="49">
+        <v>-0.13</v>
+      </c>
+      <c r="I46" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="J46" s="49">
+        <v>-0.01</v>
+      </c>
+      <c r="K46" s="49">
+        <v>0.88</v>
+      </c>
+      <c r="L46" s="51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M46" s="52">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="C47" s="49">
+        <v>0.17</v>
+      </c>
+      <c r="D47" s="49">
+        <v>-0.11</v>
+      </c>
+      <c r="E47" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="F47" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="G47" s="52">
+        <v>0.21</v>
+      </c>
+      <c r="H47" s="49">
+        <v>-0.11</v>
+      </c>
+      <c r="I47" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="J47" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="K47" s="49">
+        <v>0.47</v>
+      </c>
+      <c r="L47" s="51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M47" s="52">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="49">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="C48" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="D48" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="E48" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="F48" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="G48" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="H48" s="49">
+        <v>-0.12</v>
+      </c>
+      <c r="I48" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="J48" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="K48" s="49">
+        <v>0.26</v>
+      </c>
+      <c r="L48" s="49">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M48" s="52">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="19">
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="H35:M35"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -13044,11 +14931,15 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resultados/resultados regresiones.xlsx
+++ b/Resultados/resultados regresiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f3ba38939858e1d/Desktop/Apps/R Studio/Analisis articulo/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1425" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26514BEA-5BCB-4A28-8106-DCB68DE5D92E}"/>
+  <xr:revisionPtr revIDLastSave="1911" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE36F905-66C4-4F80-B912-D659A842E7F6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="617" firstSheet="8" activeTab="9" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="617" firstSheet="3" activeTab="9" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMPLES" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Coincidencia p" sheetId="9" r:id="rId8"/>
     <sheet name="Tablas ATTWM" sheetId="10" r:id="rId9"/>
     <sheet name="Tablas EDAD" sheetId="11" r:id="rId10"/>
+    <sheet name="ATTWM tablas" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">FDR!$D$1:$I$45</definedName>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="225">
   <si>
     <t>EDAD</t>
   </si>
@@ -461,12 +462,288 @@
   <si>
     <t>WM ATTEND SCENES/IGNORE FACES - AGE</t>
   </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Raw data</t>
+  </si>
+  <si>
+    <t>z-core</t>
+  </si>
+  <si>
+    <t>Mean (SD)</t>
+  </si>
+  <si>
+    <t>Cognitive Reserve*Att</t>
+  </si>
+  <si>
+    <t>WM ATTEND FACES</t>
+  </si>
+  <si>
+    <t>WM IGNORE FACES</t>
+  </si>
+  <si>
+    <t>(-0.23 (SD=1.22)</t>
+  </si>
+  <si>
+    <t>0.59 (SD=1.01)</t>
+  </si>
+  <si>
+    <t>(-0.2 (SD=0.72)</t>
+  </si>
+  <si>
+    <t>0.17 (SD=1.17)</t>
+  </si>
+  <si>
+    <t>0.48 (SD=1.01)</t>
+  </si>
+  <si>
+    <t>(-0.24 (SD=1.37)</t>
+  </si>
+  <si>
+    <t>0.26 (SD=0.91)</t>
+  </si>
+  <si>
+    <t>(-0.18 (SD=1.1)</t>
+  </si>
+  <si>
+    <t>0.14 (SD=1.95)</t>
+  </si>
+  <si>
+    <t>(-0.27 (SD=1.32)</t>
+  </si>
+  <si>
+    <t>(-0.25 (SD=0.75)</t>
+  </si>
+  <si>
+    <t>0.21 (SD=1.13)</t>
+  </si>
+  <si>
+    <t>State Depression*Age</t>
+  </si>
+  <si>
+    <t>Cognitive Reserve*Age</t>
+  </si>
+  <si>
+    <t>Sleep hours (session)*Age</t>
+  </si>
+  <si>
+    <t>0.17 (SD=0.8)</t>
+  </si>
+  <si>
+    <t>(-0.08 (SD=1.43)</t>
+  </si>
+  <si>
+    <t>(-0.22 (SD=0.88)</t>
+  </si>
+  <si>
+    <t>0.11 (SD=0.91)</t>
+  </si>
+  <si>
+    <t>(-0.19 (SD=1.24)</t>
+  </si>
+  <si>
+    <t>(-0.27 (SD=1.5)</t>
+  </si>
+  <si>
+    <t>0.04 (SD=1.37)</t>
+  </si>
+  <si>
+    <t>0.18 (SD=1.99)</t>
+  </si>
+  <si>
+    <t>0.1 (SD=1.19)</t>
+  </si>
+  <si>
+    <t>0.14 (SD=0.96)</t>
+  </si>
+  <si>
+    <t>1.88 (SD=1.19)</t>
+  </si>
+  <si>
+    <t>(-0.45 (SD=0.88)</t>
+  </si>
+  <si>
+    <t>(-0.22 (SD=0.93)</t>
+  </si>
+  <si>
+    <t>1.2 (SD=0.89)</t>
+  </si>
+  <si>
+    <t>ENHANCEMENT MECHANISM</t>
+  </si>
+  <si>
+    <t>SUPPRESSION MECHANISM</t>
+  </si>
+  <si>
+    <t>(-0.01 (SD=1.31)</t>
+  </si>
+  <si>
+    <t>-0.38 (SD=1.29)</t>
+  </si>
+  <si>
+    <t>Crystallized Intelligence*Age</t>
+  </si>
+  <si>
+    <t>65.36 (SD=4.78)</t>
+  </si>
+  <si>
+    <t>24.2 (SD=2.5)</t>
+  </si>
+  <si>
+    <t>1.47 (SD=0.32)</t>
+  </si>
+  <si>
+    <t>-1.3 (SD=0.17)</t>
+  </si>
+  <si>
+    <t>28.51 (SD=0.65)</t>
+  </si>
+  <si>
+    <t>26.54 (SD=0.5)</t>
+  </si>
+  <si>
+    <t>0.93 (SD=0.57)</t>
+  </si>
+  <si>
+    <t>-0.8 (SD=0.44)</t>
+  </si>
+  <si>
+    <t>12.02 (SD=1.57)</t>
+  </si>
+  <si>
+    <t>1.33 (SD=0.68)</t>
+  </si>
+  <si>
+    <t>(-1.69 (SD=0.48)</t>
+  </si>
+  <si>
+    <t>143.94 (SD=9.23)</t>
+  </si>
+  <si>
+    <t>92.81 (SD=2.37)</t>
+  </si>
+  <si>
+    <t>1.71 (SD=0.53)</t>
+  </si>
+  <si>
+    <t>-1.2 (SD=0.13)</t>
+  </si>
+  <si>
+    <t>52.81 (SD=2.99)</t>
+  </si>
+  <si>
+    <t>40.43 (SD=1.94)</t>
+  </si>
+  <si>
+    <t>1.32 (SD=0.6)</t>
+  </si>
+  <si>
+    <t>-1.17 (SD=0.39)</t>
+  </si>
+  <si>
+    <t>48.56 (SD=2.49)</t>
+  </si>
+  <si>
+    <t>37.55 (SD=2.47)</t>
+  </si>
+  <si>
+    <t>1.16 (SD=0.52)</t>
+  </si>
+  <si>
+    <t>-1.13 (SD=0.51)</t>
+  </si>
+  <si>
+    <t>50.28 (SD=3.22)</t>
+  </si>
+  <si>
+    <t>40.4 (SD=3.07)</t>
+  </si>
+  <si>
+    <t>0.93 (SD=0.68)</t>
+  </si>
+  <si>
+    <t>(-1.14 (SD=0.64)</t>
+  </si>
+  <si>
+    <t>50.23 (SD=2.46)</t>
+  </si>
+  <si>
+    <t>39.53 (SD=2.34)</t>
+  </si>
+  <si>
+    <t>1.13 (SD=0.55)</t>
+  </si>
+  <si>
+    <t>(-1.25 (SD=0.52)</t>
+  </si>
+  <si>
+    <t>115.69 (SD=2.16)</t>
+  </si>
+  <si>
+    <t>100.24 (SD=3.8)</t>
+  </si>
+  <si>
+    <t>1.18 (SD=1.31)</t>
+  </si>
+  <si>
+    <t>-1.62 (SD=0.69)</t>
+  </si>
+  <si>
+    <t>5.62 (SD=0.69)</t>
+  </si>
+  <si>
+    <t>7.4 (SD=0.61)</t>
+  </si>
+  <si>
+    <t>-1.12 (SD=0.69)</t>
+  </si>
+  <si>
+    <t>0.66 (SD=0.6)</t>
+  </si>
+  <si>
+    <t>5.6 (SD=0.58)</t>
+  </si>
+  <si>
+    <t>8.22 (SD=0.52)</t>
+  </si>
+  <si>
+    <t>-1.14 (SD=0.53)</t>
+  </si>
+  <si>
+    <t>1.29 (SD=0.49)</t>
+  </si>
+  <si>
+    <t>4 (4-5)</t>
+  </si>
+  <si>
+    <t>2 (0-2)</t>
+  </si>
+  <si>
+    <t>0.95 (SD=0.31)</t>
+  </si>
+  <si>
+    <t>-1.31 (SD=0.66)</t>
+  </si>
+  <si>
+    <t>21.94 (SD=2.24)</t>
+  </si>
+  <si>
+    <t>LOW GROUP</t>
+  </si>
+  <si>
+    <t>HIGH GROUP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,8 +825,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +860,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -824,6 +1119,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -863,15 +1180,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,6 +1192,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,8 +1213,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,29 +1595,29 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="62"/>
+      <c r="E1" s="70"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="M1" s="59" t="s">
+      <c r="K1" s="70"/>
+      <c r="M1" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="61"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="69"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1652,49 +2016,52 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D41627-2355-4EEA-A2CD-D2B21314CEDD}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:R129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83:R91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -2068,36 +2435,36 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="76" t="s">
+      <c r="C19" s="83"/>
+      <c r="D19" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="76" t="s">
+      <c r="E19" s="83"/>
+      <c r="F19" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="59" t="s">
+      <c r="G19" s="83"/>
+      <c r="H19" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -2194,7 +2561,7 @@
         <v>0.03</v>
       </c>
       <c r="J22" s="10">
-        <v>8.5500000000000007</v>
+        <v>8.56</v>
       </c>
       <c r="K22" s="10">
         <v>4.0000000000000001E-3</v>
@@ -2444,36 +2811,36 @@
       <c r="K31" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="76" t="s">
+      <c r="C36" s="83"/>
+      <c r="D36" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="78"/>
-      <c r="F36" s="76" t="s">
+      <c r="E36" s="83"/>
+      <c r="F36" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="78"/>
-      <c r="H36" s="59" t="s">
+      <c r="G36" s="83"/>
+      <c r="H36" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="61"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="69"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
@@ -2851,36 +3218,36 @@
       <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="76" t="s">
+      <c r="A52" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="83"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
-      <c r="B53" s="76" t="s">
+      <c r="B53" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="76" t="s">
+      <c r="C53" s="83"/>
+      <c r="D53" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="76" t="s">
+      <c r="E53" s="83"/>
+      <c r="F53" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="G53" s="78"/>
-      <c r="H53" s="59" t="s">
+      <c r="G53" s="83"/>
+      <c r="H53" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="61"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="69"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
@@ -3165,7 +3532,7 @@
         <v>23.54</v>
       </c>
       <c r="K63" s="10">
-        <v>1.9999999999999999E-6</v>
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3195,7 +3562,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="46" t="s">
         <v>113</v>
       </c>
@@ -3222,1129 +3589,2461 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="82" t="s">
+    <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="B69" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="79" t="s">
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="80"/>
-      <c r="M70" s="81"/>
-    </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="82"/>
-      <c r="B71" s="70" t="s">
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="89"/>
+      <c r="M69" s="90"/>
+      <c r="O69" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="71"/>
-      <c r="D71" s="70" t="s">
+      <c r="P69" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q69" s="106"/>
+      <c r="R69" s="107"/>
+    </row>
+    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="87"/>
+      <c r="B70" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="79"/>
+      <c r="D70" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="E71" s="71"/>
-      <c r="F71" s="70" t="s">
+      <c r="E70" s="79"/>
+      <c r="F70" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="G71" s="71"/>
-      <c r="H71" s="70" t="s">
+      <c r="G70" s="79"/>
+      <c r="H70" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="I71" s="71"/>
-      <c r="J71" s="70" t="s">
+      <c r="I70" s="79"/>
+      <c r="J70" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="K71" s="71"/>
-      <c r="L71" s="70" t="s">
+      <c r="K70" s="79"/>
+      <c r="L70" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="M71" s="71"/>
-    </row>
-    <row r="72" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="49" t="s">
+      <c r="M70" s="79"/>
+      <c r="O70" s="87"/>
+      <c r="P70" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q70" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="R70" s="84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A71" s="87"/>
+      <c r="B71" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C71" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D71" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="49" t="s">
+      <c r="E71" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="47" t="s">
+      <c r="F71" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="49" t="s">
+      <c r="G71" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="49" t="s">
+      <c r="H71" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="49" t="s">
+      <c r="I71" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J72" s="49" t="s">
+      <c r="J71" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="K72" s="49" t="s">
+      <c r="K71" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="47" t="s">
+      <c r="L71" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="M72" s="49" t="s">
+      <c r="M71" s="49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O71" s="87"/>
+      <c r="P71" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q71" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="R71" s="86"/>
+    </row>
+    <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="49">
+        <v>-0.05</v>
+      </c>
+      <c r="C72" s="49">
+        <v>0.52</v>
+      </c>
+      <c r="D72" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="E72" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="F72" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="G72" s="60">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H72" s="49">
+        <v>1E-3</v>
+      </c>
+      <c r="I72" s="49">
+        <v>0.99</v>
+      </c>
+      <c r="J72" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="K72" s="49">
+        <v>0.27</v>
+      </c>
+      <c r="L72" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="M72" s="60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O72" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="P72" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q72" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="R72" s="63">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="59">
+        <v>0.26</v>
+      </c>
+      <c r="C73" s="59">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D73" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E73" s="49">
+        <v>0.27</v>
+      </c>
+      <c r="F73" s="60">
+        <v>0.11</v>
+      </c>
+      <c r="G73" s="60">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H73" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="I73" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="J73" s="49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K73" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L73" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="M73" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O73" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="P73" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q73" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="R73" s="63">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="C74" s="49">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D74" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="E74" s="49">
+        <v>0.39</v>
+      </c>
+      <c r="F74" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="G74" s="60">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H74" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I74" s="49">
+        <v>0.31</v>
+      </c>
+      <c r="J74" s="49">
+        <v>-0.01</v>
+      </c>
+      <c r="K74" s="49">
+        <v>0.83</v>
+      </c>
+      <c r="L74" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="M74" s="60">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O74" s="104"/>
+      <c r="P74" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q74" s="106"/>
+      <c r="R74" s="107"/>
+    </row>
+    <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="C75" s="49">
+        <v>0.36</v>
+      </c>
+      <c r="D75" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E75" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="F75" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="G75" s="60">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H75" s="59">
+        <v>-0.18</v>
+      </c>
+      <c r="I75" s="59">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J75" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K75" s="49">
+        <v>0.35</v>
+      </c>
+      <c r="L75" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="M75" s="60">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O75" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P75" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q75" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="R75" s="63">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="C76" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="D76" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="E76" s="49">
+        <v>0.18</v>
+      </c>
+      <c r="F76" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="G76" s="60">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H76" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="I76" s="49">
+        <v>0.74</v>
+      </c>
+      <c r="J76" s="49">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K76" s="49">
+        <v>0.91</v>
+      </c>
+      <c r="L76" s="60">
+        <v>0.05</v>
+      </c>
+      <c r="M76" s="60">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="O76" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="P76" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q76" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="R76" s="63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="49">
+        <v>-0.05</v>
+      </c>
+      <c r="C77" s="49">
+        <v>0.43</v>
+      </c>
+      <c r="D77" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="E77" s="49">
+        <v>0.39</v>
+      </c>
+      <c r="F77" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="G77" s="60">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H77" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="I77" s="49">
+        <v>0.86</v>
+      </c>
+      <c r="J77" s="59">
+        <v>0.18</v>
+      </c>
+      <c r="K77" s="59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L77" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="M77" s="60">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O77" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="P77" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q77" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="R77" s="63">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="59">
+        <v>-0.18</v>
+      </c>
+      <c r="C78" s="59">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D78" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E78" s="49">
+        <v>0.54</v>
+      </c>
+      <c r="F78" s="60">
+        <v>0.12</v>
+      </c>
+      <c r="G78" s="60">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H78" s="59">
+        <v>-0.17</v>
+      </c>
+      <c r="I78" s="62">
+        <v>0.01</v>
+      </c>
+      <c r="J78" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K78" s="49">
+        <v>0.36</v>
+      </c>
+      <c r="L78" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="M78" s="60">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="O78" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="P78" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q78" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="R78" s="63">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B79" s="49">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C79" s="49">
+        <v>0.26</v>
+      </c>
+      <c r="D79" s="59">
+        <v>0.17</v>
+      </c>
+      <c r="E79" s="59">
+        <v>0.01</v>
+      </c>
+      <c r="F79" s="60">
+        <v>0.12</v>
+      </c>
+      <c r="G79" s="60">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H79" s="49">
+        <v>-0.12</v>
+      </c>
+      <c r="I79" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J79" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="K79" s="49">
+        <v>0.42</v>
+      </c>
+      <c r="L79" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="M79" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="49">
+        <v>-0.1</v>
+      </c>
+      <c r="C80" s="49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D80" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E80" s="49">
+        <v>0.51</v>
+      </c>
+      <c r="F80" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="G80" s="60">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H80" s="49">
+        <v>-0.1</v>
+      </c>
+      <c r="I80" s="49">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J80" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="K80" s="49">
+        <v>0.51</v>
+      </c>
+      <c r="L80" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="M80" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="49">
+        <v>-0.13</v>
+      </c>
+      <c r="C81" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="D81" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="E81" s="49">
+        <v>0.59</v>
+      </c>
+      <c r="F81" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="G81" s="60">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H81" s="49">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="I81" s="49">
+        <v>0.91</v>
+      </c>
+      <c r="J81" s="49">
+        <v>-0.11</v>
+      </c>
+      <c r="K81" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="L81" s="60">
+        <v>0.06</v>
+      </c>
+      <c r="M81" s="60">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P81" s="64"/>
+      <c r="Q81" s="64"/>
+      <c r="R81" s="64"/>
+    </row>
+    <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="C82" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="D82" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="E82" s="49">
+        <v>0.37</v>
+      </c>
+      <c r="F82" s="60">
+        <v>0.09</v>
+      </c>
+      <c r="G82" s="60">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H82" s="49">
+        <v>-0.11</v>
+      </c>
+      <c r="I82" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="J82" s="59">
+        <v>0.13</v>
+      </c>
+      <c r="K82" s="59">
+        <v>0.04</v>
+      </c>
+      <c r="L82" s="60">
+        <v>0.08</v>
+      </c>
+      <c r="M82" s="60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P82" s="64"/>
+      <c r="Q82" s="64"/>
+      <c r="R82" s="64"/>
+    </row>
+    <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O83" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="P83" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q83" s="106"/>
+      <c r="R83" s="107"/>
+    </row>
+    <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O84" s="85"/>
+      <c r="P84" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q84" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="R84" s="84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="I85" s="89"/>
+      <c r="J85" s="89"/>
+      <c r="K85" s="89"/>
+      <c r="L85" s="89"/>
+      <c r="M85" s="90"/>
+      <c r="O85" s="86"/>
+      <c r="P85" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q85" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="R85" s="86"/>
+    </row>
+    <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="87"/>
+      <c r="B86" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="79"/>
+      <c r="D86" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" s="79"/>
+      <c r="F86" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" s="79"/>
+      <c r="H86" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="I86" s="79"/>
+      <c r="J86" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="K86" s="79"/>
+      <c r="L86" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="M86" s="79"/>
+      <c r="O86" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="49">
+      <c r="P86" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q86" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="R86" s="63">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A87" s="87"/>
+      <c r="B87" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K87" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L87" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M87" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="O87" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="P87" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q87" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="R87" s="63">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="49">
         <v>-0.05</v>
       </c>
-      <c r="C73" s="49">
+      <c r="C88" s="49">
         <v>0.52</v>
       </c>
-      <c r="D73" s="49">
+      <c r="D88" s="49">
         <v>-0.09</v>
       </c>
-      <c r="E73" s="49">
+      <c r="E88" s="49">
         <v>0.19</v>
       </c>
-      <c r="F73" s="48">
+      <c r="F88" s="48">
         <v>0.1</v>
       </c>
-      <c r="G73" s="48">
+      <c r="G88" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H73" s="49">
+      <c r="H88" s="49">
         <v>1E-3</v>
       </c>
-      <c r="I73" s="49">
+      <c r="I88" s="49">
         <v>0.99</v>
       </c>
-      <c r="J73" s="49">
+      <c r="J88" s="49">
         <v>-0.08</v>
       </c>
-      <c r="K73" s="49">
+      <c r="K88" s="49">
         <v>0.27</v>
       </c>
-      <c r="L73" s="48">
+      <c r="L88" s="48">
         <v>0.05</v>
       </c>
-      <c r="M73" s="48">
+      <c r="M88" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="54" t="s">
+      <c r="O88" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P88" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q88" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="R88" s="63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B89" s="53">
         <v>0.26</v>
       </c>
-      <c r="C74" s="53">
+      <c r="C89" s="53">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D74" s="49">
+      <c r="D89" s="49">
         <v>0.08</v>
       </c>
-      <c r="E74" s="49">
+      <c r="E89" s="49">
         <v>0.27</v>
       </c>
-      <c r="F74" s="48">
+      <c r="F89" s="48">
         <v>0.11</v>
       </c>
-      <c r="G74" s="48">
+      <c r="G89" s="48">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="H74" s="49">
+      <c r="H89" s="49">
         <v>-0.09</v>
       </c>
-      <c r="I74" s="49">
+      <c r="I89" s="49">
         <v>0.38</v>
       </c>
-      <c r="J74" s="49">
+      <c r="J89" s="49">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K74" s="49">
+      <c r="K89" s="49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L74" s="48">
+      <c r="L89" s="48">
         <v>0.06</v>
       </c>
-      <c r="M74" s="48">
+      <c r="M89" s="48">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="54" t="s">
+      <c r="O89" s="104"/>
+      <c r="P89" s="105" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q89" s="106"/>
+      <c r="R89" s="107"/>
+    </row>
+    <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="49">
+      <c r="B90" s="49">
         <v>0.04</v>
       </c>
-      <c r="C75" s="49">
+      <c r="C90" s="49">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D75" s="49">
+      <c r="D90" s="49">
         <v>-0.06</v>
       </c>
-      <c r="E75" s="49">
+      <c r="E90" s="49">
         <v>0.39</v>
       </c>
-      <c r="F75" s="48">
+      <c r="F90" s="48">
         <v>0.09</v>
       </c>
-      <c r="G75" s="48">
+      <c r="G90" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H75" s="49">
+      <c r="H90" s="49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I75" s="49">
+      <c r="I90" s="49">
         <v>0.31</v>
       </c>
-      <c r="J75" s="49">
+      <c r="J90" s="49">
         <v>-0.01</v>
       </c>
-      <c r="K75" s="49">
+      <c r="K90" s="49">
         <v>0.83</v>
       </c>
-      <c r="L75" s="48">
+      <c r="L90" s="48">
         <v>0.05</v>
       </c>
-      <c r="M75" s="48">
+      <c r="M90" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="54" t="s">
+      <c r="O90" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="P90" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q90" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="R90" s="63">
+        <v>1.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="49">
+      <c r="B91" s="49">
         <v>-0.06</v>
       </c>
-      <c r="C76" s="49">
+      <c r="C91" s="49">
         <v>0.36</v>
       </c>
-      <c r="D76" s="49">
+      <c r="D91" s="49">
         <v>0.08</v>
       </c>
-      <c r="E76" s="49">
+      <c r="E91" s="49">
         <v>0.23</v>
       </c>
-      <c r="F76" s="48">
+      <c r="F91" s="48">
         <v>0.09</v>
       </c>
-      <c r="G76" s="48">
+      <c r="G91" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H76" s="53">
+      <c r="H91" s="53">
         <v>-0.18</v>
       </c>
-      <c r="I76" s="53">
+      <c r="I91" s="53">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J76" s="49">
+      <c r="J91" s="49">
         <v>0.06</v>
       </c>
-      <c r="K76" s="49">
+      <c r="K91" s="49">
         <v>0.35</v>
       </c>
-      <c r="L76" s="48">
+      <c r="L91" s="48">
         <v>0.09</v>
       </c>
-      <c r="M76" s="48">
+      <c r="M91" s="48">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="54" t="s">
+      <c r="O91" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="P91" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q91" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="R91" s="63">
+        <v>5.0000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="49">
+      <c r="B92" s="49">
         <v>-0.08</v>
       </c>
-      <c r="C77" s="49">
+      <c r="C92" s="49">
         <v>0.23</v>
       </c>
-      <c r="D77" s="49">
+      <c r="D92" s="49">
         <v>-0.09</v>
       </c>
-      <c r="E77" s="49">
+      <c r="E92" s="49">
         <v>0.18</v>
       </c>
-      <c r="F77" s="48">
+      <c r="F92" s="48">
         <v>0.1</v>
       </c>
-      <c r="G77" s="48">
+      <c r="G92" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H77" s="49">
+      <c r="H92" s="49">
         <v>-0.03</v>
       </c>
-      <c r="I77" s="49">
+      <c r="I92" s="49">
         <v>0.74</v>
       </c>
-      <c r="J77" s="49">
+      <c r="J92" s="49">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="K77" s="49">
+      <c r="K92" s="49">
         <v>0.91</v>
       </c>
-      <c r="L77" s="48">
+      <c r="L92" s="48">
         <v>0.05</v>
       </c>
-      <c r="M77" s="48">
+      <c r="M92" s="48">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="54" t="s">
+    <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="49">
+      <c r="B93" s="49">
         <v>-0.05</v>
       </c>
-      <c r="C78" s="49">
+      <c r="C93" s="49">
         <v>0.43</v>
       </c>
-      <c r="D78" s="49">
+      <c r="D93" s="49">
         <v>0.05</v>
       </c>
-      <c r="E78" s="49">
+      <c r="E93" s="49">
         <v>0.39</v>
       </c>
-      <c r="F78" s="48">
+      <c r="F93" s="48">
         <v>0.09</v>
       </c>
-      <c r="G78" s="48">
+      <c r="G93" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H78" s="49">
+      <c r="H93" s="49">
         <v>0.01</v>
       </c>
-      <c r="I78" s="49">
+      <c r="I93" s="49">
         <v>0.86</v>
       </c>
-      <c r="J78" s="53">
+      <c r="J93" s="53">
         <v>0.18</v>
       </c>
-      <c r="K78" s="53">
+      <c r="K93" s="53">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L78" s="48">
+      <c r="L93" s="48">
         <v>0.08</v>
       </c>
-      <c r="M78" s="48">
+      <c r="M93" s="48">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="54" t="s">
+    <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B79" s="53">
+      <c r="B94" s="53">
         <v>-0.18</v>
       </c>
-      <c r="C79" s="53">
+      <c r="C94" s="53">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D79" s="49">
+      <c r="D94" s="49">
         <v>-0.04</v>
       </c>
-      <c r="E79" s="49">
+      <c r="E94" s="49">
         <v>0.54</v>
       </c>
-      <c r="F79" s="48">
+      <c r="F94" s="48">
         <v>0.12</v>
       </c>
-      <c r="G79" s="48">
+      <c r="G94" s="48">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="H79" s="53">
+      <c r="H94" s="53">
         <v>-0.17</v>
       </c>
-      <c r="I79" s="58">
+      <c r="I94" s="58">
         <v>0.01</v>
       </c>
-      <c r="J79" s="49">
+      <c r="J94" s="49">
         <v>0.06</v>
       </c>
-      <c r="K79" s="49">
+      <c r="K94" s="49">
         <v>0.36</v>
       </c>
-      <c r="L79" s="48">
+      <c r="L94" s="48">
         <v>0.08</v>
       </c>
-      <c r="M79" s="48">
+      <c r="M94" s="48">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="54" t="s">
+    <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="49">
+      <c r="B95" s="49">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="C80" s="49">
+      <c r="C95" s="49">
         <v>0.26</v>
       </c>
-      <c r="D80" s="53">
+      <c r="D95" s="53">
         <v>0.17</v>
       </c>
-      <c r="E80" s="53">
+      <c r="E95" s="53">
         <v>0.01</v>
       </c>
-      <c r="F80" s="48">
+      <c r="F95" s="48">
         <v>0.12</v>
       </c>
-      <c r="G80" s="48">
+      <c r="G95" s="48">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="H80" s="49">
+      <c r="H95" s="49">
         <v>-0.12</v>
       </c>
-      <c r="I80" s="49">
+      <c r="I95" s="49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J80" s="49">
+      <c r="J95" s="49">
         <v>0.05</v>
       </c>
-      <c r="K80" s="49">
+      <c r="K95" s="49">
         <v>0.42</v>
       </c>
-      <c r="L80" s="48">
+      <c r="L95" s="48">
         <v>0.06</v>
       </c>
-      <c r="M80" s="48">
+      <c r="M95" s="48">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="54" t="s">
+    <row r="96" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="49">
+      <c r="B96" s="49">
         <v>-0.1</v>
       </c>
-      <c r="C81" s="49">
+      <c r="C96" s="49">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D81" s="49">
+      <c r="D96" s="49">
         <v>-0.04</v>
       </c>
-      <c r="E81" s="49">
+      <c r="E96" s="49">
         <v>0.51</v>
       </c>
-      <c r="F81" s="48">
+      <c r="F96" s="48">
         <v>0.09</v>
       </c>
-      <c r="G81" s="48">
+      <c r="G96" s="48">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H81" s="49">
+      <c r="H96" s="49">
         <v>-0.1</v>
       </c>
-      <c r="I81" s="49">
+      <c r="I96" s="49">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J81" s="49">
+      <c r="J96" s="49">
         <v>-0.04</v>
       </c>
-      <c r="K81" s="49">
+      <c r="K96" s="49">
         <v>0.51</v>
       </c>
-      <c r="L81" s="48">
+      <c r="L96" s="48">
         <v>0.06</v>
       </c>
-      <c r="M81" s="48">
+      <c r="M96" s="48">
         <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" s="49">
-        <v>-0.13</v>
-      </c>
-      <c r="C82" s="49">
-        <v>0.09</v>
-      </c>
-      <c r="D82" s="49">
-        <v>0.04</v>
-      </c>
-      <c r="E82" s="49">
-        <v>0.59</v>
-      </c>
-      <c r="F82" s="48">
-        <v>0.09</v>
-      </c>
-      <c r="G82" s="48">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H82" s="49">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="I82" s="49">
-        <v>0.91</v>
-      </c>
-      <c r="J82" s="49">
-        <v>-0.11</v>
-      </c>
-      <c r="K82" s="49">
-        <v>0.13</v>
-      </c>
-      <c r="L82" s="48">
-        <v>0.06</v>
-      </c>
-      <c r="M82" s="48">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="49">
-        <v>-0.08</v>
-      </c>
-      <c r="C83" s="49">
-        <v>0.23</v>
-      </c>
-      <c r="D83" s="49">
-        <v>0.05</v>
-      </c>
-      <c r="E83" s="49">
-        <v>0.37</v>
-      </c>
-      <c r="F83" s="48">
-        <v>0.09</v>
-      </c>
-      <c r="G83" s="48">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H83" s="49">
-        <v>-0.11</v>
-      </c>
-      <c r="I83" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="J83" s="53">
-        <v>0.13</v>
-      </c>
-      <c r="K83" s="53">
-        <v>0.04</v>
-      </c>
-      <c r="L83" s="48">
-        <v>0.08</v>
-      </c>
-      <c r="M83" s="48">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="47"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="57"/>
-      <c r="L84" s="57"/>
-      <c r="M84" s="57"/>
-    </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="57"/>
-      <c r="I85" s="57"/>
-      <c r="J85" s="57"/>
-      <c r="K85" s="57"/>
-      <c r="L85" s="57"/>
-      <c r="M85" s="57"/>
-    </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="56"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="57"/>
-      <c r="I86" s="57"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="57"/>
-      <c r="L86" s="57"/>
-      <c r="M86" s="57"/>
-    </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" s="75"/>
-      <c r="D87" s="75"/>
-      <c r="E87" s="75"/>
-      <c r="F87" s="75"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="I87" s="75"/>
-      <c r="J87" s="75"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="75"/>
-      <c r="M87" s="71"/>
-    </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
-      <c r="B88" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="C88" s="71"/>
-      <c r="D88" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="E88" s="71"/>
-      <c r="F88" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="G88" s="71"/>
-      <c r="H88" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="I88" s="71"/>
-      <c r="J88" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="K88" s="71"/>
-      <c r="L88" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="M88" s="71"/>
-    </row>
-    <row r="89" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A89" s="82"/>
-      <c r="B89" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="G89" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="J89" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="K89" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="L89" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="M89" s="49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B90" s="53">
-        <v>0.16</v>
-      </c>
-      <c r="C90" s="53">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D90" s="49">
-        <v>-0.03</v>
-      </c>
-      <c r="E90" s="49">
-        <v>0.59</v>
-      </c>
-      <c r="F90" s="48">
-        <v>0.01</v>
-      </c>
-      <c r="G90" s="48">
-        <v>0.04</v>
-      </c>
-      <c r="H90" s="49">
-        <v>0.02</v>
-      </c>
-      <c r="I90" s="49">
-        <v>0.74</v>
-      </c>
-      <c r="J90" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K90" s="49">
-        <v>0.19</v>
-      </c>
-      <c r="L90" s="49">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="M90" s="52">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" s="53">
-        <v>0.27</v>
-      </c>
-      <c r="C91" s="53">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="D91" s="53">
-        <v>-0.12</v>
-      </c>
-      <c r="E91" s="53">
-        <v>0.02</v>
-      </c>
-      <c r="F91" s="48">
-        <v>0.03</v>
-      </c>
-      <c r="G91" s="48">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H91" s="49">
-        <v>-0.03</v>
-      </c>
-      <c r="I91" s="49">
-        <v>0.68</v>
-      </c>
-      <c r="J91" s="53">
-        <v>0.17</v>
-      </c>
-      <c r="K91" s="53">
-        <v>2E-3</v>
-      </c>
-      <c r="L91" s="48">
-        <v>0.03</v>
-      </c>
-      <c r="M91" s="48">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B92" s="49">
-        <v>0.02</v>
-      </c>
-      <c r="C92" s="49">
-        <v>0.63</v>
-      </c>
-      <c r="D92" s="49">
-        <v>0.08</v>
-      </c>
-      <c r="E92" s="49">
-        <v>0.11</v>
-      </c>
-      <c r="F92" s="49">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="G92" s="52">
-        <v>0.47</v>
-      </c>
-      <c r="H92" s="49">
-        <v>-0.04</v>
-      </c>
-      <c r="I92" s="49">
-        <v>0.42</v>
-      </c>
-      <c r="J92" s="49">
-        <v>0.03</v>
-      </c>
-      <c r="K92" s="49">
-        <v>0.6</v>
-      </c>
-      <c r="L92" s="49">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M92" s="52">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" s="49">
-        <v>0.12</v>
-      </c>
-      <c r="C93" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="D93" s="49">
-        <v>0.08</v>
-      </c>
-      <c r="E93" s="49">
-        <v>0.12</v>
-      </c>
-      <c r="F93" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="G93" s="52">
-        <v>0.12</v>
-      </c>
-      <c r="H93" s="49">
-        <v>0.06</v>
-      </c>
-      <c r="I93" s="49">
-        <v>0.26</v>
-      </c>
-      <c r="J93" s="49">
-        <v>0.06</v>
-      </c>
-      <c r="K93" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="L93" s="49">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="M93" s="52">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" s="49">
-        <v>0.09</v>
-      </c>
-      <c r="C94" s="49">
-        <v>0.04</v>
-      </c>
-      <c r="D94" s="49">
-        <v>-0.03</v>
-      </c>
-      <c r="E94" s="49">
-        <v>0.48</v>
-      </c>
-      <c r="F94" s="49">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G94" s="52">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H94" s="49">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="I94" s="49">
-        <v>0.17</v>
-      </c>
-      <c r="J94" s="49">
-        <v>0.04</v>
-      </c>
-      <c r="K94" s="49">
-        <v>0.44</v>
-      </c>
-      <c r="L94" s="49">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="M94" s="52">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="C95" s="49">
-        <v>0.79</v>
-      </c>
-      <c r="D95" s="49">
-        <v>-0.04</v>
-      </c>
-      <c r="E95" s="49">
-        <v>0.42</v>
-      </c>
-      <c r="F95" s="49">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="G95" s="52">
-        <v>0.84</v>
-      </c>
-      <c r="H95" s="49">
-        <v>-0.09</v>
-      </c>
-      <c r="I95" s="49">
-        <v>0.04</v>
-      </c>
-      <c r="J95" s="49">
-        <v>1E-3</v>
-      </c>
-      <c r="K95" s="49">
-        <v>0.98</v>
-      </c>
-      <c r="L95" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="M95" s="52">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="B96" s="49">
-        <v>0.08</v>
-      </c>
-      <c r="C96" s="49">
-        <v>0.11</v>
-      </c>
-      <c r="D96" s="49">
-        <v>0.08</v>
-      </c>
-      <c r="E96" s="49">
-        <v>0.11</v>
-      </c>
-      <c r="F96" s="49">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G96" s="52">
-        <v>0.23</v>
-      </c>
-      <c r="H96" s="49">
-        <v>-1E-3</v>
-      </c>
-      <c r="I96" s="49">
-        <v>0.98</v>
-      </c>
-      <c r="J96" s="49">
-        <v>-0.1</v>
-      </c>
-      <c r="K96" s="49">
-        <v>0.04</v>
-      </c>
-      <c r="L96" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="M96" s="52">
-        <v>0.11</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="49">
+        <v>-0.13</v>
+      </c>
+      <c r="C97" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="D97" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="E97" s="49">
+        <v>0.59</v>
+      </c>
+      <c r="F97" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G97" s="48">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H97" s="49">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="I97" s="49">
+        <v>0.91</v>
+      </c>
+      <c r="J97" s="49">
+        <v>-0.11</v>
+      </c>
+      <c r="K97" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="L97" s="48">
         <v>0.06</v>
       </c>
-      <c r="C97" s="49">
-        <v>0.22</v>
-      </c>
-      <c r="D97" s="49">
-        <v>-0.04</v>
-      </c>
-      <c r="E97" s="49">
-        <v>0.38</v>
-      </c>
-      <c r="F97" s="49">
-        <v>-1E-3</v>
-      </c>
-      <c r="G97" s="52">
-        <v>0.49</v>
-      </c>
-      <c r="H97" s="49">
-        <v>0.04</v>
-      </c>
-      <c r="I97" s="49">
-        <v>0.36</v>
-      </c>
-      <c r="J97" s="49">
-        <v>0.06</v>
-      </c>
-      <c r="K97" s="49">
-        <v>0.2</v>
-      </c>
-      <c r="L97" s="49">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="M97" s="52">
-        <v>0.19</v>
+      <c r="M97" s="48">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="54" t="s">
-        <v>109</v>
+      <c r="A98" s="55" t="s">
+        <v>113</v>
       </c>
       <c r="B98" s="49">
-        <v>0.13</v>
+        <v>-0.08</v>
       </c>
       <c r="C98" s="49">
-        <v>7.0000000000000001E-3</v>
+        <v>0.23</v>
       </c>
       <c r="D98" s="49">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E98" s="49">
-        <v>0.64</v>
-      </c>
-      <c r="F98" s="49">
-        <v>0.01</v>
-      </c>
-      <c r="G98" s="52">
-        <v>0.11</v>
+        <v>0.37</v>
+      </c>
+      <c r="F98" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G98" s="48">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H98" s="49">
-        <v>0.05</v>
+        <v>-0.11</v>
       </c>
       <c r="I98" s="49">
-        <v>0.28999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="J98" s="53">
         <v>0.13</v>
       </c>
       <c r="K98" s="53">
+        <v>0.04</v>
+      </c>
+      <c r="L98" s="48">
+        <v>0.08</v>
+      </c>
+      <c r="M98" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="47"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+      <c r="L99" s="57"/>
+      <c r="M99" s="57"/>
+    </row>
+    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="80"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="79"/>
+      <c r="H100" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="I100" s="80"/>
+      <c r="J100" s="80"/>
+      <c r="K100" s="80"/>
+      <c r="L100" s="80"/>
+      <c r="M100" s="79"/>
+    </row>
+    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="87"/>
+      <c r="B101" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="79"/>
+      <c r="D101" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" s="79"/>
+      <c r="F101" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="G101" s="79"/>
+      <c r="H101" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="I101" s="79"/>
+      <c r="J101" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="K101" s="79"/>
+      <c r="L101" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="M101" s="79"/>
+    </row>
+    <row r="102" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A102" s="87"/>
+      <c r="B102" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G102" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K102" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M102" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" s="59">
+        <v>0.16</v>
+      </c>
+      <c r="C103" s="59">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D103" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="E103" s="49">
+        <v>0.59</v>
+      </c>
+      <c r="F103" s="60">
+        <v>0.01</v>
+      </c>
+      <c r="G103" s="60">
+        <v>0.04</v>
+      </c>
+      <c r="H103" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="I103" s="49">
+        <v>0.74</v>
+      </c>
+      <c r="J103" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K103" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="L103" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M103" s="52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="59">
+        <v>0.27</v>
+      </c>
+      <c r="C104" s="59">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D104" s="59">
+        <v>-0.12</v>
+      </c>
+      <c r="E104" s="59">
+        <v>0.02</v>
+      </c>
+      <c r="F104" s="60">
+        <v>0.03</v>
+      </c>
+      <c r="G104" s="60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H104" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="I104" s="49">
+        <v>0.68</v>
+      </c>
+      <c r="J104" s="59">
+        <v>0.17</v>
+      </c>
+      <c r="K104" s="59">
+        <v>2E-3</v>
+      </c>
+      <c r="L104" s="60">
+        <v>0.03</v>
+      </c>
+      <c r="M104" s="60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="C105" s="49">
+        <v>0.63</v>
+      </c>
+      <c r="D105" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E105" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="F105" s="49">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="G105" s="52">
+        <v>0.47</v>
+      </c>
+      <c r="H105" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="I105" s="49">
+        <v>0.42</v>
+      </c>
+      <c r="J105" s="49">
+        <v>0.03</v>
+      </c>
+      <c r="K105" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="L105" s="49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M105" s="52">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="C106" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="D106" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E106" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="F106" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="G106" s="52">
+        <v>0.12</v>
+      </c>
+      <c r="H106" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="I106" s="49">
+        <v>0.26</v>
+      </c>
+      <c r="J106" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K106" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="L106" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M106" s="52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="C107" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="D107" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="E107" s="49">
+        <v>0.48</v>
+      </c>
+      <c r="F107" s="49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G107" s="52">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H107" s="49">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I107" s="49">
+        <v>0.17</v>
+      </c>
+      <c r="J107" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="K107" s="49">
+        <v>0.44</v>
+      </c>
+      <c r="L107" s="49">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M107" s="52">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="C108" s="49">
+        <v>0.79</v>
+      </c>
+      <c r="D108" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E108" s="49">
+        <v>0.42</v>
+      </c>
+      <c r="F108" s="49">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G108" s="52">
+        <v>0.84</v>
+      </c>
+      <c r="H108" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="I108" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="J108" s="49">
+        <v>1E-3</v>
+      </c>
+      <c r="K108" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="L108" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="M108" s="52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="C109" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="D109" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E109" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="F109" s="49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G109" s="52">
+        <v>0.23</v>
+      </c>
+      <c r="H109" s="49">
+        <v>-1E-3</v>
+      </c>
+      <c r="I109" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="J109" s="49">
+        <v>-0.1</v>
+      </c>
+      <c r="K109" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="L109" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="M109" s="52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="C110" s="49">
+        <v>0.22</v>
+      </c>
+      <c r="D110" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E110" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="F110" s="49">
+        <v>-1E-3</v>
+      </c>
+      <c r="G110" s="52">
+        <v>0.49</v>
+      </c>
+      <c r="H110" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="I110" s="49">
+        <v>0.36</v>
+      </c>
+      <c r="J110" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K110" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="L110" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M110" s="52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="C111" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D111" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="E111" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="F111" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="G111" s="52">
+        <v>0.11</v>
+      </c>
+      <c r="H111" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="I111" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J111" s="59">
+        <v>0.13</v>
+      </c>
+      <c r="K111" s="59">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L98" s="48">
+      <c r="L111" s="60">
         <v>0.02</v>
       </c>
-      <c r="M98" s="48">
+      <c r="M111" s="60">
         <v>0.02</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="54" t="s">
+    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="49">
+      <c r="B112" s="49">
         <v>0.11</v>
       </c>
-      <c r="C99" s="49">
+      <c r="C112" s="49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D99" s="49">
+      <c r="D112" s="49">
         <v>0.05</v>
       </c>
-      <c r="E99" s="49">
+      <c r="E112" s="49">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F99" s="49">
+      <c r="F112" s="49">
         <v>0.01</v>
       </c>
-      <c r="G99" s="49">
+      <c r="G112" s="49">
         <v>0.06</v>
       </c>
-      <c r="H99" s="49" t="s">
+      <c r="H112" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I99" s="49">
+      <c r="I112" s="49">
         <v>0.61</v>
       </c>
-      <c r="J99" s="49">
+      <c r="J112" s="49">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K99" s="49">
+      <c r="K112" s="49">
         <v>0.16</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L112" s="49">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M99" s="52">
+      <c r="M112" s="52">
         <v>0.21</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="55" t="s">
+    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="49">
+      <c r="B113" s="49">
         <v>0.09</v>
       </c>
-      <c r="C100" s="49">
+      <c r="C113" s="49">
         <v>0.06</v>
       </c>
-      <c r="D100" s="49">
+      <c r="D113" s="49">
         <v>-0.04</v>
       </c>
-      <c r="E100" s="49">
+      <c r="E113" s="49">
         <v>0.32</v>
       </c>
-      <c r="F100" s="49">
+      <c r="F113" s="49">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G100" s="52">
+      <c r="G113" s="52">
         <v>0.32</v>
       </c>
-      <c r="H100" s="49">
+      <c r="H113" s="49">
         <v>-0.01</v>
       </c>
-      <c r="I100" s="49">
+      <c r="I113" s="49">
         <v>0.8</v>
       </c>
-      <c r="J100" s="49">
+      <c r="J113" s="49">
         <v>-0.03</v>
       </c>
-      <c r="K100" s="49">
+      <c r="K113" s="49">
         <v>0.43</v>
       </c>
-      <c r="L100" s="49">
+      <c r="L113" s="49">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M100" s="52">
+      <c r="M113" s="52">
         <v>0.32</v>
       </c>
     </row>
+    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="56"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="57"/>
+    </row>
+    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="56"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="56"/>
+      <c r="D115" s="56"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="57"/>
+      <c r="J115" s="57"/>
+      <c r="K115" s="57"/>
+      <c r="L115" s="57"/>
+      <c r="M115" s="57"/>
+    </row>
+    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="80"/>
+      <c r="D116" s="80"/>
+      <c r="E116" s="80"/>
+      <c r="F116" s="80"/>
+      <c r="G116" s="79"/>
+      <c r="H116" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="I116" s="80"/>
+      <c r="J116" s="80"/>
+      <c r="K116" s="80"/>
+      <c r="L116" s="80"/>
+      <c r="M116" s="79"/>
+    </row>
+    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="87"/>
+      <c r="B117" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" s="79"/>
+      <c r="D117" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="79"/>
+      <c r="F117" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="G117" s="79"/>
+      <c r="H117" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="I117" s="79"/>
+      <c r="J117" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="K117" s="79"/>
+      <c r="L117" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="M117" s="79"/>
+    </row>
+    <row r="118" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A118" s="87"/>
+      <c r="B118" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G118" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K118" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L118" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M118" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B119" s="53">
+        <v>0.16</v>
+      </c>
+      <c r="C119" s="53">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D119" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="E119" s="49">
+        <v>0.59</v>
+      </c>
+      <c r="F119" s="48">
+        <v>0.01</v>
+      </c>
+      <c r="G119" s="48">
+        <v>0.04</v>
+      </c>
+      <c r="H119" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="I119" s="49">
+        <v>0.74</v>
+      </c>
+      <c r="J119" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K119" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="L119" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M119" s="52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" s="53">
+        <v>0.27</v>
+      </c>
+      <c r="C120" s="53">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D120" s="53">
+        <v>-0.12</v>
+      </c>
+      <c r="E120" s="53">
+        <v>0.02</v>
+      </c>
+      <c r="F120" s="48">
+        <v>0.03</v>
+      </c>
+      <c r="G120" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H120" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="I120" s="49">
+        <v>0.68</v>
+      </c>
+      <c r="J120" s="53">
+        <v>0.17</v>
+      </c>
+      <c r="K120" s="53">
+        <v>2E-3</v>
+      </c>
+      <c r="L120" s="48">
+        <v>0.03</v>
+      </c>
+      <c r="M120" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="C121" s="49">
+        <v>0.63</v>
+      </c>
+      <c r="D121" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E121" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="F121" s="49">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="G121" s="52">
+        <v>0.47</v>
+      </c>
+      <c r="H121" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="I121" s="49">
+        <v>0.42</v>
+      </c>
+      <c r="J121" s="49">
+        <v>0.03</v>
+      </c>
+      <c r="K121" s="49">
+        <v>0.6</v>
+      </c>
+      <c r="L121" s="49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M121" s="52">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B122" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="C122" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="D122" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E122" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="F122" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="G122" s="52">
+        <v>0.12</v>
+      </c>
+      <c r="H122" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="I122" s="49">
+        <v>0.26</v>
+      </c>
+      <c r="J122" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K122" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="L122" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M122" s="52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B123" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="C123" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="D123" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="E123" s="49">
+        <v>0.48</v>
+      </c>
+      <c r="F123" s="49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G123" s="52">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H123" s="49">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I123" s="49">
+        <v>0.17</v>
+      </c>
+      <c r="J123" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="K123" s="49">
+        <v>0.44</v>
+      </c>
+      <c r="L123" s="49">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M123" s="52">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="C124" s="49">
+        <v>0.79</v>
+      </c>
+      <c r="D124" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E124" s="49">
+        <v>0.42</v>
+      </c>
+      <c r="F124" s="49">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G124" s="52">
+        <v>0.84</v>
+      </c>
+      <c r="H124" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="I124" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="J124" s="49">
+        <v>1E-3</v>
+      </c>
+      <c r="K124" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="L124" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="M124" s="52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="C125" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="D125" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="E125" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="F125" s="49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G125" s="52">
+        <v>0.23</v>
+      </c>
+      <c r="H125" s="49">
+        <v>-1E-3</v>
+      </c>
+      <c r="I125" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="J125" s="49">
+        <v>-0.1</v>
+      </c>
+      <c r="K125" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="L125" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="M125" s="52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="C126" s="49">
+        <v>0.22</v>
+      </c>
+      <c r="D126" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E126" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="F126" s="49">
+        <v>-1E-3</v>
+      </c>
+      <c r="G126" s="52">
+        <v>0.49</v>
+      </c>
+      <c r="H126" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="I126" s="49">
+        <v>0.36</v>
+      </c>
+      <c r="J126" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K126" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="L126" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M126" s="52">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="C127" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D127" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="E127" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="F127" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="G127" s="52">
+        <v>0.11</v>
+      </c>
+      <c r="H127" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="I127" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J127" s="53">
+        <v>0.13</v>
+      </c>
+      <c r="K127" s="53">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L127" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="M127" s="48">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" s="49">
+        <v>0.11</v>
+      </c>
+      <c r="C128" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D128" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="E128" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F128" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="G128" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="H128" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I128" s="49">
+        <v>0.61</v>
+      </c>
+      <c r="J128" s="49">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K128" s="49">
+        <v>0.16</v>
+      </c>
+      <c r="L128" s="49">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M128" s="52">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B129" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="C129" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="D129" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E129" s="49">
+        <v>0.32</v>
+      </c>
+      <c r="F129" s="49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G129" s="52">
+        <v>0.32</v>
+      </c>
+      <c r="H129" s="49">
+        <v>-0.01</v>
+      </c>
+      <c r="I129" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="J129" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="K129" s="49">
+        <v>0.43</v>
+      </c>
+      <c r="L129" s="49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M129" s="52">
+        <v>0.32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="64">
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="O83:O85"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="H85:M85"/>
+    <mergeCell ref="H116:M116"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="H100:M100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H36:K36"/>
@@ -4359,31 +6058,21 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="H70:M70"/>
-    <mergeCell ref="H87:M87"/>
-    <mergeCell ref="J71:K71"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B21C07-17A6-486C-8DC7-AA2A699CCC3B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4404,27 +6093,27 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4990,48 +6679,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="66"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="62"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -5424,48 +7113,48 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="59" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="69"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="74"/>
+      <c r="D18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66" t="s">
+      <c r="E18" s="74"/>
+      <c r="F18" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="66"/>
+      <c r="G18" s="74"/>
       <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62" t="s">
+      <c r="J18" s="70"/>
+      <c r="K18" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="62"/>
+      <c r="L18" s="70"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -5867,6 +7556,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -5875,12 +7570,6 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5888,10 +7577,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7757F5-E467-43FB-943F-7BD7D5C7DE70}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5901,38 +7590,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -6151,13 +7840,17 @@
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="A15" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24">
+        <v>0.51</v>
+      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6180,38 +7873,38 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69" t="s">
+      <c r="C19" s="77"/>
+      <c r="D19" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69" t="s">
+      <c r="E19" s="77"/>
+      <c r="F19" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="68" t="s">
+      <c r="G19" s="77"/>
+      <c r="H19" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -6457,6 +8150,19 @@
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="G32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6491,73 +8197,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="59" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="65"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="73"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="66"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="62"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="9"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="63" t="s">
+      <c r="P2" s="73"/>
+      <c r="Q2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="63" t="s">
+      <c r="R2" s="73"/>
+      <c r="S2" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="65"/>
+      <c r="T2" s="73"/>
       <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
@@ -7191,46 +8897,46 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="63" t="s">
+      <c r="N16" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="65"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="73"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66" t="s">
+      <c r="E17" s="74"/>
+      <c r="F17" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="66"/>
+      <c r="G17" s="74"/>
       <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
@@ -7240,18 +8946,18 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="63" t="s">
+      <c r="O17" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="63" t="s">
+      <c r="P17" s="73"/>
+      <c r="Q17" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="65"/>
-      <c r="S17" s="63" t="s">
+      <c r="R17" s="73"/>
+      <c r="S17" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="65"/>
+      <c r="T17" s="73"/>
       <c r="U17" s="4" t="s">
         <v>25</v>
       </c>
@@ -7804,12 +9510,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="N16:U16"/>
@@ -7823,6 +9523,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7832,8 +9538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A507BC9-C877-4502-A460-22857A1A9D00}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:R5"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7845,79 +9551,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
       <c r="M2" s="25"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67" t="s">
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67" t="s">
+      <c r="R2" s="75"/>
+      <c r="S2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67" t="s">
+      <c r="T2" s="75"/>
+      <c r="U2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="68" t="s">
+      <c r="V2" s="75"/>
+      <c r="W2" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -8628,82 +10334,82 @@
       <c r="Y17" s="25"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67" t="s">
+      <c r="E19" s="75"/>
+      <c r="F19" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67" t="s">
+      <c r="G19" s="75"/>
+      <c r="H19" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68" t="s">
+      <c r="I19" s="75"/>
+      <c r="J19" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
       <c r="M19" s="25"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="67" t="s">
+      <c r="O19" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67" t="s">
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67" t="s">
+      <c r="R19" s="75"/>
+      <c r="S19" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67" t="s">
+      <c r="T19" s="75"/>
+      <c r="U19" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67" t="s">
+      <c r="V19" s="75"/>
+      <c r="W19" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -9241,15 +10947,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="U2:V2"/>
@@ -9265,6 +10962,15 @@
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13568,53 +15274,53 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E87A03-7511-4C2E-B4E0-ED136DA0DD22}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54:Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="76" t="s">
+      <c r="E2" s="83"/>
+      <c r="F2" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="59" t="s">
+      <c r="G2" s="83"/>
+      <c r="H2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>116</v>
       </c>
@@ -13649,7 +15355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>111</v>
       </c>
@@ -13672,7 +15378,7 @@
         <v>0.09</v>
       </c>
       <c r="H4" s="10">
-        <v>1460</v>
+        <v>1469</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>124</v>
@@ -13680,7 +15386,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>103</v>
       </c>
@@ -13707,7 +15413,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -13734,7 +15440,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
@@ -13760,8 +15466,19 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O7" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" s="97"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -13787,8 +15504,21 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O8" s="95"/>
+      <c r="P8" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -13814,8 +15544,21 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O9" s="95"/>
+      <c r="P9" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="R9" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
@@ -13841,8 +15584,23 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O10" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="S10" s="101" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -13872,8 +15630,23 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O11" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="R11" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="S11" s="99" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
@@ -13899,8 +15672,23 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O12" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="R12" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" s="99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -13926,8 +15714,23 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O13" s="100" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" s="99" t="s">
+        <v>193</v>
+      </c>
+      <c r="R13" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="S13" s="99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
@@ -13953,17 +15756,65 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O14" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="99" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="R14" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="S14" s="99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="24">
+        <v>-0.06</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.38</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="24">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="O15" s="100" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="99" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q15" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="R15" s="99" t="s">
+        <v>198</v>
+      </c>
+      <c r="S15" s="99" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -13971,8 +15822,23 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O16" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="R16" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="S16" s="99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -13980,40 +15846,85 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+      <c r="O17" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="R17" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="S17" s="99" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="O18" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q18" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="R18" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="S18" s="99" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="76" t="s">
+      <c r="C19" s="83"/>
+      <c r="D19" s="81" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="76" t="s">
+      <c r="E19" s="83"/>
+      <c r="F19" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="59" t="s">
+      <c r="G19" s="83"/>
+      <c r="H19" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+      <c r="O19" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="99" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q19" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="R19" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="S19" s="99" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>116</v>
       </c>
@@ -14047,8 +15958,23 @@
       <c r="K20" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O20" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" s="99" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q20" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="R20" s="99" t="s">
+        <v>218</v>
+      </c>
+      <c r="S20" s="99" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
@@ -14078,8 +16004,23 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="O21" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="R21" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="S21" s="99" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>103</v>
       </c>
@@ -14106,7 +16047,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
@@ -14141,7 +16082,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>105</v>
       </c>
@@ -14168,7 +16109,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -14195,7 +16136,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -14222,7 +16163,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -14249,7 +16190,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>112</v>
       </c>
@@ -14280,7 +16221,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -14307,7 +16248,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>109</v>
       </c>
@@ -14334,7 +16275,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>110</v>
       </c>
@@ -14361,56 +16302,83 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="24">
+        <v>-0.09</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.23</v>
+      </c>
+      <c r="D32" s="24">
+        <v>-0.18</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="F32" s="24">
+        <v>0.09</v>
+      </c>
+      <c r="G32" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
     <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="70" t="s">
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="71"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="79"/>
     </row>
     <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="73"/>
-      <c r="B36" s="70" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="70" t="s">
+      <c r="C36" s="79"/>
+      <c r="D36" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="71"/>
-      <c r="F36" s="70" t="s">
+      <c r="E36" s="79"/>
+      <c r="F36" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="70" t="s">
+      <c r="G36" s="79"/>
+      <c r="H36" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="71"/>
-      <c r="J36" s="70" t="s">
+      <c r="I36" s="79"/>
+      <c r="J36" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="70" t="s">
+      <c r="K36" s="79"/>
+      <c r="L36" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="M36" s="71"/>
+      <c r="M36" s="79"/>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="49" t="s">
         <v>10</v>
       </c>
@@ -14452,10 +16420,10 @@
       <c r="A38" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="59">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="49">
@@ -14464,16 +16432,16 @@
       <c r="E38" s="49">
         <v>0.19</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="60">
         <v>0.09</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="60">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="H38" s="53">
+      <c r="H38" s="59">
         <v>0.24</v>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="59">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="J38" s="49">
@@ -14482,10 +16450,10 @@
       <c r="K38" s="49">
         <v>0.24</v>
       </c>
-      <c r="L38" s="50">
+      <c r="L38" s="61">
         <v>0.05</v>
       </c>
-      <c r="M38" s="48">
+      <c r="M38" s="60">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -14558,16 +16526,16 @@
       <c r="I40" s="53">
         <v>0.03</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="59">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K40" s="53">
+      <c r="K40" s="59">
         <v>0.04</v>
       </c>
-      <c r="L40" s="50">
+      <c r="L40" s="61">
         <v>0.03</v>
       </c>
-      <c r="M40" s="48">
+      <c r="M40" s="60">
         <v>0.04</v>
       </c>
     </row>
@@ -14739,10 +16707,10 @@
       <c r="A45" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="53">
+      <c r="B45" s="59">
         <v>-0.24</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="59">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D45" s="49">
@@ -14751,16 +16719,16 @@
       <c r="E45" s="49">
         <v>0.73</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="61">
         <v>0.05</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="60">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H45" s="53">
+      <c r="H45" s="59">
         <v>-0.23</v>
       </c>
-      <c r="I45" s="53">
+      <c r="I45" s="59">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="J45" s="49">
@@ -14769,10 +16737,10 @@
       <c r="K45" s="49">
         <v>0.38</v>
       </c>
-      <c r="L45" s="50">
+      <c r="L45" s="61">
         <v>0.04</v>
       </c>
-      <c r="M45" s="48">
+      <c r="M45" s="60">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -14899,26 +16867,784 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
+    <row r="49" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="C49" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="D49" s="49">
+        <v>0.03</v>
+      </c>
+      <c r="E49" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="F49" s="49">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="G49" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="I49" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="J49" s="49">
+        <v>-0.18</v>
+      </c>
+      <c r="K49" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="L49" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="M49" s="49">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="92"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="M50" s="94"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="78" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" s="80"/>
+      <c r="J53" s="80"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="79"/>
+      <c r="O53" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="P53" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q53" s="106"/>
+      <c r="R53" s="107"/>
+    </row>
+    <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="85"/>
+      <c r="B54" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="79"/>
+      <c r="D54" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="79"/>
+      <c r="F54" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" s="79"/>
+      <c r="H54" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="79"/>
+      <c r="J54" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="K54" s="79"/>
+      <c r="L54" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="M54" s="79"/>
+      <c r="O54" s="87"/>
+      <c r="P54" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q54" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="R54" s="84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A55" s="86"/>
+      <c r="B55" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="M55" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="O55" s="87"/>
+      <c r="P55" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q55" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="R55" s="86"/>
+      <c r="S55" s="64"/>
+    </row>
+    <row r="56" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="53">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="E56" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="F56" s="48">
+        <v>0.09</v>
+      </c>
+      <c r="G56" s="48">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="H56" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="I56" s="53">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J56" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="K56" s="49">
+        <v>0.24</v>
+      </c>
+      <c r="L56" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="M56" s="48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O56" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="P56" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q56" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="R56" s="63">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="S56" s="64"/>
+    </row>
+    <row r="57" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="C57" s="49">
+        <v>0.17</v>
+      </c>
+      <c r="D57" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="E57" s="49">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F57" s="51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G57" s="52">
+        <v>0.34</v>
+      </c>
+      <c r="H57" s="49">
+        <v>-0.05</v>
+      </c>
+      <c r="I57" s="49">
+        <v>0.47</v>
+      </c>
+      <c r="J57" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="K57" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="L57" s="51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M57" s="52">
+        <v>0.43</v>
+      </c>
+      <c r="O57" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="P57" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q57" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="R57" s="63">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="49">
+        <v>0.98</v>
+      </c>
+      <c r="C58" s="49">
+        <v>0.16</v>
+      </c>
+      <c r="D58" s="49">
+        <v>-0.01</v>
+      </c>
+      <c r="E58" s="49">
+        <v>0.87</v>
+      </c>
+      <c r="F58" s="51">
+        <v>1E-3</v>
+      </c>
+      <c r="G58" s="52">
+        <v>0.38</v>
+      </c>
+      <c r="H58" s="53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I58" s="53">
+        <v>0.03</v>
+      </c>
+      <c r="J58" s="53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K58" s="53">
+        <v>0.04</v>
+      </c>
+      <c r="L58" s="50">
+        <v>0.03</v>
+      </c>
+      <c r="M58" s="48">
+        <v>0.04</v>
+      </c>
+      <c r="O58" s="104"/>
+      <c r="P58" s="105" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q58" s="106"/>
+      <c r="R58" s="107"/>
+    </row>
+    <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="49">
+        <v>-0.02</v>
+      </c>
+      <c r="C59" s="49">
+        <v>0.82</v>
+      </c>
+      <c r="D59" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="E59" s="49">
+        <v>0.81</v>
+      </c>
+      <c r="F59" s="51">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G59" s="52">
+        <v>0.71</v>
+      </c>
+      <c r="H59" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="I59" s="49">
+        <v>0.78</v>
+      </c>
+      <c r="J59" s="49">
+        <v>-0.05</v>
+      </c>
+      <c r="K59" s="49">
+        <v>0.49</v>
+      </c>
+      <c r="L59" s="51">
+        <v>-0.01</v>
+      </c>
+      <c r="M59" s="52">
+        <v>0.92</v>
+      </c>
+      <c r="O59" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="P59" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q59" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="R59" s="63">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="C60" s="49">
+        <v>0.24</v>
+      </c>
+      <c r="D60" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="E60" s="49">
+        <v>0.21</v>
+      </c>
+      <c r="F60" s="51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G60" s="52">
+        <v>0.34</v>
+      </c>
+      <c r="H60" s="49">
+        <v>-0.18</v>
+      </c>
+      <c r="I60" s="49">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J60" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="K60" s="49">
+        <v>0.71</v>
+      </c>
+      <c r="L60" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="M60" s="52">
+        <v>0.11</v>
+      </c>
+      <c r="O60" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="P60" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q60" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="R60" s="63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="49">
+        <v>-0.13</v>
+      </c>
+      <c r="C61" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="D61" s="49">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="E61" s="49">
+        <v>0.86</v>
+      </c>
+      <c r="F61" s="51">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G61" s="52">
+        <v>0.26</v>
+      </c>
+      <c r="H61" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="I61" s="49">
+        <v>0.39</v>
+      </c>
+      <c r="J61" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="K61" s="49">
+        <v>0.82</v>
+      </c>
+      <c r="L61" s="51">
+        <v>-0.01</v>
+      </c>
+      <c r="M61" s="52">
+        <v>0.88</v>
+      </c>
+      <c r="O61" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="P61" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q61" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="R61" s="63">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="C62" s="49">
+        <v>0.16</v>
+      </c>
+      <c r="D62" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="E62" s="49">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F62" s="51">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G62" s="52">
+        <v>0.34</v>
+      </c>
+      <c r="H62" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="I62" s="49">
+        <v>0.62</v>
+      </c>
+      <c r="J62" s="49">
+        <v>-0.04</v>
+      </c>
+      <c r="K62" s="49">
+        <v>0.61</v>
+      </c>
+      <c r="L62" s="51">
+        <v>-0.01</v>
+      </c>
+      <c r="M62" s="52">
+        <v>0.92</v>
+      </c>
+      <c r="O62" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="P62" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q62" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="R62" s="63">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="53">
+        <v>-0.24</v>
+      </c>
+      <c r="C63" s="53">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D63" s="49">
+        <v>0.02</v>
+      </c>
+      <c r="E63" s="49">
+        <v>0.73</v>
+      </c>
+      <c r="F63" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="G63" s="48">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H63" s="53">
+        <v>-0.23</v>
+      </c>
+      <c r="I63" s="53">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J63" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="K63" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="L63" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="M63" s="48">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="C64" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="D64" s="49">
+        <v>-0.03</v>
+      </c>
+      <c r="E64" s="49">
+        <v>0.64</v>
+      </c>
+      <c r="F64" s="51">
+        <v>-6.0000000000000002E-5</v>
+      </c>
+      <c r="G64" s="52">
+        <v>0.44</v>
+      </c>
+      <c r="H64" s="49">
+        <v>-0.13</v>
+      </c>
+      <c r="I64" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="J64" s="49">
+        <v>-0.01</v>
+      </c>
+      <c r="K64" s="49">
+        <v>0.88</v>
+      </c>
+      <c r="L64" s="51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M64" s="52">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="C65" s="49">
+        <v>0.17</v>
+      </c>
+      <c r="D65" s="49">
+        <v>-0.11</v>
+      </c>
+      <c r="E65" s="49">
+        <v>0.12</v>
+      </c>
+      <c r="F65" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="G65" s="52">
+        <v>0.21</v>
+      </c>
+      <c r="H65" s="49">
+        <v>-0.11</v>
+      </c>
+      <c r="I65" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="J65" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="K65" s="49">
+        <v>0.47</v>
+      </c>
+      <c r="L65" s="51">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M65" s="52">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="49">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="C66" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="D66" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="E66" s="49">
+        <v>0.19</v>
+      </c>
+      <c r="F66" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="G66" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="H66" s="49">
+        <v>-0.12</v>
+      </c>
+      <c r="I66" s="49">
+        <v>0.09</v>
+      </c>
+      <c r="J66" s="49">
+        <v>-0.08</v>
+      </c>
+      <c r="K66" s="49">
+        <v>0.26</v>
+      </c>
+      <c r="L66" s="49">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M66" s="52">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="49">
+        <v>-0.06</v>
+      </c>
+      <c r="C67" s="49">
+        <v>0.38</v>
+      </c>
+      <c r="D67" s="49">
+        <v>0.03</v>
+      </c>
+      <c r="E67" s="49">
+        <v>0.65</v>
+      </c>
+      <c r="F67" s="49">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="G67" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="H67" s="49">
+        <v>-0.09</v>
+      </c>
+      <c r="I67" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="J67" s="49">
+        <v>-0.18</v>
+      </c>
+      <c r="K67" s="49">
+        <v>0.04</v>
+      </c>
+      <c r="L67" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="M67" s="49">
+        <v>0.09</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="35">
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:G53"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
@@ -14935,9 +17661,6 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Resultados/resultados regresiones.xlsx
+++ b/Resultados/resultados regresiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f3ba38939858e1d/Desktop/Apps/R Studio/Analisis articulo/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1911" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE36F905-66C4-4F80-B912-D659A842E7F6}"/>
+  <xr:revisionPtr revIDLastSave="1972" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88931E3B-9ADA-477D-80FB-98EAE8885F06}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="617" firstSheet="3" activeTab="9" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="617" firstSheet="3" activeTab="8" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMPLES" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="225">
   <si>
     <t>EDAD</t>
   </si>
@@ -971,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1141,6 +1141,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1174,6 +1186,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,6 +1211,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1192,18 +1225,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1213,53 +1234,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1595,29 +1570,29 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="74"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="M1" s="67" t="s">
+      <c r="K1" s="74"/>
+      <c r="M1" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="69"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2016,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D41627-2355-4EEA-A2CD-D2B21314CEDD}">
-  <dimension ref="A1:R129"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O83" sqref="O83:R91"/>
+    <sheetView topLeftCell="F64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V76" sqref="V76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2029,39 +2004,42 @@
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.88671875" customWidth="1"/>
+    <col min="22" max="22" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="67" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -2435,36 +2413,36 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="81" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="81" t="s">
+      <c r="E19" s="94"/>
+      <c r="F19" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="67" t="s">
+      <c r="G19" s="94"/>
+      <c r="H19" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -2811,36 +2789,36 @@
       <c r="K31" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="73"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="77"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="81" t="s">
+      <c r="C36" s="94"/>
+      <c r="D36" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="81" t="s">
+      <c r="E36" s="94"/>
+      <c r="F36" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="67" t="s">
+      <c r="G36" s="94"/>
+      <c r="H36" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="73"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
@@ -3218,36 +3196,36 @@
       <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="83"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="94"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
-      <c r="B53" s="81" t="s">
+      <c r="B53" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="81" t="s">
+      <c r="C53" s="94"/>
+      <c r="D53" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="83"/>
-      <c r="F53" s="81" t="s">
+      <c r="E53" s="94"/>
+      <c r="F53" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G53" s="83"/>
-      <c r="H53" s="67" t="s">
+      <c r="G53" s="94"/>
+      <c r="H53" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="69"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="73"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
@@ -3562,7 +3540,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="46" t="s">
         <v>113</v>
       </c>
@@ -3589,74 +3567,88 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="69" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="87" t="s">
+    <row r="69" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="88" t="s">
+      <c r="B69" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="88" t="s">
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="90"/>
-      <c r="O69" s="87" t="s">
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="97"/>
+      <c r="O69" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="P69" s="105" t="s">
+      <c r="P69" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="Q69" s="106"/>
-      <c r="R69" s="107"/>
-    </row>
-    <row r="70" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="87"/>
-      <c r="B70" s="78" t="s">
+      <c r="Q69" s="86"/>
+      <c r="R69" s="87"/>
+      <c r="T69" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="79"/>
-      <c r="D70" s="78" t="s">
+      <c r="U69" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="V69" s="82"/>
+    </row>
+    <row r="70" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="82"/>
+      <c r="B70" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="89"/>
+      <c r="D70" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="79"/>
-      <c r="F70" s="78" t="s">
+      <c r="E70" s="89"/>
+      <c r="F70" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="G70" s="79"/>
-      <c r="H70" s="78" t="s">
+      <c r="G70" s="89"/>
+      <c r="H70" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I70" s="79"/>
-      <c r="J70" s="78" t="s">
+      <c r="I70" s="89"/>
+      <c r="J70" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="K70" s="79"/>
-      <c r="L70" s="78" t="s">
+      <c r="K70" s="89"/>
+      <c r="L70" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M70" s="79"/>
-      <c r="O70" s="87"/>
+      <c r="M70" s="89"/>
+      <c r="O70" s="82"/>
       <c r="P70" s="49" t="s">
         <v>223</v>
       </c>
       <c r="Q70" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="R70" s="84" t="s">
+      <c r="R70" s="83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A71" s="87"/>
+      <c r="T70" s="82"/>
+      <c r="U70" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="V70" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A71" s="82"/>
       <c r="B71" s="49" t="s">
         <v>10</v>
       </c>
@@ -3693,16 +3685,23 @@
       <c r="M71" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O71" s="87"/>
+      <c r="O71" s="82"/>
       <c r="P71" s="49" t="s">
         <v>137</v>
       </c>
       <c r="Q71" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="R71" s="86"/>
-    </row>
-    <row r="72" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R71" s="84"/>
+      <c r="T71" s="82"/>
+      <c r="U71" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="V71" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="54" t="s">
         <v>127</v>
       </c>
@@ -3754,8 +3753,17 @@
       <c r="R72" s="63">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T72" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="U72" s="65">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V72" s="65">
+        <v>2.9999999999999999E-7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="54" t="s">
         <v>104</v>
       </c>
@@ -3807,8 +3815,17 @@
       <c r="R73" s="63">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T73" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="U73" s="65">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V73" s="65">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="54" t="s">
         <v>105</v>
       </c>
@@ -3848,14 +3865,14 @@
       <c r="M74" s="60">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="O74" s="104"/>
-      <c r="P74" s="105" t="s">
+      <c r="O74" s="70"/>
+      <c r="P74" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="Q74" s="106"/>
-      <c r="R74" s="107"/>
-    </row>
-    <row r="75" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q74" s="86"/>
+      <c r="R74" s="87"/>
+    </row>
+    <row r="75" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="54" t="s">
         <v>102</v>
       </c>
@@ -3908,7 +3925,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="54" t="s">
         <v>106</v>
       </c>
@@ -3961,7 +3978,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="54" t="s">
         <v>107</v>
       </c>
@@ -4014,7 +4031,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="54" t="s">
         <v>112</v>
       </c>
@@ -4067,7 +4084,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="54" t="s">
         <v>108</v>
       </c>
@@ -4108,7 +4125,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="54" t="s">
         <v>109</v>
       </c>
@@ -4149,7 +4166,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="54" t="s">
         <v>110</v>
       </c>
@@ -4193,7 +4210,7 @@
       <c r="Q81" s="64"/>
       <c r="R81" s="64"/>
     </row>
-    <row r="82" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="55" t="s">
         <v>113</v>
       </c>
@@ -4237,83 +4254,104 @@
       <c r="Q82" s="64"/>
       <c r="R82" s="64"/>
     </row>
-    <row r="83" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="O83" s="84" t="s">
+    <row r="83" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O83" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="P83" s="105" t="s">
+      <c r="P83" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="Q83" s="106"/>
-      <c r="R83" s="107"/>
-    </row>
-    <row r="84" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="O84" s="85"/>
+      <c r="Q83" s="86"/>
+      <c r="R83" s="87"/>
+      <c r="T83" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="U83" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="V83" s="82"/>
+    </row>
+    <row r="84" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O84" s="91"/>
       <c r="P84" s="49" t="s">
         <v>223</v>
       </c>
       <c r="Q84" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="R84" s="84" t="s">
+      <c r="R84" s="83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="87" t="s">
+      <c r="T84" s="82"/>
+      <c r="U84" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="V84" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B85" s="88" t="s">
+      <c r="B85" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="89"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="89"/>
-      <c r="F85" s="89"/>
-      <c r="G85" s="90"/>
-      <c r="H85" s="88" t="s">
+      <c r="C85" s="96"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="96"/>
+      <c r="F85" s="96"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="I85" s="89"/>
-      <c r="J85" s="89"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="89"/>
-      <c r="M85" s="90"/>
-      <c r="O85" s="86"/>
+      <c r="I85" s="96"/>
+      <c r="J85" s="96"/>
+      <c r="K85" s="96"/>
+      <c r="L85" s="96"/>
+      <c r="M85" s="97"/>
+      <c r="O85" s="84"/>
       <c r="P85" s="49" t="s">
         <v>137</v>
       </c>
       <c r="Q85" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="R85" s="86"/>
-    </row>
-    <row r="86" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="87"/>
-      <c r="B86" s="78" t="s">
+      <c r="R85" s="84"/>
+      <c r="T85" s="82"/>
+      <c r="U85" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="V85" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="82"/>
+      <c r="B86" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="79"/>
-      <c r="D86" s="78" t="s">
+      <c r="C86" s="89"/>
+      <c r="D86" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="E86" s="79"/>
-      <c r="F86" s="78" t="s">
+      <c r="E86" s="89"/>
+      <c r="F86" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="G86" s="79"/>
-      <c r="H86" s="78" t="s">
+      <c r="G86" s="89"/>
+      <c r="H86" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I86" s="79"/>
-      <c r="J86" s="78" t="s">
+      <c r="I86" s="89"/>
+      <c r="J86" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="K86" s="79"/>
-      <c r="L86" s="78" t="s">
+      <c r="K86" s="89"/>
+      <c r="L86" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M86" s="79"/>
+      <c r="M86" s="89"/>
       <c r="O86" s="54" t="s">
         <v>127</v>
       </c>
@@ -4326,9 +4364,18 @@
       <c r="R86" s="63">
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A87" s="87"/>
+      <c r="T86" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="U86" s="98">
+        <v>0.09</v>
+      </c>
+      <c r="V86" s="98">
+        <v>3.0000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="A87" s="82"/>
       <c r="B87" s="49" t="s">
         <v>10</v>
       </c>
@@ -4377,8 +4424,13 @@
       <c r="R87" s="63">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T87" s="70"/>
+      <c r="U87" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="V87" s="82"/>
+    </row>
+    <row r="88" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="54" t="s">
         <v>127</v>
       </c>
@@ -4430,8 +4482,17 @@
       <c r="R88" s="63">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T88" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="U88" s="65">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V88" s="65">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="54" t="s">
         <v>104</v>
       </c>
@@ -4471,14 +4532,23 @@
       <c r="M89" s="48">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="O89" s="104"/>
-      <c r="P89" s="105" t="s">
+      <c r="O89" s="70"/>
+      <c r="P89" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="Q89" s="106"/>
-      <c r="R89" s="107"/>
-    </row>
-    <row r="90" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q89" s="86"/>
+      <c r="R89" s="87"/>
+      <c r="T89" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="U89" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="V89" s="65">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="54" t="s">
         <v>105</v>
       </c>
@@ -4531,7 +4601,7 @@
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="54" t="s">
         <v>102</v>
       </c>
@@ -4584,7 +4654,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="54" t="s">
         <v>106</v>
       </c>
@@ -4625,7 +4695,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="54" t="s">
         <v>107</v>
       </c>
@@ -4666,7 +4736,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="54" t="s">
         <v>112</v>
       </c>
@@ -4707,7 +4777,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="54" t="s">
         <v>108</v>
       </c>
@@ -4748,7 +4818,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="54" t="s">
         <v>109</v>
       </c>
@@ -4887,55 +4957,55 @@
       <c r="M99" s="57"/>
     </row>
     <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="87" t="s">
+      <c r="A100" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B100" s="78" t="s">
+      <c r="B100" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="80"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="79"/>
-      <c r="H100" s="78" t="s">
+      <c r="C100" s="90"/>
+      <c r="D100" s="90"/>
+      <c r="E100" s="90"/>
+      <c r="F100" s="90"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="I100" s="80"/>
-      <c r="J100" s="80"/>
-      <c r="K100" s="80"/>
-      <c r="L100" s="80"/>
-      <c r="M100" s="79"/>
+      <c r="I100" s="90"/>
+      <c r="J100" s="90"/>
+      <c r="K100" s="90"/>
+      <c r="L100" s="90"/>
+      <c r="M100" s="89"/>
     </row>
     <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="87"/>
-      <c r="B101" s="78" t="s">
+      <c r="A101" s="82"/>
+      <c r="B101" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C101" s="79"/>
-      <c r="D101" s="78" t="s">
+      <c r="C101" s="89"/>
+      <c r="D101" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="E101" s="79"/>
-      <c r="F101" s="78" t="s">
+      <c r="E101" s="89"/>
+      <c r="F101" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="G101" s="79"/>
-      <c r="H101" s="78" t="s">
+      <c r="G101" s="89"/>
+      <c r="H101" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I101" s="79"/>
-      <c r="J101" s="78" t="s">
+      <c r="I101" s="89"/>
+      <c r="J101" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="K101" s="79"/>
-      <c r="L101" s="78" t="s">
+      <c r="K101" s="89"/>
+      <c r="L101" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M101" s="79"/>
+      <c r="M101" s="89"/>
     </row>
     <row r="102" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A102" s="87"/>
+      <c r="A102" s="82"/>
       <c r="B102" s="49" t="s">
         <v>10</v>
       </c>
@@ -5455,55 +5525,55 @@
       <c r="M115" s="57"/>
     </row>
     <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="87" t="s">
+      <c r="A116" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="78" t="s">
+      <c r="B116" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C116" s="80"/>
-      <c r="D116" s="80"/>
-      <c r="E116" s="80"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="79"/>
-      <c r="H116" s="78" t="s">
+      <c r="C116" s="90"/>
+      <c r="D116" s="90"/>
+      <c r="E116" s="90"/>
+      <c r="F116" s="90"/>
+      <c r="G116" s="89"/>
+      <c r="H116" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="I116" s="80"/>
-      <c r="J116" s="80"/>
-      <c r="K116" s="80"/>
-      <c r="L116" s="80"/>
-      <c r="M116" s="79"/>
+      <c r="I116" s="90"/>
+      <c r="J116" s="90"/>
+      <c r="K116" s="90"/>
+      <c r="L116" s="90"/>
+      <c r="M116" s="89"/>
     </row>
     <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="87"/>
-      <c r="B117" s="78" t="s">
+      <c r="A117" s="82"/>
+      <c r="B117" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="79"/>
-      <c r="D117" s="78" t="s">
+      <c r="C117" s="89"/>
+      <c r="D117" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="79"/>
-      <c r="F117" s="78" t="s">
+      <c r="E117" s="89"/>
+      <c r="F117" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="G117" s="79"/>
-      <c r="H117" s="78" t="s">
+      <c r="G117" s="89"/>
+      <c r="H117" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I117" s="79"/>
-      <c r="J117" s="78" t="s">
+      <c r="I117" s="89"/>
+      <c r="J117" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="K117" s="79"/>
-      <c r="L117" s="78" t="s">
+      <c r="K117" s="89"/>
+      <c r="L117" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M117" s="79"/>
+      <c r="M117" s="89"/>
     </row>
     <row r="118" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A118" s="87"/>
+      <c r="A118" s="82"/>
       <c r="B118" s="49" t="s">
         <v>10</v>
       </c>
@@ -5993,57 +6063,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="O83:O85"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L117:M117"/>
-    <mergeCell ref="H85:M85"/>
-    <mergeCell ref="H116:M116"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="H100:M100"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M101"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="69">
+    <mergeCell ref="U87:V87"/>
+    <mergeCell ref="T69:T71"/>
+    <mergeCell ref="U69:V69"/>
+    <mergeCell ref="T83:T85"/>
+    <mergeCell ref="U83:V83"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="H36:K36"/>
@@ -6058,6 +6083,56 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="H85:M85"/>
+    <mergeCell ref="H116:M116"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="H100:M100"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="O83:O85"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="R70:R71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6093,27 +6168,27 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70" t="s">
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -6679,48 +6754,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="70"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -7113,48 +7188,48 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="67" t="s">
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="69"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74" t="s">
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="74"/>
+      <c r="G18" s="78"/>
       <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="70" t="s">
+      <c r="I18" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70" t="s">
+      <c r="J18" s="74"/>
+      <c r="K18" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="70"/>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -7556,12 +7631,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I17:L17"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -7570,6 +7639,12 @@
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7590,38 +7665,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -7873,38 +7948,38 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77" t="s">
+      <c r="C19" s="81"/>
+      <c r="D19" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77" t="s">
+      <c r="E19" s="81"/>
+      <c r="F19" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="76" t="s">
+      <c r="G19" s="81"/>
+      <c r="H19" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -8197,73 +8272,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="67" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="69"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="73"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="73"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="77"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="74"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="70"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="9"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="71" t="s">
+      <c r="P2" s="77"/>
+      <c r="Q2" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="73"/>
-      <c r="S2" s="71" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="73"/>
+      <c r="T2" s="77"/>
       <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
@@ -8897,46 +8972,46 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="73"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="77"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74" t="s">
+      <c r="E17" s="78"/>
+      <c r="F17" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="74"/>
+      <c r="G17" s="78"/>
       <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
@@ -8946,18 +9021,18 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="71" t="s">
+      <c r="P17" s="77"/>
+      <c r="Q17" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="73"/>
-      <c r="S17" s="71" t="s">
+      <c r="R17" s="77"/>
+      <c r="S17" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="73"/>
+      <c r="T17" s="77"/>
       <c r="U17" s="4" t="s">
         <v>25</v>
       </c>
@@ -9510,6 +9585,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="N16:U16"/>
@@ -9523,12 +9604,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9551,79 +9626,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="25"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75" t="s">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75" t="s">
+      <c r="T2" s="79"/>
+      <c r="U2" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="75"/>
-      <c r="W2" s="76" t="s">
+      <c r="V2" s="79"/>
+      <c r="W2" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -10334,82 +10409,82 @@
       <c r="Y17" s="25"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="75" t="s">
+      <c r="N18" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75" t="s">
+      <c r="C19" s="79"/>
+      <c r="D19" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75" t="s">
+      <c r="E19" s="79"/>
+      <c r="F19" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75" t="s">
+      <c r="G19" s="79"/>
+      <c r="H19" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76" t="s">
+      <c r="I19" s="79"/>
+      <c r="J19" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="25"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="75" t="s">
+      <c r="O19" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75" t="s">
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75" t="s">
+      <c r="R19" s="79"/>
+      <c r="S19" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="75"/>
-      <c r="U19" s="75" t="s">
+      <c r="T19" s="79"/>
+      <c r="U19" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="75"/>
-      <c r="W19" s="75" t="s">
+      <c r="V19" s="79"/>
+      <c r="W19" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="X19" s="75"/>
-      <c r="Y19" s="75"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -10947,6 +11022,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="W19:Y19"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="W2:Y2"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="U19:V19"/>
     <mergeCell ref="U2:V2"/>
@@ -10962,15 +11046,6 @@
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="S19:T19"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="W19:Y19"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15274,10 +15349,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E87A03-7511-4C2E-B4E0-ED136DA0DD22}">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54:Q54"/>
+    <sheetView tabSelected="1" topLeftCell="C51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15289,36 +15364,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="67" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -15466,17 +15541,17 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="O7" s="95" t="s">
+      <c r="O7" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="96" t="s">
+      <c r="P7" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="96" t="s">
+      <c r="Q7" s="89"/>
+      <c r="R7" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="S7" s="97"/>
+      <c r="S7" s="89"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -15504,17 +15579,17 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="98" t="s">
+      <c r="O8" s="82"/>
+      <c r="P8" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="Q8" s="98" t="s">
+      <c r="Q8" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="R8" s="98" t="s">
+      <c r="R8" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="S8" s="98" t="s">
+      <c r="S8" s="67" t="s">
         <v>136</v>
       </c>
     </row>
@@ -15544,17 +15619,17 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="99" t="s">
+      <c r="O9" s="82"/>
+      <c r="P9" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" s="99" t="s">
+      <c r="Q9" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="R9" s="99" t="s">
+      <c r="R9" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="99" t="s">
+      <c r="S9" s="49" t="s">
         <v>137</v>
       </c>
     </row>
@@ -15584,19 +15659,19 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="O10" s="100" t="s">
+      <c r="O10" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="P10" s="101" t="s">
+      <c r="P10" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="Q10" s="101" t="s">
+      <c r="Q10" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="R10" s="101" t="s">
+      <c r="R10" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="S10" s="101" t="s">
+      <c r="S10" s="53" t="s">
         <v>177</v>
       </c>
     </row>
@@ -15630,19 +15705,19 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="O11" s="100" t="s">
+      <c r="O11" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P11" s="99" t="s">
+      <c r="P11" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="Q11" s="99" t="s">
+      <c r="Q11" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="R11" s="99" t="s">
+      <c r="R11" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="S11" s="99" t="s">
+      <c r="S11" s="49" t="s">
         <v>184</v>
       </c>
     </row>
@@ -15672,19 +15747,19 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="O12" s="100" t="s">
+      <c r="O12" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="P12" s="99" t="s">
+      <c r="P12" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="Q12" s="99" t="s">
+      <c r="Q12" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="R12" s="99" t="s">
+      <c r="R12" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="S12" s="99" t="s">
+      <c r="S12" s="49" t="s">
         <v>188</v>
       </c>
     </row>
@@ -15714,19 +15789,19 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="O13" s="100" t="s">
+      <c r="O13" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="P13" s="99" t="s">
+      <c r="P13" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="Q13" s="99" t="s">
+      <c r="Q13" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="R13" s="99" t="s">
+      <c r="R13" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="S13" s="99" t="s">
+      <c r="S13" s="49" t="s">
         <v>192</v>
       </c>
     </row>
@@ -15756,24 +15831,24 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="O14" s="100" t="s">
+      <c r="O14" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="99" t="s">
+      <c r="P14" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="Q14" s="99" t="s">
+      <c r="Q14" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="R14" s="99" t="s">
+      <c r="R14" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="S14" s="99" t="s">
+      <c r="S14" s="49" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="68" t="s">
         <v>113</v>
       </c>
       <c r="B15" s="24">
@@ -15798,19 +15873,19 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="O15" s="100" t="s">
+      <c r="O15" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="P15" s="99" t="s">
+      <c r="P15" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="Q15" s="99" t="s">
+      <c r="Q15" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="R15" s="99" t="s">
+      <c r="R15" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="S15" s="99" t="s">
+      <c r="S15" s="49" t="s">
         <v>200</v>
       </c>
     </row>
@@ -15822,19 +15897,19 @@
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="O16" s="100" t="s">
+      <c r="O16" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="99" t="s">
+      <c r="P16" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="Q16" s="99" t="s">
+      <c r="Q16" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="R16" s="99" t="s">
+      <c r="R16" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="S16" s="99" t="s">
+      <c r="S16" s="49" t="s">
         <v>204</v>
       </c>
     </row>
@@ -15846,81 +15921,81 @@
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="O17" s="100" t="s">
+      <c r="O17" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="101" t="s">
+      <c r="P17" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="Q17" s="101" t="s">
+      <c r="Q17" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="99" t="s">
+      <c r="R17" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="S17" s="99" t="s">
+      <c r="S17" s="49" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="O18" s="100" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="O18" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="P18" s="99" t="s">
+      <c r="P18" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="Q18" s="99" t="s">
+      <c r="Q18" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="R18" s="99" t="s">
+      <c r="R18" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="S18" s="99" t="s">
+      <c r="S18" s="49" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="81" t="s">
+      <c r="C19" s="94"/>
+      <c r="D19" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="81" t="s">
+      <c r="E19" s="94"/>
+      <c r="F19" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="67" t="s">
+      <c r="G19" s="94"/>
+      <c r="H19" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
-      <c r="O19" s="100" t="s">
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
+      <c r="O19" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="P19" s="99" t="s">
+      <c r="P19" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="Q19" s="99" t="s">
+      <c r="Q19" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="R19" s="99" t="s">
+      <c r="R19" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="S19" s="99" t="s">
+      <c r="S19" s="49" t="s">
         <v>217</v>
       </c>
     </row>
@@ -15958,19 +16033,19 @@
       <c r="K20" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="100" t="s">
+      <c r="O20" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="P20" s="99" t="s">
+      <c r="P20" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="Q20" s="99" t="s">
+      <c r="Q20" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="R20" s="99" t="s">
+      <c r="R20" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="S20" s="99" t="s">
+      <c r="S20" s="49" t="s">
         <v>220</v>
       </c>
     </row>
@@ -16004,19 +16079,19 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="O21" s="102" t="s">
+      <c r="O21" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="99" t="s">
+      <c r="P21" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="Q21" s="99" t="s">
+      <c r="Q21" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="R21" s="99" t="s">
+      <c r="R21" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="S21" s="99" t="s">
+      <c r="S21" s="49" t="s">
         <v>208</v>
       </c>
     </row>
@@ -16303,7 +16378,7 @@
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="68" t="s">
         <v>113</v>
       </c>
       <c r="B32" s="24">
@@ -16330,55 +16405,55 @@
       <c r="K32" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="78" t="s">
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="79"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="89"/>
     </row>
     <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="85"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="78" t="s">
+      <c r="C36" s="89"/>
+      <c r="D36" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="78" t="s">
+      <c r="E36" s="89"/>
+      <c r="F36" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="79"/>
-      <c r="H36" s="78" t="s">
+      <c r="G36" s="89"/>
+      <c r="H36" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="78" t="s">
+      <c r="I36" s="89"/>
+      <c r="J36" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="K36" s="79"/>
-      <c r="L36" s="78" t="s">
+      <c r="K36" s="89"/>
+      <c r="L36" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M36" s="79"/>
+      <c r="M36" s="89"/>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="49" t="s">
         <v>10</v>
       </c>
@@ -16868,7 +16943,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="69" t="s">
         <v>113</v>
       </c>
       <c r="B49" s="49">
@@ -16909,17 +16984,17 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="92"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="M50" s="94"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="M50" s="47"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
@@ -16940,73 +17015,73 @@
       <c r="G52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="78" t="s">
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="79"/>
-      <c r="O53" s="87" t="s">
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="89"/>
+      <c r="O53" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="P53" s="105" t="s">
+      <c r="P53" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="Q53" s="106"/>
-      <c r="R53" s="107"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="87"/>
     </row>
     <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="85"/>
-      <c r="B54" s="78" t="s">
+      <c r="A54" s="91"/>
+      <c r="B54" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="78" t="s">
+      <c r="C54" s="89"/>
+      <c r="D54" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="79"/>
-      <c r="F54" s="78" t="s">
+      <c r="E54" s="89"/>
+      <c r="F54" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="79"/>
-      <c r="H54" s="78" t="s">
+      <c r="G54" s="89"/>
+      <c r="H54" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="I54" s="79"/>
-      <c r="J54" s="78" t="s">
+      <c r="I54" s="89"/>
+      <c r="J54" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="K54" s="79"/>
-      <c r="L54" s="78" t="s">
+      <c r="K54" s="89"/>
+      <c r="L54" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="M54" s="79"/>
-      <c r="O54" s="87"/>
+      <c r="M54" s="89"/>
+      <c r="O54" s="82"/>
       <c r="P54" s="49" t="s">
         <v>223</v>
       </c>
       <c r="Q54" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="R54" s="84" t="s">
+      <c r="R54" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A55" s="86"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="49" t="s">
         <v>10</v>
       </c>
@@ -17043,14 +17118,14 @@
       <c r="M55" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O55" s="87"/>
+      <c r="O55" s="82"/>
       <c r="P55" s="49" t="s">
         <v>137</v>
       </c>
       <c r="Q55" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="R55" s="86"/>
+      <c r="R55" s="84"/>
       <c r="S55" s="64"/>
     </row>
     <row r="56" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
@@ -17200,12 +17275,12 @@
       <c r="M58" s="48">
         <v>0.04</v>
       </c>
-      <c r="O58" s="104"/>
-      <c r="P58" s="105" t="s">
+      <c r="O58" s="70"/>
+      <c r="P58" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="Q58" s="106"/>
-      <c r="R58" s="107"/>
+      <c r="Q58" s="86"/>
+      <c r="R58" s="87"/>
     </row>
     <row r="59" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="54" t="s">
@@ -17501,7 +17576,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="54" t="s">
         <v>109</v>
       </c>
@@ -17541,8 +17616,15 @@
       <c r="M65" s="52">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O65" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="P65" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q65" s="82"/>
+    </row>
+    <row r="66" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="54" t="s">
         <v>110</v>
       </c>
@@ -17582,9 +17664,16 @@
       <c r="M66" s="52">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="103" t="s">
+      <c r="O66" s="82"/>
+      <c r="P66" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q66" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="69" t="s">
         <v>113</v>
       </c>
       <c r="B67" s="49">
@@ -17623,28 +17712,29 @@
       <c r="M67" s="49">
         <v>0.09</v>
       </c>
+      <c r="O67" s="82"/>
+      <c r="P67" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q67" s="49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="O68" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="Q68" s="65">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:G53"/>
+  <mergeCells count="37">
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="P65:Q65"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
@@ -17661,6 +17751,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Resultados/resultados regresiones.xlsx
+++ b/Resultados/resultados regresiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f3ba38939858e1d/Desktop/Apps/R Studio/Analisis articulo/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1972" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88931E3B-9ADA-477D-80FB-98EAE8885F06}"/>
+  <xr:revisionPtr revIDLastSave="2047" documentId="13_ncr:1_{92D13805-9BBE-4F41-8C85-8658F7E9C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E59064B7-2EF9-4E24-A1E6-C3411C5BDB37}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="617" firstSheet="3" activeTab="8" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="617" xr2:uid="{B182AF77-74A8-47E2-B10D-FE90D360CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="SIMPLES" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Coincidencia p" sheetId="9" r:id="rId8"/>
     <sheet name="Tablas ATTWM" sheetId="10" r:id="rId9"/>
     <sheet name="Tablas EDAD" sheetId="11" r:id="rId10"/>
-    <sheet name="ATTWM tablas" sheetId="12" r:id="rId11"/>
+    <sheet name="Abreviaturas" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">FDR!$D$1:$I$45</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="241">
   <si>
     <t>EDAD</t>
   </si>
@@ -737,6 +737,54 @@
   </si>
   <si>
     <t>HIGH GROUP</t>
+  </si>
+  <si>
+    <t>Working Memory Efficiency - Attend Faces</t>
+  </si>
+  <si>
+    <t>Working Memory Efficiency - Ignore Faces</t>
+  </si>
+  <si>
+    <t>Enhancement Index</t>
+  </si>
+  <si>
+    <t>Suppression Index</t>
+  </si>
+  <si>
+    <t>YS</t>
+  </si>
+  <si>
+    <t>S/usual</t>
+  </si>
+  <si>
+    <t>S/session</t>
+  </si>
+  <si>
+    <t>WME/AF</t>
+  </si>
+  <si>
+    <t>WME/IF</t>
+  </si>
+  <si>
+    <t>CogRes</t>
+  </si>
+  <si>
+    <t>Tanx</t>
+  </si>
+  <si>
+    <t>Sanx</t>
+  </si>
+  <si>
+    <t>Tdep</t>
+  </si>
+  <si>
+    <t>Sdep</t>
+  </si>
+  <si>
+    <t>CogFun</t>
+  </si>
+  <si>
+    <t>CryInt</t>
   </si>
 </sst>
 </file>
@@ -1153,6 +1201,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1186,9 +1235,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1204,16 +1250,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1234,7 +1283,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995A4F32-9176-4EB1-A6F9-B1313376491F}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1570,29 +1618,29 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="74"/>
+      <c r="E1" s="75"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="M1" s="71" t="s">
+      <c r="K1" s="75"/>
+      <c r="M1" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1993,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D41627-2355-4EEA-A2CD-D2B21314CEDD}">
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView topLeftCell="F64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V76" sqref="V76"/>
+    <sheetView topLeftCell="F66" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V79" sqref="V79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2010,36 +2058,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="92" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="92" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="71" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -2413,36 +2461,36 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="92" t="s">
+      <c r="C19" s="95"/>
+      <c r="D19" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="92" t="s">
+      <c r="E19" s="95"/>
+      <c r="F19" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="71" t="s">
+      <c r="G19" s="95"/>
+      <c r="H19" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -2789,36 +2837,36 @@
       <c r="K31" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="77"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="95"/>
+      <c r="D36" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="92" t="s">
+      <c r="E36" s="95"/>
+      <c r="F36" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="94"/>
-      <c r="H36" s="71" t="s">
+      <c r="G36" s="95"/>
+      <c r="H36" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="74"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
@@ -3196,36 +3244,36 @@
       <c r="G51" s="25"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="94"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="95"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="92" t="s">
+      <c r="C53" s="95"/>
+      <c r="D53" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="94"/>
-      <c r="F53" s="92" t="s">
+      <c r="E53" s="95"/>
+      <c r="F53" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="G53" s="94"/>
-      <c r="H53" s="71" t="s">
+      <c r="G53" s="95"/>
+      <c r="H53" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="74"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
@@ -3568,26 +3616,26 @@
       <c r="K65" s="4"/>
     </row>
     <row r="69" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="82" t="s">
+      <c r="A69" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="95" t="s">
+      <c r="B69" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="95" t="s">
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="97"/>
-      <c r="O69" s="82" t="s">
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="97"/>
+      <c r="M69" s="98"/>
+      <c r="O69" s="88" t="s">
         <v>116</v>
       </c>
       <c r="P69" s="85" t="s">
@@ -3595,41 +3643,41 @@
       </c>
       <c r="Q69" s="86"/>
       <c r="R69" s="87"/>
-      <c r="T69" s="82" t="s">
+      <c r="T69" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="U69" s="82" t="s">
+      <c r="U69" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="V69" s="82"/>
+      <c r="V69" s="88"/>
     </row>
     <row r="70" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="82"/>
-      <c r="B70" s="88" t="s">
+      <c r="A70" s="88"/>
+      <c r="B70" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="89"/>
-      <c r="D70" s="88" t="s">
+      <c r="C70" s="90"/>
+      <c r="D70" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="89"/>
-      <c r="F70" s="88" t="s">
+      <c r="E70" s="90"/>
+      <c r="F70" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G70" s="89"/>
-      <c r="H70" s="88" t="s">
+      <c r="G70" s="90"/>
+      <c r="H70" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="I70" s="89"/>
-      <c r="J70" s="88" t="s">
+      <c r="I70" s="90"/>
+      <c r="J70" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="K70" s="89"/>
-      <c r="L70" s="88" t="s">
+      <c r="K70" s="90"/>
+      <c r="L70" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="M70" s="89"/>
-      <c r="O70" s="82"/>
+      <c r="M70" s="90"/>
+      <c r="O70" s="88"/>
       <c r="P70" s="49" t="s">
         <v>223</v>
       </c>
@@ -3639,7 +3687,7 @@
       <c r="R70" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="T70" s="82"/>
+      <c r="T70" s="88"/>
       <c r="U70" s="49" t="s">
         <v>223</v>
       </c>
@@ -3648,7 +3696,7 @@
       </c>
     </row>
     <row r="71" spans="1:22" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A71" s="82"/>
+      <c r="A71" s="88"/>
       <c r="B71" s="49" t="s">
         <v>10</v>
       </c>
@@ -3685,7 +3733,7 @@
       <c r="M71" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O71" s="82"/>
+      <c r="O71" s="88"/>
       <c r="P71" s="49" t="s">
         <v>137</v>
       </c>
@@ -3693,7 +3741,7 @@
         <v>137</v>
       </c>
       <c r="R71" s="84"/>
-      <c r="T71" s="82"/>
+      <c r="T71" s="88"/>
       <c r="U71" s="49" t="s">
         <v>11</v>
       </c>
@@ -4263,13 +4311,13 @@
       </c>
       <c r="Q83" s="86"/>
       <c r="R83" s="87"/>
-      <c r="T83" s="82" t="s">
+      <c r="T83" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="U83" s="82" t="s">
+      <c r="U83" s="88" t="s">
         <v>170</v>
       </c>
-      <c r="V83" s="82"/>
+      <c r="V83" s="88"/>
     </row>
     <row r="84" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="O84" s="91"/>
@@ -4282,7 +4330,7 @@
       <c r="R84" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="T84" s="82"/>
+      <c r="T84" s="88"/>
       <c r="U84" s="49" t="s">
         <v>223</v>
       </c>
@@ -4291,25 +4339,25 @@
       </c>
     </row>
     <row r="85" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B85" s="95" t="s">
+      <c r="B85" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="96"/>
-      <c r="F85" s="96"/>
-      <c r="G85" s="97"/>
-      <c r="H85" s="95" t="s">
+      <c r="C85" s="97"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="I85" s="96"/>
-      <c r="J85" s="96"/>
-      <c r="K85" s="96"/>
-      <c r="L85" s="96"/>
-      <c r="M85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="98"/>
       <c r="O85" s="84"/>
       <c r="P85" s="49" t="s">
         <v>137</v>
@@ -4318,7 +4366,7 @@
         <v>137</v>
       </c>
       <c r="R85" s="84"/>
-      <c r="T85" s="82"/>
+      <c r="T85" s="88"/>
       <c r="U85" s="49" t="s">
         <v>11</v>
       </c>
@@ -4327,31 +4375,31 @@
       </c>
     </row>
     <row r="86" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="82"/>
-      <c r="B86" s="88" t="s">
+      <c r="A86" s="88"/>
+      <c r="B86" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="89"/>
-      <c r="D86" s="88" t="s">
+      <c r="C86" s="90"/>
+      <c r="D86" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="E86" s="89"/>
-      <c r="F86" s="88" t="s">
+      <c r="E86" s="90"/>
+      <c r="F86" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G86" s="89"/>
-      <c r="H86" s="88" t="s">
+      <c r="G86" s="90"/>
+      <c r="H86" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="I86" s="89"/>
-      <c r="J86" s="88" t="s">
+      <c r="I86" s="90"/>
+      <c r="J86" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="K86" s="89"/>
-      <c r="L86" s="88" t="s">
+      <c r="K86" s="90"/>
+      <c r="L86" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="M86" s="89"/>
+      <c r="M86" s="90"/>
       <c r="O86" s="54" t="s">
         <v>127</v>
       </c>
@@ -4367,15 +4415,15 @@
       <c r="T86" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="U86" s="98">
+      <c r="U86" s="71">
         <v>0.09</v>
       </c>
-      <c r="V86" s="98">
+      <c r="V86" s="71">
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
+      <c r="A87" s="88"/>
       <c r="B87" s="49" t="s">
         <v>10</v>
       </c>
@@ -4425,10 +4473,10 @@
         <v>0.03</v>
       </c>
       <c r="T87" s="70"/>
-      <c r="U87" s="82" t="s">
+      <c r="U87" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="V87" s="82"/>
+      <c r="V87" s="88"/>
     </row>
     <row r="88" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="54" t="s">
@@ -4957,55 +5005,55 @@
       <c r="M99" s="57"/>
     </row>
     <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="82" t="s">
+      <c r="A100" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B100" s="88" t="s">
+      <c r="B100" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C100" s="90"/>
-      <c r="D100" s="90"/>
-      <c r="E100" s="90"/>
-      <c r="F100" s="90"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="88" t="s">
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="90"/>
+      <c r="H100" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="I100" s="90"/>
-      <c r="J100" s="90"/>
-      <c r="K100" s="90"/>
-      <c r="L100" s="90"/>
-      <c r="M100" s="89"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="92"/>
+      <c r="K100" s="92"/>
+      <c r="L100" s="92"/>
+      <c r="M100" s="90"/>
     </row>
     <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
-      <c r="B101" s="88" t="s">
+      <c r="A101" s="88"/>
+      <c r="B101" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C101" s="89"/>
-      <c r="D101" s="88" t="s">
+      <c r="C101" s="90"/>
+      <c r="D101" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="E101" s="89"/>
-      <c r="F101" s="88" t="s">
+      <c r="E101" s="90"/>
+      <c r="F101" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G101" s="89"/>
-      <c r="H101" s="88" t="s">
+      <c r="G101" s="90"/>
+      <c r="H101" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="I101" s="89"/>
-      <c r="J101" s="88" t="s">
+      <c r="I101" s="90"/>
+      <c r="J101" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="K101" s="89"/>
-      <c r="L101" s="88" t="s">
+      <c r="K101" s="90"/>
+      <c r="L101" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="M101" s="89"/>
+      <c r="M101" s="90"/>
     </row>
     <row r="102" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A102" s="82"/>
+      <c r="A102" s="88"/>
       <c r="B102" s="49" t="s">
         <v>10</v>
       </c>
@@ -5525,55 +5573,55 @@
       <c r="M115" s="57"/>
     </row>
     <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="82" t="s">
+      <c r="A116" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="88" t="s">
+      <c r="B116" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C116" s="90"/>
-      <c r="D116" s="90"/>
-      <c r="E116" s="90"/>
-      <c r="F116" s="90"/>
-      <c r="G116" s="89"/>
-      <c r="H116" s="88" t="s">
+      <c r="C116" s="92"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="92"/>
+      <c r="F116" s="92"/>
+      <c r="G116" s="90"/>
+      <c r="H116" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="I116" s="90"/>
-      <c r="J116" s="90"/>
-      <c r="K116" s="90"/>
-      <c r="L116" s="90"/>
-      <c r="M116" s="89"/>
+      <c r="I116" s="92"/>
+      <c r="J116" s="92"/>
+      <c r="K116" s="92"/>
+      <c r="L116" s="92"/>
+      <c r="M116" s="90"/>
     </row>
     <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="82"/>
-      <c r="B117" s="88" t="s">
+      <c r="A117" s="88"/>
+      <c r="B117" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C117" s="89"/>
-      <c r="D117" s="88" t="s">
+      <c r="C117" s="90"/>
+      <c r="D117" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="89"/>
-      <c r="F117" s="88" t="s">
+      <c r="E117" s="90"/>
+      <c r="F117" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G117" s="89"/>
-      <c r="H117" s="88" t="s">
+      <c r="G117" s="90"/>
+      <c r="H117" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="I117" s="89"/>
-      <c r="J117" s="88" t="s">
+      <c r="I117" s="90"/>
+      <c r="J117" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="K117" s="89"/>
-      <c r="L117" s="88" t="s">
+      <c r="K117" s="90"/>
+      <c r="L117" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="M117" s="89"/>
+      <c r="M117" s="90"/>
     </row>
     <row r="118" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
-      <c r="A118" s="82"/>
+      <c r="A118" s="88"/>
       <c r="B118" s="49" t="s">
         <v>10</v>
       </c>
@@ -6140,14 +6188,132 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B21C07-17A6-486C-8DC7-AA2A699CCC3B}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C2" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C3" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C4" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6168,27 +6334,27 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -6754,48 +6920,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="71" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -7188,48 +7354,48 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="71" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78" t="s">
+      <c r="E18" s="79"/>
+      <c r="F18" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="78"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74" t="s">
+      <c r="J18" s="75"/>
+      <c r="K18" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="74"/>
+      <c r="L18" s="75"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -7654,7 +7820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7757F5-E467-43FB-943F-7BD7D5C7DE70}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F21" sqref="F21:F32"/>
     </sheetView>
   </sheetViews>
@@ -7665,38 +7831,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -7948,38 +8114,38 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81" t="s">
+      <c r="C19" s="82"/>
+      <c r="D19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81" t="s">
+      <c r="E19" s="82"/>
+      <c r="F19" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="80" t="s">
+      <c r="G19" s="82"/>
+      <c r="H19" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -8272,73 +8438,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="71" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="75" t="s">
+      <c r="N1" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="78"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74" t="s">
+      <c r="J2" s="75"/>
+      <c r="K2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="74"/>
+      <c r="L2" s="75"/>
       <c r="M2" s="9"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="75" t="s">
+      <c r="P2" s="78"/>
+      <c r="Q2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="75" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="77"/>
+      <c r="T2" s="78"/>
       <c r="U2" s="4" t="s">
         <v>25</v>
       </c>
@@ -8972,46 +9138,46 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="78"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="75" t="s">
+      <c r="N16" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="78"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78" t="s">
+      <c r="C17" s="79"/>
+      <c r="D17" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78" t="s">
+      <c r="E17" s="79"/>
+      <c r="F17" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="78"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="4" t="s">
         <v>25</v>
       </c>
@@ -9021,18 +9187,18 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="75" t="s">
+      <c r="O17" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="75" t="s">
+      <c r="P17" s="78"/>
+      <c r="Q17" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="77"/>
-      <c r="S17" s="75" t="s">
+      <c r="R17" s="78"/>
+      <c r="S17" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="T17" s="77"/>
+      <c r="T17" s="78"/>
       <c r="U17" s="4" t="s">
         <v>25</v>
       </c>
@@ -9626,79 +9792,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="78" t="s">
+      <c r="N1" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80" t="s">
+      <c r="I2" s="80"/>
+      <c r="J2" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
       <c r="M2" s="25"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="79" t="s">
+      <c r="O2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79" t="s">
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79" t="s">
+      <c r="T2" s="80"/>
+      <c r="U2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80" t="s">
+      <c r="V2" s="80"/>
+      <c r="W2" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
@@ -10409,82 +10575,82 @@
       <c r="Y17" s="25"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="79" t="s">
+      <c r="N18" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
       <c r="W18" s="25"/>
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79" t="s">
+      <c r="E19" s="80"/>
+      <c r="F19" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79" t="s">
+      <c r="G19" s="80"/>
+      <c r="H19" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80" t="s">
+      <c r="I19" s="80"/>
+      <c r="J19" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
       <c r="M19" s="25"/>
       <c r="N19" s="24"/>
-      <c r="O19" s="79" t="s">
+      <c r="O19" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79" t="s">
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79" t="s">
+      <c r="R19" s="80"/>
+      <c r="S19" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79" t="s">
+      <c r="T19" s="80"/>
+      <c r="U19" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79" t="s">
+      <c r="V19" s="80"/>
+      <c r="W19" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
@@ -15351,8 +15517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E87A03-7511-4C2E-B4E0-ED136DA0DD22}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71"/>
+    <sheetView topLeftCell="D46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15364,36 +15530,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="95"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="92" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="92" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="71" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -15541,17 +15707,17 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="O7" s="82" t="s">
+      <c r="O7" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="88" t="s">
+      <c r="P7" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="88" t="s">
+      <c r="Q7" s="90"/>
+      <c r="R7" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="S7" s="89"/>
+      <c r="S7" s="90"/>
     </row>
     <row r="8" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -15579,7 +15745,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="O8" s="82"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="67" t="s">
         <v>135</v>
       </c>
@@ -15619,7 +15785,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="O9" s="82"/>
+      <c r="O9" s="88"/>
       <c r="P9" s="49" t="s">
         <v>137</v>
       </c>
@@ -15938,15 +16104,15 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
       <c r="O18" s="54" t="s">
         <v>108</v>
       </c>
@@ -15965,24 +16131,24 @@
     </row>
     <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="92" t="s">
+      <c r="C19" s="95"/>
+      <c r="D19" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="92" t="s">
+      <c r="E19" s="95"/>
+      <c r="F19" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="71" t="s">
+      <c r="G19" s="95"/>
+      <c r="H19" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
       <c r="O19" s="54" t="s">
         <v>109</v>
       </c>
@@ -16408,49 +16574,49 @@
       <c r="A35" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="88" t="s">
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="89"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="90"/>
     </row>
     <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="91"/>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="88" t="s">
+      <c r="C36" s="90"/>
+      <c r="D36" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="88" t="s">
+      <c r="E36" s="90"/>
+      <c r="F36" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="89"/>
-      <c r="H36" s="88" t="s">
+      <c r="G36" s="90"/>
+      <c r="H36" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="89"/>
-      <c r="J36" s="88" t="s">
+      <c r="I36" s="90"/>
+      <c r="J36" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="K36" s="89"/>
-      <c r="L36" s="88" t="s">
+      <c r="K36" s="90"/>
+      <c r="L36" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="M36" s="89"/>
+      <c r="M36" s="90"/>
     </row>
     <row r="37" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A37" s="84"/>
@@ -16595,10 +16761,10 @@
       <c r="G40" s="52">
         <v>0.38</v>
       </c>
-      <c r="H40" s="53">
+      <c r="H40" s="59">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I40" s="53">
+      <c r="I40" s="59">
         <v>0.03</v>
       </c>
       <c r="J40" s="59">
@@ -17018,23 +17184,23 @@
       <c r="A53" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="88" t="s">
+      <c r="B53" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="88" t="s">
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="89"/>
-      <c r="O53" s="82" t="s">
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="90"/>
+      <c r="O53" s="88" t="s">
         <v>116</v>
       </c>
       <c r="P53" s="85" t="s">
@@ -17045,31 +17211,31 @@
     </row>
     <row r="54" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="91"/>
-      <c r="B54" s="88" t="s">
+      <c r="B54" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="88" t="s">
+      <c r="C54" s="90"/>
+      <c r="D54" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="E54" s="89"/>
-      <c r="F54" s="88" t="s">
+      <c r="E54" s="90"/>
+      <c r="F54" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="G54" s="89"/>
-      <c r="H54" s="88" t="s">
+      <c r="G54" s="90"/>
+      <c r="H54" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="I54" s="89"/>
-      <c r="J54" s="88" t="s">
+      <c r="I54" s="90"/>
+      <c r="J54" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="K54" s="89"/>
-      <c r="L54" s="88" t="s">
+      <c r="K54" s="90"/>
+      <c r="L54" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="M54" s="89"/>
-      <c r="O54" s="82"/>
+      <c r="M54" s="90"/>
+      <c r="O54" s="88"/>
       <c r="P54" s="49" t="s">
         <v>223</v>
       </c>
@@ -17118,7 +17284,7 @@
       <c r="M55" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="O55" s="82"/>
+      <c r="O55" s="88"/>
       <c r="P55" s="49" t="s">
         <v>137</v>
       </c>
@@ -17616,13 +17782,13 @@
       <c r="M65" s="52">
         <v>0.36</v>
       </c>
-      <c r="O65" s="82" t="s">
+      <c r="O65" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="P65" s="82" t="s">
+      <c r="P65" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="Q65" s="82"/>
+      <c r="Q65" s="88"/>
     </row>
     <row r="66" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="54" t="s">
@@ -17664,7 +17830,7 @@
       <c r="M66" s="52">
         <v>0.31</v>
       </c>
-      <c r="O66" s="82"/>
+      <c r="O66" s="88"/>
       <c r="P66" s="49" t="s">
         <v>223</v>
       </c>
@@ -17712,7 +17878,7 @@
       <c r="M67" s="49">
         <v>0.09</v>
       </c>
-      <c r="O67" s="82"/>
+      <c r="O67" s="88"/>
       <c r="P67" s="49" t="s">
         <v>11</v>
       </c>
@@ -17738,6 +17904,7 @@
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O53:O55"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
@@ -17763,7 +17930,6 @@
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="J54:K54"/>
     <mergeCell ref="L54:M54"/>
-    <mergeCell ref="O53:O55"/>
     <mergeCell ref="R54:R55"/>
     <mergeCell ref="P58:R58"/>
     <mergeCell ref="P53:R53"/>
